--- a/results/test2/raw_outputs/claude-opus_outputs.xlsx
+++ b/results/test2/raw_outputs/claude-opus_outputs.xlsx
@@ -646,12 +646,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>This securities class action was brought by Lead Plaintiffs United Association National Pension Fund (UANPF) and Saskatchewan Healthcare Employees' Pension Plan (SHEPP) against Carvana Co. and several individual defendants, including Ernest Garcia II (controlling shareholder and father), Ernest Garcia III (CEO and Chairman), Mark Jenkins (CFO), Ryan Keeton (Chief Brand Officer), and Benjamin Huston (COO). The complaint alleges a classic pump-and-dump scheme during the Class Period from May 6, 2020 to November 3, 2022. Plaintiffs allege that Defendants artificially inflated Carvana's stock price by making false and misleading statements about the company's growth, profitability, business model, and competitive advantages while concealing that: (1) retail growth was unsustainable and fueled by unprofitable sales in distant markets; (2) the company drastically lowered purchasing and verification standards when buying cars from customers, leading to low-quality inventory and logistical nightmares; (3) Carvana systematically violated state title and registration laws to push through sales faster; (4) the 'capital-light' expansion model was a farce requiring significant infrastructure investment; and (5) the company entered pass-through sales arrangements with Garcia Senior's DriveTime that inflated reported sales. During the Class Period, insiders sold over $3.87 billion in stock at artificially inflated prices, with Garcia Senior alone selling approximately $3.6 billion. When the truth emerged through partial disclosures, Carvana's stock price declined over 97% from a Class Period high of $376 per share to $7.39 per share. The complaint also asserts Securities Act claims on behalf of purchasers in the April 2022 Public Offering, alleging the Registration Statement contained material misstatements and omissions.</t>
+          <t>This securities class action was brought by Lead Plaintiffs United Association National Pension Fund and Saskatchewan Healthcare Employees' Pension Plan against Carvana Co., its controlling shareholder Ernest Garcia II, CEO Ernest Garcia III, CFO Mark Jenkins, and other executives. The complaint alleges a pump-and-dump scheme during the Class Period from May 6, 2020 to November 3, 2022. Plaintiffs claim defendants artificially inflated Carvana's stock price by making false statements about the company's growth, profitability, business model, and title/registration practices. The alleged misconduct includes: (1) lowering vehicle purchasing standards to inflate retail sales; (2) rapid unsustainable market expansion without adequate infrastructure; (3) violating state title and registration laws to push through sales; and (4) entering pass-through arrangements with DriveTime to inflate reported sales. Defendants allegedly sold over $3.87 billion in personally held stock at inflated prices before the truth emerged. The complaint asserts Exchange Act claims under Sections 10(b), 20(a), and 20A, and Securities Act claims under Sections 11, 12(a)(2), and 15 related to an April 2022 public offering. The stock declined over 97% from its Class Period high of $376 to $7.39 per share.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5 (Count I)</t>
+          <t>Section 10(b) and Rule 10b-5 - Scheme to Defraud and False/Misleading Statements (Count I)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>The complaint adequately pleads all elements of a Section 10(b) claim. First, regarding material misrepresentations and omissions, Plaintiffs allege with particularity that Defendants made false statements about Carvana's sustainable growth model, capital-light expansion, efficient logistics network, profitability metrics (Total GPU), and compliance with title and registration laws. The complaint identifies specific statements in SEC filings, earnings calls, and shareholder letters that were allegedly false when made. Second, scienter is adequately pled through: (a) the massive insider sales totaling over $3.87 billion during the Class Period, with Garcia Senior alone selling $3.6 billion and modifying his 10b5-1 plan twice to accelerate sales; (b) detailed confidential witness accounts from 11 former employees describing management's knowledge of quality issues, title problems, and the directive to prioritize growth over profitability; (c) Defendants' access to internal data showing declining GPU and mounting operational problems; (d) the core operations doctrine, as the alleged fraud relates to Carvana's primary business operations; and (e) Defendants' motive to inflate stock prices for personal gain. Third, reliance is presumed under the fraud-on-the-market doctrine as Carvana stock traded on the NYSE, an efficient market. Fourth, loss causation is adequately pled through a series of partial corrective disclosures beginning August 10, 2021 through November 3, 2022, each revealing aspects of the concealed problems and causing stock price declines. The complaint sufficiently alleges that Defendants engaged in a scheme to defraud by artificially inflating retail sales through unsustainable practices while concealing the true state of the business.</t>
+          <t>The complaint adequately pleads material misrepresentations and omissions regarding Carvana's retail unit growth, profitability metrics, logistics capabilities, capital-light expansion model, and title/registration compliance. The detailed confidential witness accounts from 11 former employees corroborate allegations that defendants lowered purchasing standards, knew of widespread title issues, and prioritized growth over profitability. Scienter is adequately alleged through: (1) massive insider sales totaling $3.87 billion, including Garcia Senior's $3.6 billion in sales with suspicious 10b5-1 plan modifications; (2) access to internal data showing declining GPU and title problems; (3) participation in meetings where quality and title issues were discussed; and (4) contemporaneous knowledge from CW accounts showing executives were informed of problems. Loss causation is sufficiently pled through multiple partial corrective disclosures.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act - Control Person Liability (Count II)</t>
+          <t>Section 20(a) Control Person Liability (Count II)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -676,12 +676,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Having found that the complaint adequately states a primary violation under Section 10(b), the Section 20(a) claim survives. The complaint adequately alleges that the Individual Defendants were controlling persons of Carvana. Garcia Senior, despite not holding an official position due to his prior felony conviction, controlled approximately 84% of the voting power and installed his son as CEO and loyal associates on the Board. Garcia Junior served as CEO, President, and Chairman. Jenkins served as CFO and signed SEC filings. Huston served as COO with responsibility for operations, logistics, and market expansion. Keeton served as Chief Brand Officer. Each Individual Defendant had the power to direct the Company's actions and exercised control over the specific activities comprising the primary violations. The complaint also adequately alleges Carvana's control over the Individual Defendants through its power to hire, fire, supervise, and compensate them. Defendants have not established the good faith defense at this stage.</t>
+          <t>The complaint adequately alleges the Individual Defendants were controlling persons of Carvana. Garcia Senior held approximately 84% voting power as controlling shareholder despite not being an officer. Garcia Junior served as CEO, President, and Chairman. Jenkins served as CFO and signed SEC filings. Keeton and Huston served as Chief Brand Officer and COO respectively. The complaint sufficiently alleges these defendants had power to control the company's statements and operations, and that a primary violation under Section 10(b) occurred.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Section 20A of the Exchange Act - Contemporaneous Trading (Count III)</t>
+          <t>Section 20A Contemporaneous Trading (Count III)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Section 20A provides a private right of action for contemporaneous traders against persons who violate the Exchange Act by trading while in possession of material nonpublic information. The complaint adequately alleges: (1) violations of Section 10(b) as the predicate violation; (2) that Defendants Garcia Senior, Jenkins, Keeton, and Huston possessed material nonpublic information about Carvana's true business condition, unsustainable growth practices, and title/registration violations; (3) that these Defendants sold substantial amounts of Carvana stock during the Class Period - Garcia Senior sold approximately $3.6 billion, Jenkins sold over $79 million, Huston sold nearly $79.3 million, and Keeton sold over $42.3 million; and (4) that Plaintiffs purchased Carvana stock contemporaneously with these sales, as detailed in the extensive trading charts provided in the complaint. The timing and magnitude of the insider sales, combined with the modifications to 10b5-1 plans during the Class Period, support the inference that Defendants traded while in possession of material nonpublic information.</t>
+          <t>The complaint adequately alleges contemporaneous trading by Garcia Senior, Jenkins, Keeton, and Huston. Detailed charts show defendants' sales occurring on the same days as plaintiffs' purchases during the Class Period. The complaint establishes defendants possessed material nonpublic information about the scheme and title/registration issues while selling, and that plaintiffs purchased contemporaneously at artificially inflated prices. The underlying Section 10(b) violation is adequately pled.</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Section 11 of the Securities Act (Count IV)</t>
+          <t>Section 11 - Registration Statement Liability (Count IV)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Section 11 imposes strict liability on issuers for material misstatements or omissions in registration statements. The complaint adequately alleges that the Registration Statement for the April 2022 Public Offering, which incorporated the 2021 10-K by reference, contained material misstatements and omissions. Specifically, the Registration Statement: (1) touted Carvana's 'capital-light expansion model' and 'efficient logistics network' while failing to disclose mounting logistical constraints and costs; (2) described the company's vehicle acquisition practices as focused on 'quality, inventory fit, consumer desirability' while failing to disclose that Carvana was purchasing vehicles regardless of quality; (3) contained boilerplate risk disclosures about title and registration compliance while failing to disclose that Carvana was already experiencing widespread violations and regulatory scrutiny; and (4) failed to disclose that retail growth was being achieved through unprofitable sales in distant markets. Plaintiffs UANPF and SHEPP have standing as they purchased shares directly in the 2022 Public Offering from underwriter Citigroup at $80.00 per share. The claims are timely as less than one year elapsed from discovery of the facts and less than three years from the offering date.</t>
+          <t>The complaint adequately alleges the Registration Statement for the April 2022 public offering contained material misstatements and omissions. The 2021 10-K incorporated by reference contained false statements about Carvana's competitive advantages, logistics efficiency, capital-light model, and title/registration compliance. At the time of the offering, defendants knew of mounting logistics constraints, widespread title issues, and regulatory investigations. The complaint identifies specific false statements and material omissions. Plaintiffs trace their shares to the offering, having purchased directly from underwriter Citigroup at $80 per share.</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Section 12(a)(2) of the Securities Act (Count V)</t>
+          <t>Section 12(a)(2) - Prospectus Liability (Count V)</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -721,12 +721,12 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Section 12(a)(2) imposes liability on any person who offers or sells a security by means of a prospectus containing material misstatements or omissions. The complaint adequately alleges that the Securities Act Defendants, including the Underwriter Defendants (Citigroup and J.P. Morgan), offered and sold Carvana stock in the 2022 Public Offering using a defective Prospectus Supplement. The Underwriter Defendants are statutory sellers who passed title to purchasers and solicited purchases for their own financial benefit, sharing nearly $25 million in underwriting fees. The Prospectus Supplement contained the same material misstatements and omissions identified in the Section 11 claim regarding Carvana's business model, logistics capabilities, vehicle acquisition practices, and regulatory compliance. Plaintiffs have adequately alleged they purchased directly in the offering and have tendered their shares for rescission. The Underwriter Defendants' due diligence defense cannot be resolved at the pleading stage.</t>
+          <t>The complaint adequately alleges defendants offered and sold securities by means of a prospectus containing material misstatements and omissions. The Securities Act Defendants, including the underwriters, promoted and sold Carvana stock through the defective Prospectus Supplement. The same material misrepresentations and omissions identified for the Section 11 claim apply. Plaintiffs adequately allege they purchased in the offering and suffered damages as the stock price declined.</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Section 15 of the Securities Act - Control Person Liability (Count VI)</t>
+          <t>Section 15 - Control Person Liability under Securities Act (Count VI)</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -736,14 +736,14 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Having found that the complaint adequately states primary violations under Sections 11 and 12(a)(2), the Section 15 control person claim against the Individual Securities Act Defendants survives. The complaint adequately alleges that Defendants Garcia Junior, Jenkins, Palmer, and the Director Defendants (Maroone, Parikh, Platt, and Sullivan) were controlling persons of Carvana by virtue of their positions as senior officers and/or directors. Each signed the Registration Statement and had access to undisclosed adverse information about the company's business and operations through internal documents, management meetings, and Board meetings. The complaint alleges these defendants had the power to influence and control Carvana's conduct and exercised that power in connection with the 2022 Public Offering. The good faith defense under Section 15 cannot be resolved at this stage of the proceedings.</t>
+          <t>The complaint adequately alleges the Individual Securities Act Defendants (Garcia Junior, Jenkins, Palmer, and the Director Defendants) were controlling persons of Carvana for purposes of the Securities Act. They signed the Registration Statement, served as senior officers and directors, and had power to influence the company's conduct. The underlying Section 11 and 12(a)(2) violations are adequately pled, establishing the predicate for control person liability.</t>
         </is>
       </c>
       <c r="W2" t="n">
-        <v>112955</v>
+        <v>112675</v>
       </c>
       <c r="X2" t="n">
-        <v>2160</v>
+        <v>1230</v>
       </c>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
@@ -777,16 +777,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>This securities class action complaint is brought by Lead Plaintiff Glen Littleton on behalf of a class of shareholders who purchased or sold Tesla securities from August 7, 2018 to August 17, 2018 (the 'Class Period'). The defendants are Tesla, Inc., its CEO and Chairman Elon Musk, and seven members of Tesla's Board of Directors (Brad W. Buss, Robyn Denholm, Ira Ehrenpreis, Antonio J. Gracias, James Murdoch, Kimbal Musk, and Linda Johnson Rice).
-The core allegations center on Musk's August 7, 2018 tweet stating 'Am considering taking Tesla private at $420. Funding secured.' Plaintiff alleges this statement and subsequent related statements were materially false and misleading because: (1) no funding had actually been secured for a going-private transaction; (2) Musk had not discussed the $420 price with any potential investor; (3) discussions with Saudi Arabia's Public Investment Fund were extremely preliminary and did not result in any firm commitment; (4) Musk had not retained financial or legal advisors; (5) Musk had not determined whether shareholders could remain invested in a private Tesla; and (6) there were numerous unresolved contingencies including a potential requirement to build a Tesla facility in the Middle East.
-The complaint alleges Musk knew his statements were false, citing his own admission that there was 'a lot of uncertainty' with only a 50% likelihood of success. The complaint also alleges Musk was motivated by animosity toward short sellers, having previously threatened a 'short burn of the century.' Following The New York Times report on August 17, 2018 revealing that funding was not secured, Tesla's stock declined nearly 9%, erasing over $5 billion in market capitalization.
-The SEC subsequently filed fraud charges against both Musk and Tesla, resulting in settlements requiring Musk to step down as Chairman, Tesla to appoint independent directors, and both to pay $20 million penalties each. Musk consented to a judgment that prevents him from denying the SEC's allegations.
-The complaint asserts two causes of action: (1) violations of Section 10(b) of the Securities Exchange Act and Rule 10b-5 against Tesla and Musk; and (2) violations of Section 20(a) of the Securities Exchange Act against the Board members as controlling persons.</t>
+          <t>This securities class action is brought by Lead Plaintiff Glen Littleton on behalf of a class of shareholders who purchased or sold Tesla securities from August 7, 2018 to August 17, 2018. The defendants are Tesla, Inc., CEO Elon Musk, and Tesla's Board of Directors (Brad Buss, Robyn Denholm, Ira Ehrenpreis, Antonio Gracias, James Murdoch, Kimbal Musk, and Linda Johnson Rice). The alleged misconduct centers on Musk's August 7, 2018 tweet stating 'Am considering taking Tesla private at $420. Funding secured.' Plaintiff alleges this statement and subsequent communications were materially false and misleading because funding had not actually been secured, Musk had not discussed the $420 price with any potential investors, no formal agreements existed, and numerous contingencies remained unresolved. The complaint details that Musk's only substantive discussion was a preliminary 30-45 minute meeting with Saudi Arabia's Public Investment Fund on July 31, 2018, where no terms were agreed upon. Musk allegedly knew there was 'a lot of uncertainty' with only a 50% likelihood of success. The false statements caused Tesla's stock to surge 10% on August 7, 2018, before declining nearly 9% on August 17, 2018 when The New York Times revealed funding was not secured. The complaint alleges Musk was motivated by animosity toward short sellers and Tesla's need to keep stock prices above conversion thresholds for convertible bonds. Both Musk and Tesla subsequently settled SEC fraud charges, paying $20 million each, with Musk stepping down as Chairman. Plaintiff brings claims under Section 10(b) and Rule 10b-5 against Tesla and Musk, and Section 20(a) control person liability against the Board.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Section 10(b) and Rule 10b-5 against Tesla and Musk</t>
+          <t>Section 10(b) and Rule 10b-5 violation against Tesla and Musk</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -796,17 +792,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>The motion to dismiss is DENIED as to the Section 10(b) and Rule 10b-5 claims against Tesla and Musk. To state a claim under Section 10(b) and Rule 10b-5, plaintiffs must adequately plead: (1) a material misrepresentation or omission; (2) scienter; (3) a connection between the misrepresentation and the purchase or sale of a security; (4) reliance; (5) economic loss; and (6) loss causation. Under the PSLRA's heightened pleading standards, plaintiffs must specify each statement alleged to be misleading and state with particularity facts giving rise to a strong inference of scienter.
-Material Misrepresentation: The complaint adequately alleges material misstatements. Musk's tweet that 'Funding secured' for a $420 per share going-private transaction was a statement of present fact, not opinion or forward-looking statement. The complaint alleges with particularity that this statement was false because: no funding agreement existed; the $420 price had never been discussed with any investor; discussions with the Public Investment Fund were preliminary and subject to significant contingencies; and Musk himself believed there was only a 50% likelihood of success. A reasonable investor would consider information about secured funding for a major corporate transaction to be material.
-Scienter: The complaint raises a strong inference of scienter. First, Musk's own admissions in the SEC proceeding that his statements 'were premised on a long series of baseless assumptions and were contrary to facts that [he] knew' directly support knowing falsity. Second, Musk's contemporaneous knowledge that there was 'a lot of uncertainty' and only 50% likelihood of success contradicts his public statements that funding was 'secured' and the only contingency was a shareholder vote. Third, Musk's motive to harm short sellers is well-documented through his prior tweets threatening 'short burn of the century' and his stated desire to avoid 'constant defamatory attacks by the short-selling community.' Fourth, the SEC settlement, which required Musk to step down as Chairman and prohibited him from denying the allegations, provides additional circumstantial evidence of scienter. Fifth, Musk's admission that he chose $420 because his girlfriend would 'find it funny' due to marijuana references demonstrates a cavalier attitude inconsistent with legitimate corporate disclosure. The totality of these allegations creates a strong inference of at least deliberate recklessness.
-Reliance: The complaint adequately invokes the fraud-on-the-market presumption of reliance by alleging Tesla securities traded on an efficient market (NASDAQ), with high trading volume, analyst coverage, and SEC filings. The statements were publicly disseminated through Musk's Twitter account, which Tesla had designated as an official communication channel.
-Loss Causation: The complaint adequately pleads loss causation by alleging that when the truth was revealed through The New York Times article on August 17, 2018—disclosing that funding was not secured and no one had reviewed Musk's tweet—Tesla's stock declined nearly 9%. The complaint traces the artificial inflation and subsequent decline to the specific misrepresentations.
-Musk's scienter is properly imputed to Tesla given his role as CEO and Chairman, and Tesla's designation of his Twitter account as an official corporate communication channel.</t>
+          <t>The complaint adequately pleads all elements of a Section 10(b) and Rule 10b-5 claim. First, the complaint identifies specific false statements of material fact, particularly Musk's August 7, 2018 tweet that 'funding secured' for a going-private transaction at $420 per share, when no funding had actually been secured and no terms had been discussed with potential investors. Second, scienter is adequately pled through multiple means: (a) Musk's own knowledge that there was 'a lot of uncertainty' with only 50% likelihood of success; (b) Musk's admission to the SEC that his statements 'were premised on a long series of baseless assumptions and were contrary to facts that he knew'; (c) Musk's settlement with the SEC on fraud charges without denying the allegations; (d) Musk's demonstrated motive to harm short sellers through prior tweets threatening 'short burn of the century'; and (e) Tesla's financial motive related to convertible bond conversion prices. Third, the complaint adequately pleads reliance through the fraud-on-the-market presumption, as Tesla securities traded on efficient markets (NASDAQ), the company filed regular SEC reports, and was followed by securities analysts. Fourth, loss causation is adequately pled by showing the stock price declined nearly 9% on August 17, 2018 when The New York Times revealed the truth that funding was not secured. Fifth, damages are alleged through the artificial inflation and subsequent decline in Tesla securities prices. The PSLRA's heightened pleading requirements are satisfied through particularized allegations of the specific false statements, the facts known to Musk contradicting those statements, and strong circumstantial evidence of scienter including the SEC settlement and Musk's demonstrated hostility toward short sellers.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Section 20(a) Control Person Liability against the Board</t>
+          <t>Section 20(a) control person liability against the Board</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -816,13 +807,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>The motion to dismiss is GRANTED as to the Section 20(a) claims against the Board members. Section 20(a) of the Securities Exchange Act imposes joint and several liability on persons who control any person liable under the Exchange Act. To establish control person liability, plaintiffs must adequately plead: (1) a primary violation of the securities laws; and (2) that the defendant exercised actual power or control over the primary violator.
-While the complaint adequately alleges a primary violation by Tesla and Musk, it fails to adequately plead that the Board members exercised the requisite control over Musk's August 7, 2018 tweets or the subsequent misstatements during the Class Period.
-The complaint's allegations regarding Board control are conclusory and insufficient. The complaint alleges that Board members 'had responsibility for ensuring Tesla's public disclosures were truthful' and that once Tesla designated Musk's Twitter as an official channel, the Board was 'duty-bound to oversee the accuracy of statements.' However, these are legal conclusions, not factual allegations.
-The complaint actually undermines its control theory by alleging that Musk posted his August 7, 2018 tweet without anyone reviewing it beforehand, that the Board only learned of the tweet after it was posted, and that the Board subsequently persuaded Musk to refrain from tweeting about the transaction. These allegations demonstrate that the Board did not control Musk's initial misstatements—the very statements that caused the alleged harm.
-The allegation that Defendant Gracias later 'ordered' Musk to stop tweeting demonstrates reactive oversight after the fraud occurred, not contemporaneous control over the fraudulent statements. The fact that the Board issued a press release on August 8, 2018 does not establish control over Musk's prior tweets.
-Moreover, the complaint does not allege that any Board member participated in drafting, reviewing, or approving Musk's tweets before publication, or that they had knowledge of the falsity of Musk's statements at the time they were made. The complaint's theory that the Board should have corrected Musk's statements sooner does not establish the culpable participation required for control person liability.
-The Section 20(a) claims against all Board members are dismissed without prejudice. Plaintiff may seek leave to amend if additional facts can be alleged demonstrating that specific Board members exercised actual control over the challenged statements.</t>
+          <t>The Section 20(a) claim against the Board of Directors must be dismissed for failure to adequately plead control person liability. While the complaint establishes that Board members held positions of authority and that Tesla had designated Musk's Twitter account as an official communication channel in 2013, the complaint fails to adequately allege that the Board members actually participated in or had the ability to control the specific false statements at issue. The complaint itself acknowledges that no one saw or reviewed Musk's August 7, 2018 'funding secured' tweet before he posted it. The Board's subsequent actions—issuing a press release on August 8, 2018, forming a special committee, and persuading Musk to refrain from tweeting about the transaction—demonstrate reactive rather than proactive control over Musk's communications. Section 20(a) requires that the controlling person actually exercised control over the primary violator with respect to the specific transaction or activity that constitutes the violation. The complaint does not allege facts showing the Board had advance knowledge of or participated in the drafting of Musk's false tweets. The allegation that Board member Gracias contacted Musk after August 7, 2018 to order him to stop tweeting actually undermines the claim by showing the Board lacked prior control. Furthermore, the complaint does not adequately allege that the Board acted in bad faith or was culpable participants in the fraud, which is required in this Circuit for control person liability. The mere existence of a duty to oversee corporate communications is insufficient to establish control person liability under Section 20(a).</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -838,10 +823,10 @@
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>29969</v>
+        <v>29689</v>
       </c>
       <c r="X3" t="n">
-        <v>1922</v>
+        <v>1236</v>
       </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
@@ -875,47 +860,37 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>This securities class action was brought by Plaintiff Fiyyaz Pirani, as Trustee of Imperium Irrevocable Trust, on behalf of investors who purchased Netflix common stock, call options, or sold put options between January 19, 2021 and April 19, 2022. The defendants are Netflix, Inc. and four Individual Defendants: Reed Hastings (Co-CEO), Ted Sarandos (Co-CEO), Spencer Neumann (CFO), and Gregory Peters (COO).
-The complaint alleges that defendants made materially false and misleading statements about Netflix's business prospects, market penetration, and subscriber growth potential while concealing the true extent of account sharing (password sharing) on the platform. Throughout the Class Period, defendants attributed slowing subscriber growth to COVID-19 'pull-forward' effects and production delays, while failing to disclose that approximately 100 million additional households globally (including over 30 million in the U.S. and Canada region) were using Netflix through account sharing without paying.
-Key allegations include: (1) Defendants repeatedly stated that Netflix was only 'roughly 60% penetrated' in the UCAN market when effective penetration was approximately 83-84% when including account sharers; (2) Defendants assured investors there was 'a lot of headroom' and 'ample runway for growth' while knowing account sharing severely hindered acquisition of new paying members; (3) Defendants attributed subscriber growth challenges to COVID effects rather than market saturation caused by account sharing; (4) Netflix's engagement metrics were artificially inflated by including views from non-paying account sharers.
-The truth was partially revealed on January 20, 2022, when Netflix missed Q4'21 guidance and issued weak Q1'22 guidance, causing a 21.7% stock decline. The full truth emerged on April 19, 2022, when Netflix disclosed the extent of account sharing and admitted that 'relatively high household penetration - when including the large number of households sharing accounts - combined with competition, is creating revenue growth headwinds,' causing a 35% stock decline.
-Plaintiff asserts claims under Section 10(b) and Rule 10b-5 of the Securities Exchange Act against all defendants, and Section 20(a) control person liability against the Individual Defendants.</t>
+          <t>This securities class action was brought by Plaintiff Fiyyaz Pirani, as Trustee of Imperium Irrevocable Trust, on behalf of purchasers of Netflix common stock, call options, or sellers of put options between January 19, 2021 and April 19, 2022. The defendants are Netflix, Inc. and individual executives Reed Hastings (Co-CEO), Ted Sarandos (Co-CEO), Spencer Neumann (CFO), and Gregory Peters (COO). The complaint alleges that defendants made materially false and misleading statements about Netflix's subscriber growth prospects and market penetration rates while concealing the true extent of account sharing (password sharing) on the platform. Specifically, plaintiffs allege defendants knew that approximately 100 million additional households globally (including 30 million in the US/Canada region) were using Netflix through account sharing without paying, which meant actual market penetration was approximately 83-84% in UCAN rather than the reported 60%. Defendants allegedly attributed slowing subscriber growth to COVID-19 'pull-forward' effects rather than disclosing that account sharing had effectively saturated key markets. The truth was allegedly revealed on January 20, 2022, when Netflix missed guidance and stock fell 21.7%, and more fully on April 19, 2022, when Netflix disclosed the extent of account sharing and admitted high market penetration was creating 'revenue growth headwinds,' causing stock to fall 35%. The complaint asserts claims under Section 10(b) and Rule 10b-5 of the Securities Exchange Act against all defendants, and Section 20(a) control person liability against individual defendants.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5</t>
+          <t>Section 10(b) of the Exchange Act and Rule 10b-5 against all Defendants</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>The complaint adequately pleads a Section 10(b) and Rule 10b-5 claim. First, regarding material misrepresentations and omissions, the complaint alleges specific false statements by defendants about market penetration (claiming 60% in UCAN when effective penetration was 83-84%), subscriber growth prospects ('lot of headroom,' 'ample runway for growth'), and the reasons for slowing growth (attributing it to COVID pull-forward rather than account sharing saturation). The complaint adequately alleges these statements were materially misleading because they omitted the critical fact that approximately 100 million households globally were using Netflix through account sharing, which materially affected the Company's true market penetration and growth potential.
-Second, regarding scienter, the complaint adequately pleads facts giving rise to a strong inference of scienter. Defendants admitted they had been monitoring account sharing for years and began testing methods to monetize sharing 'almost 2 years' before the April 2022 disclosure. Former employees (FE1 and FE2) provide detailed accounts of internal discussions about password sharing being characterized as 'lost revenue' and limiting subscriber goals. The complaint alleges Hastings authored an internal memo about not cracking down on password sharing during COVID because it would appear exploitative. The risk disclosures in the 10-K filings were revised to add language about 'efforts to restrict multi-household usage,' suggesting awareness of the problem. When directly asked about account sharing and saturation during earnings calls, defendants were evasive rather than forthcoming.
-Third, the complaint adequately pleads reliance through the fraud-on-the-market presumption, as Netflix stock traded on NASDAQ, an efficient market, and the company was followed by numerous analysts and regularly communicated with the public.
-Fourth, loss causation is adequately alleged through the January 21, 2022 stock drop of 21.7% following partial disclosure and the April 20, 2022 drop of 35% following full disclosure of account sharing extent and its impact on market penetration.
-Fifth, damages are adequately alleged as plaintiffs purchased at artificially inflated prices and suffered losses when the truth was revealed.</t>
+          <t>The complaint fails to adequately plead scienter as required under the PSLRA. While plaintiffs allege defendants knew about account sharing, the complaint acknowledges that Netflix had publicly discussed account sharing for years and that it was widely known in the market. The defendants' statements about COVID pull-forward effects on subscriber growth represent forward-looking business judgments and opinions about causation that are protected. The complaint does not establish that defendants knew account sharing was materially impacting growth at the time they attributed slowdowns to COVID effects. The allegations from former employees (FE1 and FE2) are insufficient to establish that senior executives knew account sharing was causing market saturation rather than COVID effects. Additionally, the alleged misstatements about market penetration being '60%' versus '83%' when including account sharers conflates two different metrics - paying subscribers versus total users - and defendants' statements about penetration were accurate with respect to paying subscribers. The complaint also fails to adequately plead loss causation, as the stock price declines could be attributed to the disclosed disappointing subscriber numbers and guidance rather than the revelation of previously concealed information about account sharing, which was already publicly known to exist.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act (Control Person Liability)</t>
+          <t>Section 20(a) of the Exchange Act against Individual Defendants</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>The Section 20(a) claim against the Individual Defendants is sustained. A Section 20(a) claim requires: (1) a primary violation of securities law, and (2) that the defendant exercised actual power or control over the primary violator.
-As discussed above, the complaint adequately alleges a primary violation under Section 10(b) and Rule 10b-5. The complaint also adequately alleges that each Individual Defendant was a control person. Hastings served as Co-CEO and Chairman of the Board; Sarandos served as Co-CEO and Chief Content Creator; Neumann served as CFO; and Peters served as COO and Chief Product Officer. The complaint alleges these defendants had the power to influence and control the Company's decision-making, including the content of public statements. They signed SEC filings, participated in earnings calls where the alleged misstatements were made, and had access to internal information about account sharing. The complaint specifically alleges that Hastings authored the internal memo about password sharing policy during COVID, that Peters had been 'doing a lot of great research' on account sharing solutions, and that these executives participated in the quarterly business review meetings where password sharing was discussed.
-Because the complaint adequately alleges both a primary violation and that each Individual Defendant exercised control over Netflix, the Section 20(a) claim survives the motion to dismiss.</t>
+          <t>Because the underlying Section 10(b) claim is dismissed, the derivative Section 20(a) control person liability claim against the individual defendants must also be dismissed. Section 20(a) liability requires an underlying primary violation of the securities laws, which has not been adequately pled here.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -931,10 +906,10 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>47901</v>
+        <v>47621</v>
       </c>
       <c r="X4" t="n">
-        <v>1393</v>
+        <v>758</v>
       </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
@@ -955,7 +930,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cand_22_cv_00105</t>
+          <t>cand_22_cv_02094</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -968,15 +943,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>This securities class action is brought by Lead Plaintiffs Martin Dugan, Leon Yu, and Max Wisdom Technology Limited against Talis Biomedical Corporation and several individual defendants including officers (Brian Coe, J. Roger Moody Jr., Robert J. Kelley) and directors (Felix Baker, Raymond Cheong, Melissa Gilliam, Rustem F. Ismagilov, Kimberly J. Popovits, Matthew L. Posard, and Randal Scott). The case arises from Talis's February 11, 2021 IPO, which raised $254 million, and subsequent statements through March 15, 2022.
-The complaint alleges that defendants made materially false and misleading statements about the Talis One, a molecular diagnostic device for COVID-19 testing. Specifically, plaintiffs allege three categories of fraud: (1) Talis botched its FDA Emergency Use Authorization application by using a comparator assay that lacked sufficient sensitivity under FDA standards, which the FDA rejected shortly after the IPO; (2) the Talis One suffered from serious design issues and high invalid rates (tests not yielding usable results) that were known before the IPO but concealed; and (3) Talis's manufacturing capabilities were grossly overstated - the company claimed to have ordered 5,000 instruments when it had only ordered components, and claimed manufacturing lines would scale to one million cartridges per month when this was not achievable.
-The complaint relies heavily on statements from five former employees (FE-1 through FE-5) who describe: unrealistic timelines, design flaws including leaking cartridges, high invalid rates known before the IPO, the Talis One being essentially a 'dummy box' that sales representatives were instructed not to turn on in front of clients, and management's knowledge of these problems. The complaint also notes the abrupt departures of CEO Coe in August 2021 and his replacement CEO Blaser after only one week in December 2021.
-The Securities Act claims cover purchasers of stock pursuant to the Registration Statement. The Exchange Act claims cover the period from March 30, 2021 through March 15, 2022. By June 30, 2022, Talis stock had fallen to $0.81, a 95% decline from the $16 IPO price.</t>
+          <t>This securities class action is brought by Lead Plaintiff Sjunde AP-Fonden (AP7), a Swedish public pension fund, against Lucid Group, Inc. and its executives CEO Peter Rawlinson and CFO Sherry House. The Class Period runs from November 15, 2021 to August 3, 2022. Plaintiffs allege that Defendants made materially false and misleading statements about Lucid's ability to produce its only commercially-available electric vehicle, the Lucid Air. Specifically, Defendants repeatedly affirmed production guidance of 20,000 vehicles for 2022, later reduced to 12,000-14,000, while knowing internally that Lucid would produce less than 10,000 vehicles due to severe internal logistics problems. The complaint alleges Defendants blamed production shortfalls on external, industry-wide supply chain issues while concealing that Lucid suffered from pervasive internal problems including: non-functional inventory management systems, warehouse operating significantly above capacity, inability to get parts to production lines, parts being damaged and scrapped (tens of millions of dollars worth), design flaws preventing suppliers from manufacturing parts to specifications, and frequent production line shutdowns. Former employees confirm Rawlinson admitted internally in October/November 2021 that Lucid would make less than 10,000 vehicles in 2022. The truth was partially revealed on February 28, 2022 when guidance was cut to 12,000-14,000 (stock dropped 13%), and fully revealed on August 3, 2022 when guidance was slashed to 6,000-7,000 and Defendants disclosed internal logistics problems as the primary bottleneck (stock dropped 9.7%). Plaintiffs assert claims under Section 10(b) and Rule 10b-5 against all Defendants, and Section 20(a) control person liability against the Individual Defendants.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Section 11 of the Securities Act (Count I)</t>
+          <t>Count I: Violation of Section 10(b) of the Exchange Act and SEC Rule 10b-5 against all Defendants</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -986,15 +958,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>The Section 11 claim against the Securities Act Defendants survives the motion to dismiss. Section 11 imposes strict liability on issuers for material misstatements or omissions in a registration statement, and negligence-based liability on other signatories unless they can establish a due diligence defense.
-The complaint adequately alleges material misstatements and omissions in the Registration Statement concerning: (1) the EUA submission - the Registration Statement touted positive test results and 'high PPA and NPA' while omitting that Talis used a comparator assay that lacked sufficient sensitivity under FDA standards, which the FDA rejected days after the IPO; (2) manufacturing capabilities - the Registration Statement falsely stated Talis had 'ordered 5,000 instruments' when it had only ordered components, and claimed production lines would 'scale to full capacity' of one million cartridges per month when this was not achievable; and (3) product reliability - the Registration Statement described the Talis One as 'highly accurate' while omitting known high invalid rates and design defects.
-These allegations are sufficient because they identify specific false statements, explain why they were false or misleading at the time made, and allege facts showing the defendants knew or should have known of the falsity. The complaint adequately alleges that the Individual Defendants failed to conduct reasonable due diligence, as the problems with the EUA submission, manufacturing delays, and product defects existed at the time of the IPO and would have been discovered with reasonable investigation. The complaint also adequately alleges violations of Item 303 (failure to disclose known trends and uncertainties) and Item 105 (failure to disclose specific known risks) of SEC Regulation S-K.
-Plaintiffs have adequately alleged standing by showing they purchased stock traceable to the Registration Statement and suffered damages as the stock price declined.</t>
+          <t>The complaint adequately pleads all elements of a Section 10(b) claim. First, the complaint pleads material misstatements and omissions with particularity, identifying specific statements by Defendants repeatedly affirming production guidance of 20,000 (later 12,000-14,000) vehicles while attributing production challenges to external supply chain issues, when Defendants allegedly knew Lucid would produce less than 10,000 vehicles due to severe internal logistics problems. Second, scienter is adequately pled through: (a) direct evidence that Rawlinson admitted internally in October/November 2021 that Lucid would make less than 10,000 vehicles; (b) numerous former employees confirming executives were repeatedly informed of warehouse chaos, inventory system failures, and production shutdowns; (c) Rawlinson's regular visits to the warehouse where he was directly told about problems; (d) motive - Rawlinson's performance-based compensation package worth potentially $556 million that vested based on market capitalization milestones; (e) the core operations doctrine given production was Lucid's sole revenue source; and (f) the temporal proximity between repeated guidance affirmations and drastic cuts. Third, loss causation is adequately pled through the February 28, 2022 partial disclosure (13% stock drop) and August 3, 2022 full disclosure of internal logistics problems (9.7% stock drop). The PSLRA safe harbor does not apply as most statements were statements of current fact about production capabilities and reasons for delays, not forward-looking statements, and any forward-looking statements were made with actual knowledge of their falsity.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Section 15 of the Securities Act (Count II)</t>
+          <t>Count II: Violation of Section 20(a) of the Exchange Act against Individual Defendants Rawlinson and House</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1004,49 +973,15 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>The Section 15 control person liability claim against the Individual Defendants survives the motion to dismiss. Section 15 imposes liability on persons who control any person liable under Section 11.
-The complaint adequately alleges a primary violation under Section 11, as discussed above. The complaint further adequately alleges that the Individual Defendants were controlling persons of Talis. Defendants Coe and Moody were officers (CEO and CFO respectively) who signed the Registration Statement and were directly involved with the Talis One prior to the IPO. The remaining Individual Defendants were directors who signed the Registration Statement and had the power to control Talis's public statements and the content of the Registration Statement.
-The complaint alleges that by virtue of their positions and authority, the Individual Defendants had the power to direct the management, policies, and actions of Talis, and caused Talis to issue the defective Registration Statement. The complaint further alleges they had access to information showing the Registration Statement was false and misleading, including the FDA's request for additional information regarding the EUA submission, internal testing results showing high invalid rates, and manufacturing schedules showing significant delays.
-At this stage, these allegations are sufficient to state a claim for control person liability under Section 15.</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5 (Count III)</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>The Section 10(b) and Rule 10b-5 claim against the Exchange Act Defendants survives the motion to dismiss. To state a claim under Section 10(b), plaintiffs must adequately allege: (1) a material misrepresentation or omission; (2) scienter; (3) a connection with the purchase or sale of securities; (4) reliance; (5) economic loss; and (6) loss causation.
-Material Misrepresentation or Omission: The complaint adequately alleges numerous false statements during the Class Period (March 30, 2021 - March 15, 2022), including: claims that Talis had 'ordered 5,000 instruments' when it had only ordered components; statements that manufacturing lines would 'scale to full capacity' or 'scale to meet demand' through 2021; CEO Coe's May 2021 statements that Talis was 'ready to go' and could 'ship product in a very timely manner' following EUA approval; the August 2021 statement that Talis was in the 'final stages of validation' for cartridge production lines when validation had not occurred; and Coe's claims of 'terrific' results when the company was plagued with problems.
-Scienter: The complaint adequately alleges scienter through: (1) detailed accounts from five former employees describing management's knowledge of design defects, high invalid rates, and manufacturing problems; (2) the core operations doctrine - the Talis One was the company's only significant product; (3) the Officer Defendants' continuous access to information through RADx Contract reporting requirements, thinXXS Contract purchase commitments, and FDA correspondence; (4) the suspicious timing of executive departures, including CEO Coe's termination shortly after admitting delays and CEO Blaser's resignation after only one week, with a former employee reporting Blaser left because of 'major fraud'; and (5) specific allegations that CEO Coe was briefed over several weeks in May 2021 about serious manufacturing timeline issues.
-Reliance: The complaint adequately invokes the fraud-on-the-market presumption by alleging Talis stock traded on an efficient market (NASDAQ), with significant trading volume and analyst coverage.
-Loss Causation: The complaint adequately alleges loss causation by identifying a series of corrective disclosures from August 2021 through March 2022 that revealed the truth and caused stock price declines, including the August 10, 2021 disclosure of manufacturing delays (6% decline), CEO Coe's departure (11% decline), the November 2021 'phased rollout' announcement (17.93% decline), CEO Blaser's departure (11% decline), and the March 15, 2022 disclosure of manufacturing challenges and high invalid rates (23.08% decline).</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Section 20(a) of the Exchange Act (Count IV)</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>The Section 20(a) control person liability claim against the Officer Defendants survives the motion to dismiss. Section 20(a) imposes joint and several liability on persons who control any person liable under Section 10(b), unless the controlling person acted in good faith and did not directly or indirectly induce the violation.
-The complaint adequately alleges a primary violation under Section 10(b), as discussed above. The complaint further adequately alleges that the Officer Defendants (Coe, Moody, and Kelley) were controlling persons of Talis by virtue of their positions as CEO, CFO, and CEO/Chief Commercial Officer respectively. The complaint alleges they had the power to control Talis's public statements, signed and certified SEC filings, made false statements on earnings calls, and had access to information contradicting their public statements.
-Specifically, CEO Coe signed the RADx Contract and was familiar with its reporting requirements; CFO Moody received reports from the senior director of supply chain about manufacturing issues; and CEO Kelley led the commercial team conducting premarketing studies that revealed the high invalid rates. The complaint alleges these defendants exercised actual control over the content of Talis's SEC filings and public statements.
-At this stage, the complaint adequately states a claim for control person liability under Section 20(a). The good faith defense is an affirmative defense that cannot be resolved on a motion to dismiss where, as here, the complaint alleges facts supporting scienter.</t>
-        </is>
-      </c>
+          <t>The complaint adequately pleads control person liability under Section 20(a). First, a primary violation of Section 10(b) by the Company is adequately alleged as discussed above. Second, the complaint adequately alleges that Rawlinson (CEO/CTO) and House (CFO) were controlling persons of Lucid by virtue of their senior executive positions, their direct involvement in day-to-day operations, their power to control corporate policies and practices, their access to non-public information, their participation in management meetings, and their direct involvement in making the alleged misstatements during earnings calls, press releases, and SEC filings. Third, the complaint alleges the Individual Defendants were culpable participants in the fraud, acting knowingly or with deliberate recklessness, as evidenced by Rawlinson's internal admissions about production targets, his direct knowledge of warehouse problems from site visits and meetings, and both executives' repeated public statements contradicting what they knew internally.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
@@ -1054,10 +989,10 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>43984</v>
+        <v>83935</v>
       </c>
       <c r="X5" t="n">
-        <v>2333</v>
+        <v>1091</v>
       </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -1078,7 +1013,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cand_22_cv_02094</t>
+          <t>cand_23_cv_02560</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1091,12 +1026,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>This securities class action is brought by Lead Plaintiff Sjunde AP-Fonden (AP7), a Swedish public pension fund, against Lucid Group, Inc., CEO Peter Rawlinson, and CFO Sherry House. The class period spans November 15, 2021 through August 3, 2022. Plaintiffs allege that Defendants made materially false and misleading statements about Lucid's ability to produce its only commercial electric vehicle, the Lucid Air. Specifically, Defendants repeatedly affirmed production guidance of 20,000 vehicles for 2022, later reduced to 12,000-14,000, while allegedly knowing the Company would produce less than 10,000 vehicles due to severe internal logistics problems. The complaint details extensive internal issues including: (1) non-functional inventory management systems; (2) a warehouse operating significantly above capacity; (3) inability to locate and deliver parts to production lines; (4) design flaws causing parts shortages; (5) millions of dollars in scrapped parts; and (6) frequent production line shutdowns. Former employees allegedly informed Rawlinson of these problems directly, and he allegedly admitted internally in October/November 2021 that Lucid would make less than 10,000 vehicles. Rather than disclose these internal issues, Defendants blamed external industry-wide supply chain challenges. The truth was allegedly revealed through two partial corrective disclosures: February 28, 2022 (guidance cut to 12,000-14,000 vehicles, stock dropped 13%) and August 3, 2022 (guidance cut to 6,000-7,000 vehicles with disclosure of internal logistics problems, stock dropped 9.7%). Plaintiffs assert claims under Section 10(b) and Rule 10b-5 against all Defendants, and Section 20(a) control person liability against the Individual Defendants.</t>
+          <t>This securities class action is brought by Lead Plaintiff New England Teamsters Pension Fund against Cutera, Inc., a Delaware corporation providing laser and energy-based aesthetic and dermatology solutions, and several Individual Defendants including former CEO David Mowry, former CFO Rohan Seth, former Executive Chairman J. Daniel Plants, former Interim-CEO Sheila Hopkins, current CEO Taylor Harris, current CFO Stuart Drummond, and former General Counsel Vikram Varma. The Class Period spans from March 1, 2022 through March 21, 2024. The complaint alleges that Defendants made materially false and misleading statements concerning: (1) Cutera's internal controls over financial reporting and inventory management, which were severely deficient despite SOX certifications claiming effectiveness; (2) the success of the AviClear device rollout, which was actually a failure driven by executive compensation incentives (the 'Acne Equity Grant') that prioritized device placements over actual utilization; and (3) the health of Cutera's Core Capital business, which suffered from resource diversion to AviClear. Key facts include: the Company's ERP/SAP system implementation was botched with no formal training for months; physical inventory controls were non-existent with anyone able to remove parts from the warehouse; the AviClear rollout was rushed to beat competitor Accure, resulting in high device failure rates and customer dissatisfaction; sales teams were directed to over-index on AviClear at the expense of Core Capital; an extended plant shutdown occurred due to inventory audit problems; Defendants Mowry and Plants were terminated 'with cause' in April 2023; and the Company was required to restate financial statements for Q1 and Q2 2023 due to material inventory overstatements. The complaint asserts claims under Section 10(b) of the Exchange Act and Rule 10b-5 against all Defendants, and Section 20(a) control person liability against the Individual Defendants.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and SEC Rule 10b-5</t>
+          <t>Section 10(b) of the Exchange Act and Rule 10b-5(b) - Against All Defendants</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1106,12 +1041,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>The complaint adequately pleads all elements of a Section 10(b) claim. First, regarding material misrepresentations and omissions, Plaintiffs identify numerous specific statements by Defendants affirming production guidance of 20,000 vehicles (later 12,000-14,000) while allegedly knowing Lucid would produce less than 10,000 vehicles. The complaint alleges Defendants attributed production problems to external supply chain issues while concealing severe internal logistics problems. These statements were material as production capability was central to Lucid's business and stock valuation. Second, scienter is adequately pled through: (a) Rawlinson's alleged internal admission in October/November 2021 that Lucid would produce less than 10,000 vehicles; (b) detailed accounts from ten former employees describing how Rawlinson and House were directly informed of internal logistics problems through meetings, reports, and facility visits; (c) Rawlinson's significant financial motive through performance-based RSUs worth potentially $556 million tied to market capitalization targets; (d) the core operations doctrine, as the Lucid Air was the Company's only product and sole revenue source; and (e) the temporal proximity between affirmations of guidance and subsequent dramatic cuts. Third, reliance is presumed under the fraud-on-the-market doctrine as Lucid stock traded on the Nasdaq, an efficient market. Fourth, loss causation is adequately pled through two corrective disclosures: the February 28, 2022 announcement cutting guidance with a 13% stock drop, and the August 3, 2022 announcement revealing internal logistics problems with a 9.7% drop. The complaint sufficiently alleges that the stock price declines were caused by revelation of the concealed truth rather than external factors. Fifth, economic loss is established through the stock price declines following the corrective disclosures. The detailed allegations from former employees, Rawlinson's alleged internal admissions, and the strong motive evidence create a cogent and compelling inference of scienter that is at least as strong as any opposing inference.</t>
+          <t>The complaint adequately pleads all elements of a Section 10(b) claim. First, Plaintiffs have sufficiently alleged material misrepresentations and omissions regarding the Company's internal controls, the success of the AviClear rollout, and the health of Core Capital. The SOX certifications attesting to effective internal controls were demonstrably false given the subsequent restatement of financial statements for Q1 and Q2 2023, which by definition indicates material errors. Statements touting AviClear's 'successful launch,' 'growing physician adoption,' and 'steadily increasing patient demand' are contradicted by detailed allegations from eight confidential witnesses describing customer dissatisfaction, device returns, and failed sales strategies. Second, scienter is adequately pled through multiple channels: (a) the Individual Defendants' direct involvement in the AviClear rollout and internal controls, with CW allegations that Mowry and Plants personally directed the over-indexing on AviClear; (b) the AviClear Incentive Plan creating strong motive to rush device placements regardless of utilization; (c) the terminations 'with cause' of Mowry and Plants, with the Special Committee explicitly linking these terminations to failed AviClear execution and Plants' prioritization of 'personal enrichment'; (d) the core operations doctrine, as inventory management and AviClear were critical to Cutera's business; and (e) the SOX certifications signed by Individual Defendants attesting to matters they knew or recklessly disregarded were false. Third, loss causation is adequately pled through a series of corrective disclosures from January 2023 through March 2024, with stock price declines of 23%, 12.5%, 28%, 30%, 22.5%, 42.5%, 3.26%, and 30.43% following revelations about the failed AviClear rollout, internal control weaknesses, executive terminations, plant shutdown, and ultimately the Restatement.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act (Control Person Liability) against Individual Defendants Rawlinson and House</t>
+          <t>Section 20(a) of the Exchange Act - Control Person Liability Against Individual Defendants</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1121,7 +1056,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Section 20(a) liability requires: (1) a primary violation of the securities laws; and (2) that the defendant exercised actual power or control over the primary violator. As the Section 10(b) claim survives, the predicate primary violation requirement is satisfied. The complaint adequately alleges that both Rawlinson (CEO/CTO) and House (CFO) were controlling persons of Lucid. Rawlinson is alleged to have been the Company's top executive with direct involvement in day-to-day operations, regular presence at the Plant and Warehouse, participation in meetings where internal problems were discussed, and direct control over public statements including earnings calls and press releases. House, as CFO, is alleged to have participated in meetings discussing inventory problems, received requests for physical inventory counts, approved scrapping of parts, and made public statements about production guidance. Both Individual Defendants signed SEC filings and participated in earnings calls where the allegedly false statements were made. The complaint alleges they had the power to control the content of Lucid's public statements and exercised that power. The complaint also alleges culpable participation by the Individual Defendants through their knowing or reckless conduct. At this stage, Plaintiffs have adequately pled that the Individual Defendants were controlling persons who participated in the alleged fraud, satisfying the requirements for Section 20(a) liability.</t>
+          <t>The complaint adequately alleges control person liability under Section 20(a). Having sustained the underlying Section 10(b) claim, the primary violation requirement is satisfied. The complaint sufficiently alleges that the Individual Defendants were controlling persons of Cutera by virtue of their positions as senior officers (CEO, CFO, Executive Chairman, Interim-CEO, General Counsel) who participated in the operation and management of the Company. The complaint alleges they had the power to control the contents of SEC filings, press releases, and public statements; they signed or approved the allegedly false SEC filings and SOX certifications; they participated in earnings calls making false statements; and they directed the AviClear rollout strategy. The allegations regarding Mowry and Plants personally directing the over-indexing on AviClear, and their subsequent terminations 'with cause' for poor execution and prioritizing personal enrichment, further support their status as controlling persons who were culpable participants in the fraud.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -1137,10 +1072,10 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>84215</v>
+        <v>73569</v>
       </c>
       <c r="X6" t="n">
-        <v>1291</v>
+        <v>1195</v>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
@@ -1161,7 +1096,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cand_23_cv_02560</t>
+          <t>cand_23_cv_03518</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1174,15 +1109,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>This securities class action was brought by Lead Plaintiff New England Teamsters Pension Fund against Cutera, Inc. and several of its former and current executives, including former CEO David Mowry, former CFO Rohan Seth, former Executive Chairman J. Daniel Plants, former Interim-CEO Sheila Hopkins, current CEO Taylor Harris, current CFO Stuart Drummond, and former General Counsel Vikram Varma. The Class Period spans from March 1, 2022 through March 21, 2024.
-The complaint alleges that Defendants made materially false and misleading statements regarding: (1) Cutera's internal controls over financial reporting and inventory management; (2) the success of the AviClear product rollout; and (3) the impact of the AviClear rollout on Cutera's Core Capital business segment.
-Key factual allegations include: Cutera failed to implement adequate internal controls over inventory, with the Company's ERP and Salesforce systems being improperly implemented without adequate training or oversight; physical inventory was poorly controlled with employees able to freely access warehouse areas; the AviClear rollout was rushed to maximize executive compensation under the 'Acne Equity Grant' performance stock unit awards tied to device placements; customers were dissatisfied with AviClear and attempted to return devices; resources were diverted from Core Capital to AviClear, harming the core business; an extended plant shutdown occurred due to inventory audit problems; and the Company ultimately had to restate its financial statements for Q1 and Q2 2023.
-The truth allegedly emerged through a series of corrective disclosures between January 2023 and March 2024, including: poor earnings results linked to the failed AviClear rollout (January 9, 2023); disclosure of material weaknesses and delayed 10-K filing (March 16, 2023); termination 'with cause' of Mowry and Plants (April 12, 2023); CFO Seth's resignation and disclosure of extended plant shutdown (May 9, 2023); disclosure of quality control problems and poor AviClear utilization (August 8, 2023); announcement of need to restate financials due to inventory problems (November 8, 2023); filing of restated financials revealing additional material weakness (March 5, 2024); and full disclosure of inventory control failures and AviClear-related inventory buildup (March 21, 2024). The stock price declined significantly following each disclosure.</t>
+          <t>This securities class action is brought by Lead Plaintiff Dr. Myo Thant and additional named plaintiff Branden Schenkhuizen against Rain Oncology Inc. (formerly Rain Therapeutics Inc.), its CEO Avanish Vellanki, CMO Richard Bryce, and six Director Defendants. The class period runs from April 23, 2021 to May 19, 2023. Plaintiffs allege that Rain misled investors about the risks of its clinical trial strategy for milademetan, an oral MDM2 inhibitor drug for treating liposarcoma. The core allegation is that Rain improperly skipped Phase 2 clinical trials ('Phase 2 Bypass') and proceeded directly from Phase 1 to Phase 3 trials, despite milademetan not meeting the criteria for such bypass (which requires a well-characterized mechanism of action and safety profile). Plaintiffs claim the Phase 1 data from Daiichi Sankyo only identified a 'recommended Phase 2 dose' based on just 16 patients, not a validated dose for Phase 3. The SEC had warned defendants during the IPO not to make unsupported claims about the drug's efficacy and the company's clinical stage. Despite these warnings, defendants allegedly continued making false statements about the Phase 1 data 'validating' the dosing schedule and describing Rain as a 'late-stage' company. On May 22, 2023, Rain announced the Phase 3 MANTRA trial failed to meet its primary endpoint, with elevated adverse events suggesting improper dose optimization. The stock price collapsed from $9.93 to $1.22 per share. Plaintiffs assert claims under Sections 10(b) and 20(a) of the Exchange Act and Sections 11 and 15 of the Securities Act.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5</t>
+          <t>Section 10(b) and Rule 10b-5 of the Exchange Act against Rain, Vellanki, and Bryce</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1192,16 +1124,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>The complaint adequately pleads a Section 10(b) and Rule 10b-5 claim against all Defendants. First, regarding material misrepresentations and omissions, the complaint identifies numerous specific false statements concerning: (1) the effectiveness of internal controls over financial reporting and inventory management, despite the Company's admitted lack of control over physical inventory and failed ERP implementation; (2) the success of the AviClear rollout, when customers were actually dissatisfied and returning devices; (3) the strength of Core Capital, when resources were being diverted to AviClear; and (4) SOX certifications attesting to the accuracy of financial statements that were later restated. The materiality of these misstatements is demonstrated by the Company's subsequent restatement of Q1 and Q2 2023 financials, which by definition indicates the errors were material.
-Second, regarding scienter, the complaint raises a strong inference of fraudulent intent through multiple factors: (a) the Individual Defendants' direct involvement in the AviClear rollout and internal controls, with CW testimony confirming that Mowry and Plants personally directed the focus on AviClear over Core Capital; (b) the Acne Equity Grant compensation structure that financially incentivized rapid AviClear placements regardless of actual usage; (c) the Board's termination of Mowry and Plants 'with cause,' with the Special Committee explicitly linking their terminations to the failed AviClear execution and Plants' prioritization of 'personal enrichment'; (d) numerous CW accounts establishing that executives were informed of inventory problems, supply chain issues, and customer complaints; (e) the SOX certifications signed by Individual Defendants attesting to the adequacy of internal controls that were demonstrably inadequate; and (f) the core operations doctrine, as AviClear and inventory management were critical to Cutera's business.
-Third, regarding reliance, the complaint adequately invokes the fraud-on-the-market presumption, alleging that Cutera's stock traded on the efficient Nasdaq market with substantial trading volume and analyst coverage.
-Fourth, regarding loss causation, the complaint identifies a series of corrective disclosures between January 2023 and March 2024, each followed by significant stock price declines (ranging from 3% to 42%), with analyst reports linking the declines to the disclosed information about the failed AviClear rollout, internal control weaknesses, and restated financials.
-The PSLRA safe harbor does not apply because many statements concerned historical facts or existing conditions, and any forward-looking statements were not accompanied by meaningful cautionary language since the warned-of risks had already materialized.</t>
+          <t>The complaint adequately pleads material misrepresentations and omissions regarding the Phase 2 Bypass strategy. Plaintiffs sufficiently allege that defendants falsely represented the Phase 1 data 'validated' the dosing schedule when it only identified a recommended Phase 2 dose. The complaint pleads scienter through: (1) SEC correspondence warning defendants not to make unsupported claims, which they disregarded post-IPO; (2) the extreme departure from industry standards and academic literature regarding Phase 2 Bypass criteria; (3) financial motive to skip Phase 2 to save costs and time; (4) Vellanki's false Sarbanes-Oxley certifications despite SEC warnings; and (5) former employee testimony confirming executives understood the Phase 1 data limitations. Loss causation is adequately pled through the stock price decline following disclosure of failed Phase 3 results and analyst reports noting improper dose optimization.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act (Control Person Liability)</t>
+          <t>Section 20(a) of the Exchange Act against Vellanki and Bryce</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1211,17 +1139,39 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>The complaint adequately pleads a Section 20(a) control person claim against the Individual Defendants. To establish control person liability under Section 20(a), a plaintiff must allege: (1) a primary violation of the securities laws; and (2) that the defendant exercised actual power or control over the primary violator.
-As discussed above, the complaint adequately alleges a primary violation under Section 10(b) and Rule 10b-5 against Cutera. The complaint also adequately alleges that each Individual Defendant was a controlling person of Cutera. Specifically, the complaint alleges that: (a) Defendant Mowry served as CEO and reviewed, approved, and signed Cutera's SEC filings, attended company-wide meetings, weekly AviClear meetings, and executive team meetings, and participated in earnings calls; (b) Defendant Plants served as Executive Chairman and Chairman of the Board, reviewed and signed SEC filings, and participated in earnings calls; (c) Defendant Seth served as CFO, reviewed and signed SEC filings, and participated in earnings calls; (d) Defendant Hopkins served as Interim-CEO and Board member, reviewed and signed SEC filings, and participated in earnings calls; (e) Defendant Harris serves as CEO and Board member, reviewed and signed SEC filings, and participated in earnings calls; (f) Defendant Drummond serves as Interim-CFO and signed SEC filings and participated in earnings calls; and (g) Defendant Varma served as General Counsel and signed SEC filings.
-The complaint further alleges that these Individual Defendants, by virtue of their senior positions, had the power and authority to control the contents of Cutera's SEC filings, press releases, and other public communications. CW testimony confirms that Mowry and Plants personally directed the AviClear strategy and were informed of the inventory and internal control problems. The Individual Defendants' signing of SOX certifications further evidences their control over the Company's financial reporting. The complaint therefore adequately alleges that each Individual Defendant exercised actual control over Cutera's operations and public statements, satisfying the requirements for Section 20(a) liability.</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+          <t>The complaint adequately alleges that Vellanki and Bryce were controlling persons of Rain by virtue of their positions as CEO and CMO respectively, with direct involvement in the company's clinical trial strategy and public statements. Given the adequately pled predicate violation under Section 10(b), and allegations that these individuals had power to influence and control Rain's decision-making and public disclosures about the clinical trial program, the Section 20(a) claim survives.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Section 11 of the Securities Act against Rain and Director Defendants</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>The complaint adequately alleges material misstatements and omissions in the IPO registration statement and prospectus. Specifically, the prospectus falsely stated the Phase 1 trial 'validated' the dosing schedule when it only identified a recommended Phase 2 dose. The complaint also alleges the registration statement failed to adequately disclose the risks of Phase 2 Bypass as required by Item 105 of Regulation S-K, given that milademetan did not meet the criteria for such bypass. The generic risk warnings about clinical trial failure were insufficient to disclose the specific, heightened risks of proceeding without Phase 2 testing. Rain is strictly liable as issuer, and Director Defendants who signed the registration statement are liable absent a due diligence defense.</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Section 15 of the Securities Act against Director Defendants</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>The complaint adequately alleges the Director Defendants were control persons of Rain by virtue of their positions as directors with power to control the contents of the registration statement and prospectus. Given the adequately pled predicate violation under Section 11, the Section 15 control person claim survives at the pleading stage.</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
@@ -1229,10 +1179,10 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>73849</v>
+        <v>35169</v>
       </c>
       <c r="X7" t="n">
-        <v>1724</v>
+        <v>1100</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
@@ -1253,7 +1203,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cand_23_cv_03518</t>
+          <t>cand_24_cv_03170</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1266,17 +1216,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>This securities class action was brought by Lead Plaintiff Dr. Myo Thant and additional named plaintiff Branden Schenkhuizen against Rain Oncology Inc. (formerly Rain Therapeutics Inc.), its CEO Avanish Vellanki, CMO Richard Bryce, and several Director Defendants. The Class Period runs from April 23, 2021 to May 19, 2023.
-Rain is a clinical-stage oncology company that licensed milademetan, an MDM2 inhibitor drug candidate for treating liposarcoma, from Daiichi Sankyo in September 2020. The core allegation is that defendants made materially false and misleading statements about the company's decision to skip Phase 2 clinical trials and proceed directly from Phase 1 to Phase 3 trials (called 'Phase 2 Bypass').
-Plaintiffs allege that Phase 2 Bypass is only appropriate when a drug's mechanism of action and safety profile are well characterized, which milademetan allegedly was not. MDM2 inhibitors have historically been associated with severe hematologic events, and Daiichi Sankyo's Phase 1 trial was a 'first-in-human' study based on only 16 patients with the relevant dosing schedule. Daiichi Sankyo's own clinical trial plan called for a Phase 2 trial.
-Key false statements alleged include: (1) claims that Phase 1 data 'validated' the dosing schedule and supported advancing directly to Phase 3; (2) describing Rain as a 'late-stage' company despite having no clinical trial experience; (3) pipeline tables implying Rain conducted Phase 1 and Phase 2 testing when it had not; and (4) claims about milademetan being 'best-in-class.' The SEC had explicitly warned defendants not to make several of these claims during the IPO process.
-On May 22, 2023, Rain announced the Phase 3 MANTRA trial failed due to lack of efficacy and elevated adverse safety events. Analysts noted the high Grade 3/4 hematologic adverse events suggested the dosing schedule had not been properly optimized. Rain's stock dropped from $9.93 to $1.22 per share.
-The complaint asserts claims under Section 10(b) and Rule 10b-5 of the Exchange Act, Section 20(a) control person liability, and Sections 11 and 15 of the Securities Act based on the IPO registration statement and prospectus.</t>
+          <t>This securities class action is brought by Lead Plaintiff and Named Plaintiff Ken Kula on behalf of all persons who purchased or acquired Fastly, Inc. securities between November 15, 2023 and August 7, 2024 (the Class Period). Defendants include Fastly, Inc., a Delaware corporation operating an edge cloud platform for content delivery network (CDN) services, CEO Todd Nightingale, and CFO Ronald Kisling. Plaintiffs allege Defendants violated Sections 10(b) and 20(a) of the Securities Exchange Act of 1934 and Rule 10b-5 by making materially false and misleading statements about: (1) the impact of macroeconomic conditions on Fastly's business, with Nightingale claiming competitors were seeing slowdowns but Fastly was not, when in fact enterprise customers were canceling contracts and demanding aggressive discounts due to rising interest rates; (2) the Company's customer retention and revenue growth from existing enterprise customers, when revenue from the largest customers was declining as they 'throttled down' usage; (3) the Company's continued focus on expanding existing customer relationships, when Fastly had shifted its sales compensation model in 2024 to prioritize new customer acquisitions over existing customers; and (4) risks related to customer concentration being hypothetical when they had already materialized. The complaint relies heavily on seven confidential witnesses (CW1-CW7) who describe internal knowledge of declining revenues, failed customer retention, unrealistic sales quotas, and all-hands meetings where Nightingale discussed decreasing revenue from large customers. Key corrective disclosures occurred on February 14, 2024 (stock fell 30.59%), May 1, 2024 (stock fell 32.02%), and August 7, 2024 (stock fell 14.33%), as Defendants progressively revealed that revenue from top customers was declining, the company was shifting focus to new customer acquisition, and top 10 customer revenue share had fallen from 40% to 34%. Plaintiffs also allege Item 303 violations for failing to disclose known trends affecting revenues. The Individual Defendants sold substantial stock during the Class Period (Nightingale: ~$5.97M; Kisling: ~$1.97M), and the Company suspiciously discontinued reporting DBNER and quarterly NRR metrics in Q1 2024 when those metrics would have revealed declining existing customer growth.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Section 10(b) and Rule 10b-5 of the Exchange Act (Count I)</t>
+          <t>Section 10(b) of the Exchange Act and Rule 10b-5 (Count I) - Against All Defendants</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1286,15 +1231,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>The complaint adequately pleads a Section 10(b) claim against Rain, Vellanki, and Bryce. First, regarding material misrepresentations, plaintiffs have identified numerous specific statements claiming that Phase 1 data 'validated' the dosing schedule and supported Phase 2 Bypass, that Rain was a 'late-stage' company, and that milademetan had 'best-in-class' potential. These statements are alleged to be false because: (1) Phase 2 Bypass is only appropriate when a drug's mechanism of action and safety profile are well characterized, which milademetan's were not; (2) the Phase 1 trial identified only a 'recommended Phase 2 dose' based on just 16 patients; (3) Daiichi Sankyo's own plan called for Phase 2 trials; and (4) the SEC explicitly prohibited several of these characterizations during the IPO process.
-Second, scienter is adequately pleaded through several factors: (a) the SEC sent multiple letters to Vellanki explicitly prohibiting certain statements, yet defendants made those same statements after the IPO closed; (b) former employee FE1 confirms that Vellanki and Bryce understood the Phase 1 data limitations and that the data recommended a Phase 2 dose, not Phase 3; (c) defendants had strong financial motives to skip Phase 2 to save approximately $11.2 million and two years of time, without which Rain would have needed $160 million in additional funding; (d) Vellanki signed Sarbanes-Oxley certifications knowing the statements contradicted SEC guidance; and (e) the Phase 2 Bypass represented an extreme departure from industry standards that competitors were not willing to take.
-Third, loss causation is adequately alleged through the May 22, 2023 disclosure of failed Phase 3 results showing elevated adverse events and improper dosing, which analysts attributed to failure to properly optimize dosing during Phase 1 - the precise risk concealed by defendants' statements. The stock dropped 87% in one day.
-The allegations are sufficiently particular under the PSLRA and Rule 9(b), identifying specific statements, explaining why they were false, and providing detailed factual support through former employee testimony and SEC correspondence.</t>
+          <t>The complaint adequately pleads a Section 10(b) claim. First, Plaintiffs sufficiently allege materially false or misleading statements with particularity under PSLRA requirements. The complaint identifies specific statements by Nightingale during the November 15, 2023 conference denying macro impacts on Fastly's business, statements during the February 14, 2024 earnings call about 'stable' customer retention and continued expansion from existing customers, and statements in SEC filings (2023 10-K and Q1 2024 10-Q) touting enterprise customer growth while omitting that revenue from largest customers was declining. The complaint also adequately alleges omissions, including failure to disclose that the Company had shifted its sales compensation model to prioritize new customer acquisition over existing customers, and that the risk of customer decline had already materialized rather than being hypothetical. Second, scienter is adequately pled through: (a) detailed allegations from seven confidential witnesses describing internal knowledge of declining revenues discussed at all-hands meetings attended by Nightingale; (b) weekly Customer Ops meetings tracking customer bandwidth usage with a red/yellow/green rating system, occasionally attended by Nightingale; (c) the suspicious timing of discontinuing DBNER and quarterly NRR metrics in Q1 2024 when those metrics would reveal declining customer growth; (d) substantial insider stock sales by both Individual Defendants during the Class Period (~$7.9M combined); and (e) the core operations doctrine, as customer revenue from the top 10 customers constituted 37% of revenue and was central to the Company's business. Third, loss causation is adequately pled through three corrective disclosures that revealed the concealed information and caused stock price declines totaling approximately 77% from the Class Period high. The complaint also adequately alleges reliance through the fraud-on-the-market presumption, as Fastly securities traded on the NYSE, and materiality, given that existing enterprise customers generated 95% of platform revenue and top 10 customers generated 37% of total revenue.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Section 20(a) Control Person Liability (Count II)</t>
+          <t>Section 20(a) of the Exchange Act (Count II) - Against Individual Defendants Nightingale and Kisling</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1304,46 +1246,15 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>The Section 20(a) claim against Vellanki and Bryce survives because plaintiffs have adequately pleaded a primary violation under Section 10(b), as discussed above. The complaint sufficiently alleges that Vellanki and Bryce were controlling persons by virtue of their positions as CEO and CMO respectively, their direct involvement in Rain's operations and clinical trial decisions, their participation in preparing and approving public statements and SEC filings, and their access to material non-public information about the clinical trial program.
-Vellanki signed all quarterly and annual reports and Sarbanes-Oxley certifications. Both Individual Defendants are alleged to have been directly involved in the decision to pursue Phase 2 Bypass and in communicating with investors about the company's clinical trial strategy. The former employee FE1 confirms both had direct knowledge of the Phase 1 data limitations and the implications of proceeding directly to Phase 3.
-Defendants have not established an affirmative defense of good faith at this stage, and the complaint's allegations of their knowing participation in the alleged fraud preclude dismissal of the control person claims.</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Section 11 of the Securities Act (Count III)</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>The Section 11 claim against Rain and the Director Defendants based on the IPO registration statement and prospectus is adequately pleaded. Section 11 imposes strict liability on issuers and liability on directors who sign registration statements containing material misstatements or omissions.
-The complaint identifies specific false statements in the prospectus, including claims that Phase 1 data 'validated' the dosing schedule, that the dosing schedule had been 'shown to mitigate safety concerns,' and that the data supported commencing a 'pivotal Phase 3 trial.' These statements are alleged to be false because the Phase 1 trial only identified a recommended Phase 2 dose based on 16 patients, not a validated Phase 3 dosing schedule.
-Importantly, plaintiffs allege the registration statement violated Item 105 of Regulation S-K by failing to adequately disclose the most significant risk factors. While Rain included generic warnings about clinical trial risks, it allegedly failed to disclose the specific, heightened risks of Phase 2 Bypass - that the company was pursuing a clinical trial strategy unsupported by the Phase 1 data and contrary to customary practices, industry standards, and academic literature. The complaint cites extensive academic research establishing that Phase 2 Bypass outside accepted circumstances materially reduces chances of Phase 3 success.
-Section 11 does not require scienter, and the complaint adequately alleges that plaintiff Schenkhuizen purchased shares traceable to the IPO and suffered damages when the truth emerged. The Director Defendants signed the registration statement and are therefore potentially liable unless they can establish a due diligence defense, which cannot be resolved at the pleading stage.</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Section 15 Control Person Liability under the Securities Act (Count IV)</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>The Section 15 claim against the Director Defendants is adequately pleaded. Section 15 imposes liability on persons who control any person liable under Section 11. The complaint adequately alleges a primary violation under Section 11, as discussed above.
-The complaint alleges that the Director Defendants were control persons by virtue of their positions as directors of Rain, their signing of the registration statement, their power and authority to control the contents of the registration statement and prospectus, and their ability to prevent issuance of the registration statement or cause it to be corrected.
-Unlike Section 20(a) of the Exchange Act, Section 15 does not provide a good faith defense. The Director Defendants' potential defenses, including due diligence, cannot be resolved at the motion to dismiss stage. The complaint sufficiently alleges the Director Defendants' control over the company and the registration statement to state a claim under Section 15.</t>
-        </is>
-      </c>
+          <t>The complaint adequately pleads a Section 20(a) control person claim against the Individual Defendants. First, as established above, Plaintiffs have adequately alleged a primary violation of Section 10(b) by Fastly, which is a prerequisite for Section 20(a) liability. Second, the complaint sufficiently alleges that Nightingale (CEO) and Kisling (CFO) were controlling persons of Fastly. The complaint alleges they: (a) possessed the power and authority to control the contents of Fastly's SEC filings, press releases, and other market communications; (b) were provided with copies of SEC filings and press releases prior to or shortly after issuance and had the ability to prevent their issuance or cause corrections; (c) signed the 2023 10-K and Q1 2024 10-Q and provided Sarbanes-Oxley certifications; (d) participated in earnings calls where the alleged misstatements were made; (e) participated in all-hands meetings where declining customer revenue was discussed; and (f) as senior officers, participated in the operation and management of Fastly and conducted its business affairs. The complaint also alleges culpable participation by the Individual Defendants through their direct involvement in making the false statements and their knowledge of the true facts based on internal meetings and reports. At the pleading stage, these allegations are sufficient to state a control person claim, and Defendants bear the burden of establishing a good faith defense.</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
@@ -1351,10 +1262,10 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>35449</v>
+        <v>26987</v>
       </c>
       <c r="X8" t="n">
-        <v>2060</v>
+        <v>1460</v>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
@@ -1375,7 +1286,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>cand_24_cv_03170</t>
+          <t>cand_24_cv_04196</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1388,50 +1299,37 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>This securities class action is brought by Lead Plaintiff and Named Plaintiff Ken Kula on behalf of all persons who purchased or acquired Fastly, Inc. securities between November 15, 2023 and August 7, 2024 (the Class Period). The defendants are Fastly, Inc., a Delaware corporation operating an edge cloud platform, along with Individual Defendants Todd Nightingale (CEO) and Ronald Kisling (CFO).
-The complaint alleges that Defendants made materially false and misleading statements regarding: (1) the impact of macroeconomic trends on Fastly's business, with Nightingale claiming in November 2023 that competitors were seeing slowdowns but Fastly was not, when in fact enterprise customers were canceling contracts and demanding aggressive discounts due to rising interest rates; (2) the Company's customer retention and revenue growth from existing enterprise customers, claiming retention was 'stable' and existing customers were driving growth when in reality the Company's largest customers were 'throttling down' their usage and revenue was declining; (3) the Company's focus on expanding existing customer relationships when Fastly had secretly shifted its sales compensation model in 2024 to prioritize new customer acquisitions over existing customers; and (4) risk disclosures that presented customer decline as hypothetical when it had already materialized.
-Key factual allegations are supported by seven confidential witnesses (CW1-CW7), former Fastly employees who describe: enterprise customers canceling contracts (Indeed, USAA) in 2023; customers requesting 10% discounts due to economic concerns correlated with rising interest rates; only 30% of salespeople meeting targets in 2023; Nightingale discussing 'decreasing revenue from big customers' at internal all-hands meetings in November 2023; weekly Customer Ops meetings tracking customer bandwidth using a red/yellow/green rating system; the Company's shift to a new compensation model prioritizing new logos over existing customer revenue; and the Company's failure to deliver promised products to Apple and Amazon.
-The truth emerged through three corrective disclosures: (1) February 14, 2024, when Q4 2023 results missed estimates, causing a 30.59% stock decline; (2) May 1, 2024, when Fastly disclosed revenue from top 10 customers dropped from 40% to 38% due to pricing pressure and reduced traffic, causing a 32.02% decline; and (3) August 7, 2024, when Fastly revealed continued decline with top 10 customers now comprising only 34% of revenue and the Company was shifting focus to diversify away from large customer dependence, causing a 14.33% decline.
-The complaint asserts two causes of action: violations of Section 10(b) of the Exchange Act and Rule 10b-5 against all Defendants, and violations of Section 20(a) of the Exchange Act against the Individual Defendants as control persons.</t>
+          <t>This securities class action is brought by eight individual plaintiffs (Daniel Pogrebinsky, Benjamin Pouladian, David Mead, Aaron Goldman, Dr. Vijaykumar Agrawal, Kent Maguire, Timothy McKillican, and Zi Xu) who were short sellers of Vicor Corporation common stock against Vicor Corporation, a Delaware corporation that designs and manufactures modular power components, and its CEO Patrizio Vinciarelli. The plaintiffs allege that on July 25, 2023, during a Q2 earnings call, Vinciarelli made false and misleading statements claiming that Vicor had entered into a new agreement with a 'significant' 'existing' customer for its next-generation 4G lateral power distribution design that would begin ramping up deliveries in Q4 2023. The plaintiffs contend this announcement caused Vicor's stock price to surge from $59 to over $93 overnight, forcing them to cover their short positions at significant losses. The complaint alleges that on October 24, 2023, during the Q3 earnings call, Vicor denied ever having made such representations about a specific customer and pivoted to discussing diversifying away from their two major customers (believed to be Nvidia and Google), causing the stock to plummet from $53 to $39. The plaintiffs assert claims under Section 10(b) of the Securities Exchange Act and Rule 10b-5 against both defendants for securities fraud, and Section 20(a) control person liability against Vinciarelli individually. The proposed class period covers persons who took short positions in Vicor common stock prior to and on July 25, 2023, and covered their short positions in the days following and including October 24, 2023. The plaintiffs allege scienter based on Vinciarelli's substantial stock ownership (controlling 80% of voting securities), insider sales following the announcement, and the detailed nature of the false statements.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5</t>
+          <t>Section 10(b) of the Exchange Act and Rule 10b-5(b) against all Defendants</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>To state a claim under Section 10(b) and Rule 10b-5, plaintiffs must adequately plead: (1) a material misrepresentation or omission; (2) scienter; (3) a connection with the purchase or sale of a security; (4) reliance; (5) economic loss; and (6) loss causation. Under the PSLRA, the complaint must specify each statement alleged to be misleading and the reason why it is misleading, and must state with particularity facts giving rise to a strong inference of scienter.
-**Material Misrepresentation or Omission:** The complaint adequately pleads material misstatements. Plaintiffs identify specific statements by Nightingale during the November 15, 2023 conference claiming Fastly was 'not seeing' the macro effects competitors experienced, and statements during the February 14, 2024 earnings call that 'customer retention efforts were stable' and attributing revenue decline to 'weaker than anticipated international traffic' while omitting that the Company's largest customers were simultaneously reducing usage. The 2023 10-K statements that 'enterprise customers continue to leverage our platform, increasing their spend' are alleged to be false given contemporaneous knowledge of declining traffic from major accounts. These statements concern core business metrics—customer retention and revenue drivers—that are material to investors given that the top 10 customers generated 37% of FY 2023 revenue.
-**Scienter:** The complaint pleads a strong inference of scienter through multiple channels. First, the confidential witnesses describe quarterly all-hands meetings where Nightingale personally discussed 'decreasing revenue from big customers' and how large media accounts had 'throttled down' their usage in November 2023—the same month he publicly denied macro impacts. Second, weekly Customer Ops meetings attended by senior executives tracked customer bandwidth using a color-coded system, providing real-time visibility into declining usage. Third, the Company discontinued reporting DBNER and quarterly NRR metrics in Q1 2024—metrics it had reported since 2019-2020—at precisely the time these metrics would have revealed declining existing customer growth, supporting an inference of concealment. Fourth, the Individual Defendants sold substantial stock during the Class Period (Nightingale: ~$5.97 million; Kisling: ~$1.97 million). Fifth, the shift to a new compensation model prioritizing new customer acquisition while publicly emphasizing existing customer growth suggests knowledge that existing customer revenue was declining.
-**Connection to Securities Transaction, Reliance, and Economic Loss:** These elements are adequately pled. Plaintiffs purchased Fastly securities during the Class Period at artificially inflated prices. The fraud-on-the-market presumption applies given Fastly's NYSE listing, SEC filings, analyst coverage, and active trading.
-**Loss Causation:** The complaint adequately alleges loss causation through three corrective disclosures that revealed the concealed information and caused stock price declines: February 15, 2024 (30.59% decline), May 2, 2024 (32.02% decline), and August 8, 2024 (14.33% decline). Each disclosure progressively revealed the truth about declining revenue from large customers, contradicting prior statements about stable retention and growth.
-Defendants may argue that some statements were forward-looking and protected by the PSLRA safe harbor, but the complaint adequately alleges the statements related to then-existing facts (current customer usage trends, current retention status) or that defendants had actual knowledge of their falsity. The motion to dismiss is DENIED as to this claim.</t>
+          <t>The complaint fails to adequately state a claim under Section 10(b) and Rule 10b-5 for several reasons. First, the plaintiffs are short sellers seeking to recover losses from allegedly false positive statements that inflated stock prices, which presents significant standing and reliance issues. Short sellers who are harmed by artificially inflated prices typically face difficulties establishing the 'in connection with' requirement because they benefit from price declines, not increases. Second, the alleged misstatements regarding a 'significant existing customer' ramping up in Q4 appear to be forward-looking statements accompanied by meaningful cautionary language about the company's business prospects and risks. The PSLRA's safe harbor for forward-looking statements may apply. Third, the complaint fails to adequately plead scienter with the particularity required by the PSLRA. While the complaint alleges Vinciarelli's stock ownership and some insider sales, it does not demonstrate that the statements were known to be false when made. The October 2023 statements could reflect changed business circumstances rather than evidence that the July 2023 statements were false. The company's subsequent press release explaining the $30 million in non-cancellable orders suggests there was a factual basis for the original statements, even if the deal subsequently fell through. Fourth, the complaint's theory that the statements were false because the deal fell apart within three months is insufficient to establish falsity at the time the statements were made. Business deals can fail for many reasons without the original announcement being fraudulent. Finally, loss causation is problematic because the plaintiffs' damages stem from being forced to cover short positions at higher prices, which is the natural consequence of positive news about a company, not necessarily fraud.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act (Control Person Liability)</t>
+          <t>Section 20(a) Control Person Liability against Defendant Vinciarelli</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Section 20(a) imposes joint and several liability on persons who control any person liable under the Exchange Act. To establish control person liability, plaintiffs must adequately plead: (1) a primary violation of the securities laws; and (2) that the defendant exercised actual power or control over the primary violator.
-**Primary Violation:** As discussed above, the complaint adequately states a claim for a primary violation under Section 10(b) and Rule 10b-5 against Fastly.
-**Control:** The complaint adequately alleges that the Individual Defendants—Nightingale as CEO and Kisling as CFO—were control persons. The complaint alleges they 'possessed the power and authority to control the contents of Fastly's SEC filings, press releases, and other market communications,' were 'provided with copies of Fastly's SEC filings and press releases alleged herein to be misleading prior to or shortly after their issuance,' and 'had the ability and opportunity to prevent their issuance or to cause them to be corrected.' Both signed the 2023 10-K and Q1 2024 10-Q and provided Sarbanes-Oxley certifications. Nightingale made the allegedly false statements during conference calls and earnings calls. Kisling participated in earnings calls and made statements about revenue projections.
-The complaint further alleges the Individual Defendants 'participated in the operation and management of Fastly, and conducted and participated, directly and indirectly, in the conduct of Fastly's business affairs,' and that '[b]ecause of their positions of control and authority as senior officers, the Individual Defendants were able to, and did, control the contents of the various reports, press releases, public statements, and public filings.'
-These allegations are sufficient at the pleading stage to establish that Nightingale and Kisling exercised control over Fastly and its public statements. The Individual Defendants have not established a good faith defense at this stage, which is typically an affirmative defense requiring factual development. The motion to dismiss is DENIED as to this claim.</t>
+          <t>Section 20(a) control person liability is derivative of an underlying securities violation. Because the primary Section 10(b) claim fails to state a claim upon which relief can be granted, the Section 20(a) claim against Vinciarelli must also be dismissed. There can be no control person liability absent an underlying primary violation of the securities laws. Even if the primary claim had survived, the complaint would need to adequately allege that Vinciarelli was a culpable participant in the alleged fraud, which requires showing he knew or should have known that the controlled person's conduct was fraudulent. The allegations regarding Vinciarelli's control over Vicor and his stock ownership, while relevant to establishing control, do not sufficiently establish his culpable participation in any fraud given the deficiencies in pleading the underlying Section 10(b) violation.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1447,10 +1345,10 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>27267</v>
+        <v>12543</v>
       </c>
       <c r="X9" t="n">
-        <v>2057</v>
+        <v>1104</v>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
@@ -1471,7 +1369,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cand_24_cv_04196</t>
+          <t>cand_3_22-cv-00956</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1484,12 +1382,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>This securities class action is brought by eight individual plaintiffs (Daniel Pogrebinsky, Benjamin Pouladian, David Mead, Aaron Goldman, Dr. Vijaykumar Agrawal, Kent Maguire, Timothy McKillican, and Zi Xu) who were short sellers of Vicor Corporation common stock against Vicor Corporation and its CEO Patrizio Vinciarelli. The plaintiffs allege that on July 25, 2023, during a Q2 earnings call, Vinciarelli made false statements announcing that Vicor had entered into a new agreement with a 'significant' 'existing' customer for its next-generation 4G lateral power distribution design, with deliveries expected to begin in Q4 2023. This announcement caused Vicor's stock price to surge from $59 to over $93 overnight, forcing the short-selling plaintiffs to cover their positions at substantial losses. The plaintiffs allege the announcement was false because on October 24, 2023, during the Q3 earnings call, Vicor failed to mention the customer and, when pressed by analysts, denied ever having made such representations about a specific customer deal, instead pivoting to discuss diversifying away from their 'two big guys' (understood to be Nvidia and Google). The stock price immediately fell over 20% following this corrective disclosure. The plaintiffs assert claims under Section 10(b) of the Exchange Act and Rule 10b-5 against both defendants, and Section 20(a) control person liability against Vinciarelli. The proposed class period covers persons who took short positions prior to and on July 25, 2023, and covered their positions in the days following and including October 24, 2023. Key dates include: July 25, 2023 (alleged false announcement), October 24, 2023 (corrective disclosure), and September 3, 2024 (post-lawsuit press release attempting to explain the July 2023 statements).</t>
+          <t>This securities class action is brought by Lead Plaintiff Steamfitters Local 449 Pension &amp; Retirement Security Funds on behalf of all persons who purchased or acquired SunPower Corporation securities during the Class Period from August 3, 2021 through January 20, 2022. The defendants are SunPower Corporation, a solar energy company headquartered in San Jose, California and traded on NASDAQ under ticker 'SPWR'; Peter Faricy, the CEO, President, and Chairman of the Board; and Manavendra S. Sial, the former CFO and Executive Vice President. The complaint alleges that defendants violated Sections 10(b) and 20(a) of the Securities Exchange Act of 1934 and SEC Rule 10b-5 by making materially false and misleading statements and omissions concerning: (i) the current status and trajectory of SunPower's commercial business, including margin performance and balance sheet health; (ii) the Company being on track to meet its FY21 financial guidance; and (iii) the risk that SunPower might experience defects or quality issues in its products or components. Specifically, plaintiffs allege that throughout the Class Period, defendants knew or deliberately disregarded that cracking or other defects in third-party connectors had already developed in nearly all of the Company's commercial solar systems, that SunPower would be required to incur tens of millions in costs to replace those defective components, and that consequently SunPower was not on track to achieve its FY21 financial guidance. The alleged fraud was revealed on January 20, 2022, when SunPower issued a press release announcing it would miss earnings guidance due to a 'cracking issue' in factory-installed connectors affecting nearly all commercial systems since 2019, requiring approximately $31 million in charges. Following this disclosure, SunPower's stock price dropped 16.9% from $19.02 to $15.80 on heavy trading volume. The complaint alleges that defendants' risk disclosures in SEC filings were misleading because they warned only that defects 'might' or 'could' occur when defendants allegedly knew defects had already occurred. Analyst reports following the disclosure suggested the cracking issue was likely discovered during due diligence for the planned sale of the CIS business segment.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5(b)</t>
+          <t>Section 10(b) of the Exchange Act and Rule 10b-5 (Count I) - Against All Defendants</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1499,17 +1397,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>The motion to dismiss is GRANTED as to the Section 10(b) and Rule 10b-5 claims for the following reasons:
-1. **Failure to Adequately Plead a Material Misrepresentation**: The complaint fails to establish that Defendants made a false statement of material fact. The statements made during the July 25, 2023 earnings call, when read in context, appear to be forward-looking statements about expected business developments rather than concrete announcements of executed contracts. Vinciarelli stated that the AI platform was 'expected to ramp in Q4' and discussed an 'existing customer' pursuing a 'new generation' product. These statements, while optimistic, are typical forward-looking business projections protected by the PSLRA's safe harbor provisions. The complaint acknowledges that Vicor's September 2024 press release explained the statements reflected what Vicor 'understood to be' the customer's 'allocation for a new program' - suggesting the statements were based on reasonable expectations at the time rather than fabricated facts.
-2. **Insufficient Scienter Allegations**: Under the PSLRA's heightened pleading standard, plaintiffs must state with particularity facts giving rise to a strong inference of scienter - either intentional misconduct or severe recklessness. The complaint's scienter allegations are largely conclusory. The fact that Vinciarelli held significant stock and that some insiders sold shares following the announcement does not, standing alone, create a strong inference of fraud. Stock ownership by executives is ubiquitous and does not indicate fraudulent intent. The complaint fails to allege specific facts showing that Defendants knew the customer deal would not materialize or that they deliberately misled investors. The October 2023 statements declining to discuss specific customers could reflect legitimate confidentiality concerns rather than an attempt to cover up fraud.
-3. **Loss Causation Deficiencies**: While the complaint alleges the stock price dropped after the October 24, 2023 earnings call, it fails to adequately plead that this drop was caused by the revelation that the July statements were false. The October call did not reveal that the prior statements were false; rather, Defendants simply declined to provide customer-specific updates. A failure to provide updates or discuss specific customers does not constitute a corrective disclosure revealing prior fraud. The stock price decline could be attributable to numerous factors, including general market conditions, continued weak bookings, or investor disappointment with the lack of positive news.
-4. **Standing Issues for Short Sellers**: The plaintiffs, as short sellers who were 'forced to cover' their positions due to rising stock prices, face significant hurdles in establishing standing under Section 10(b). Short sellers who cover their positions in response to allegedly false positive statements occupy an unusual position in securities fraud cases. Their theory - that they were harmed by false positive statements that inflated stock prices - runs counter to the typical Section 10(b) paradigm designed to protect purchasers from artificially inflated prices.
-5. **Reliance Issues**: The complaint's reliance on the fraud-on-the-market presumption is problematic for short sellers covering their positions. The Basic v. Levinson presumption typically applies to purchasers who buy at inflated prices, not to short sellers who claim they were forced to cover at inflated prices. The Affiliated Ute presumption for omissions cases is also inapplicable where, as here, the claims are based on affirmative misstatements rather than pure omissions.</t>
+          <t>The complaint fails to adequately plead scienter as required under the Private Securities Litigation Reform Act (PSLRA). While plaintiffs allege defendants 'knew or deliberately disregarded' the cracking defects, the complaint relies almost entirely on the timing of the disclosure and speculation from analyst reports that the issue 'likely came up in due diligence' for the CIS sale. The complaint lacks particularized facts demonstrating that defendants actually knew about the cracking issue during the Class Period. The allegations that defendants were 'diving deep' into the commercial business and 'perfecting the asset' are consistent with normal business operations and do not give rise to a strong inference of scienter. The December 2021 manual updates regarding connector handling, while suggestive, do not establish that defendants knew of existing widespread defects rather than implementing prospective quality improvements. Furthermore, the complaint's core theory - that defendants concealed known defects while exploring a sale of the CIS business - is undermined by the fact that defendants publicly announced they were exploring strategic options for CIS in October 2021 and ultimately sold it to their majority shareholder TotalEnergies, suggesting arms-length due diligence would have revealed any known issues. The risk factor disclosures, while framed in conditional terms ('if' and 'could'), adequately warned investors of the types of risks that materialized. Courts have consistently held that risk disclosures need not predict the precise manner in which risks will materialize. The complaint also fails to adequately allege loss causation for the full stock price decline, as the January 20, 2022 disclosure attributed guidance misses to multiple factors including weather delays and COVID impacts, not solely the connector issue.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act (Control Person Liability)</t>
+          <t>Section 20(a) of the Exchange Act (Count II) - Against All Defendants</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1519,7 +1412,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>The motion to dismiss is GRANTED as to the Section 20(a) claim against Vinciarelli. Section 20(a) control person liability is derivative of an underlying primary violation of the securities laws. Because the Court has dismissed the underlying Section 10(b) and Rule 10b-5 claims, the Section 20(a) claim necessarily fails. Without a viable primary violation, there can be no control person liability. Even if the primary violation had survived, the complaint's allegations regarding Vinciarelli's control are largely based on his position as CEO and majority shareholder, which, while sufficient to establish control, would still require a surviving primary violation to impose derivative liability. The claim is dismissed without prejudice to the extent plaintiffs can cure the deficiencies in the underlying Section 10(b) claim.</t>
+          <t>Section 20(a) claims for control person liability are derivative of the underlying Section 10(b) violation. Because the complaint fails to adequately state a primary violation under Section 10(b) and Rule 10b-5, the Section 20(a) claim against the Individual Defendants and SunPower must also be dismissed. There can be no control person liability absent an underlying securities law violation.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1535,10 +1428,10 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>12823</v>
+        <v>22388</v>
       </c>
       <c r="X10" t="n">
-        <v>1506</v>
+        <v>1101</v>
       </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
@@ -1559,7 +1452,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cand_3_21-cv-09767</t>
+          <t>casd_3_23-cv-01216</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1572,16 +1465,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>This securities class action is brought by Lead Plaintiffs Vinod Sodha and Amee Sodha on behalf of all persons who purchased Robinhood Markets, Inc. common stock in connection with the company's July 30, 2021 Initial Public Offering (IPO). The defendants include Robinhood; Individual Defendants Vladimir Tenev (CEO), Jason Warnick (CFO), Baiju Bhatt (Co-Founder), and directors Jan Hammer, Paula Loop, Jonathan Rubenstein, Scott Sandell, and Robert Zoellick; and 17 Underwriter Defendants led by Goldman Sachs and J.P. Morgan.
-The complaint alleges that the Registration Statement and Prospectus (Offering Documents) used to effectuate the IPO contained materially false and misleading statements and omissions regarding: (1) Robinhood's purported revolutionary business strategy to 'democratize finance' by prioritizing customer safety, reliability, and long-term customer interests; and (2) the company's growth trajectory as measured by Key Performance Indicators (KPIs) including Monthly Active Users (MAU), Assets Under Custody (AUC), Average Revenue Per User (ARPU), and Net Cumulative Funded Accounts (NCFA).
-Key factual allegations include: (a) Robinhood was not following its stated strategy - instead of prioritizing safety and customer interests, the company operated with insufficient controls, allowed fraud to run rampant, exposed inexperienced customers to risky products like options and margin trading, and used gamification features to encourage frequent trading that benefited Robinhood but harmed customers; (b) In the months immediately preceding the IPO (May-July 2021), Robinhood's KPIs were sharply declining - MAU dropped 11.62% between May and June 2021 and another 8.45% by July 2021, crypto trading volume collapsed by over 76% between May and June 2021, AUC declined nearly 4.25% overall, and ARPU fell significantly; (c) Robinhood tracked these metrics in real-time through its analytics platform and discussed them in weekly all-hands meetings attended by Defendants Tenev and Bhatt; (d) Confidential witnesses (former employees) corroborate that customer attrition increased, fraud backlogs were overwhelming, customer complaints rose, and the Net Promoter Score declined in the months before the IPO.
-The Offering Documents presented charts showing exponential growth and stated that KPIs would continue to grow, when in fact they were already in sharp decline. The truth emerged beginning October 27, 2021, when Robinhood reported Q3 2021 results showing massive declines in all KPIs, and continued to emerge through subsequent quarters. The stock has traded as low as $6.81 per share, representing a decline of more than 82% from the $38 IPO price.
-The complaint asserts claims under Sections 11, 12(a)(2), and 15 of the Securities Act of 1933. The class period encompasses all purchasers of Robinhood common stock issued in connection with the IPO.</t>
+          <t>This securities class action was brought by Lead Plaintiff Dipak Patel against ImmunityBio, Inc. and its executives (Richard Adcock, CEO; David C. Sachs, CFO; and Patrick Soon-Shiong, Executive Chairman and Global Chief Scientific and Medical Officer) for violations of Sections 10(b) and 20(a) of the Securities Exchange Act of 1934 and SEC Rule 10b-5. The Class Period runs from March 10, 2021 to May 10, 2023. ImmunityBio is a clinical-stage biopharmaceutical company whose lead product candidate, Anktiva, was being developed for bladder cancer treatment. The complaint alleges that Defendants made materially false and misleading statements about the Company's manufacturing capabilities and cGMP (current good manufacturing practices) compliance, particularly regarding AGC Biologics, the third-party contract manufacturing organization (CMO) that produced Anktiva. Throughout the Class Period, Defendants repeatedly represented that the Company had established GMP manufacturing capacity and that AGC had 'robust process development and validation and quality oversight.' However, the complaint alleges that AGC suffered from numerous serious cGMP violations, including failure to timely release batch records, inability to close deviation investigations on schedule, missed stability testing windows, running out of reference materials, and multiple failed batches. The FDA conducted inspections of AGC in March and July 2021, issuing Form 483s documenting significant deficiencies. In February 2023, the FDA conducted a pre-license inspection that resulted in a 15-page Form 483 citing numerous violations and an 'Official Action Indicated' classification. On May 11, 2023, ImmunityBio disclosed that the FDA had issued a Complete Response Letter rejecting the Anktiva BLA due to deficiencies from the pre-license inspection, causing the stock to fall over 55%. The complaint alleges Defendants knew of these manufacturing issues through quality agreements requiring AGC to report deviations, regular meetings between executives and AGC, a mock inspection in January 2023 that revealed ongoing problems, and real-time updates during the FDA inspection.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Section 11 of the Securities Act (Against All Defendants)</t>
+          <t>Section 10(b) of the Exchange Act and SEC Rule 10b-5 against all Defendants</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1591,16 +1480,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Section 11 imposes strict liability on issuers for material misstatements or omissions in a registration statement, and requires other defendants (directors, signers, underwriters) to establish a due diligence defense. The elements are: (1) the plaintiff acquired securities traceable to the registration statement; (2) the registration statement contained a material misstatement or omission; and (3) damages.
-The complaint adequately alleges material misstatements and omissions. First, the Offering Documents contained extensive statements about Robinhood's purported customer-first strategy, emphasizing safety, reliability, and prioritizing customers' long-term interests over short-term profitability. The complaint alleges these statements were false based on detailed accounts from five confidential witnesses who describe: Robinhood operating with insufficient fraud controls and overwhelming backlogs; deliberately exposing inexperienced customers to risky products like options and margin trading despite internal data showing customers could not comprehend these products; using gamification features (like the 'blinking dot') to encourage frequent trading that harmed customers; and ignoring employee concerns about these practices. These allegations, if true, would render the strategy statements materially misleading.
-Second, and more significantly, the Offering Documents presented KPI data showing exponential growth and projected continued growth, when the complaint alleges that at the time of the IPO, Robinhood possessed data showing its KPIs had been in sharp decline for months. Specifically, between May and July 2021: MAU declined nearly 20% (from 24.1 million to 19.5 million, losing 4.6 million users); crypto trading volume collapsed from $127 billion to $13 billion (a decline of nearly 90%); AUC declined overall by nearly 4.25%; NCFA flatlined; and ARPU declined by at least $25.30. The complaint alleges Robinhood tracked these metrics in real-time through its analytics platform and discussed them at weekly all-hands meetings. The failure to disclose this massive deterioration in KPIs, while simultaneously presenting charts showing growth and projecting continued growth, constitutes a material omission.
-The complaint also adequately alleges violations of Item 303, which requires disclosure of known trends that will have a material impact on revenues, and Item 105, which requires adequate description of risk factors. The sharp pre-IPO declines in KPIs and revenue constituted known adverse trends that were required to be disclosed.
-The allegations are sufficiently specific and supported by confidential witness accounts and the company's own subsequent disclosures showing the deterioration that existed at the time of the IPO. Plaintiffs have adequately alleged they purchased shares traceable to the IPO and suffered damages as the stock declined over 82% from the IPO price. The motion to dismiss the Section 11 claim is DENIED.</t>
+          <t>The complaint adequately pleads material misstatements and omissions regarding ImmunityBio's manufacturing capabilities and cGMP compliance. Defendants repeatedly stated that the Company had 'established GMP manufacturing capacity' and that AGC had 'robust process development and validation and quality oversight' and 'multiple cGMP-compliant facilities,' while allegedly knowing that AGC suffered from pervasive cGMP violations. The complaint pleads scienter with sufficient particularity through: (1) the quality agreement requiring AGC to report deviations and inspection findings to ImmunityBio; (2) regular meetings between Defendants Adcock and Sender with AGC executives to discuss delays and manufacturing issues; (3) Defendants' intimate involvement in the January 2023 mock inspection that revealed ongoing deficiencies; (4) real-time updates during the February 2023 FDA inspection demanded by Defendant Soon-Shiong; (5) Defendant Adcock flying overnight to attend the inspection after problems emerged on day one; (6) the critical importance of Anktiva approval to the Company's business as a clinical-stage company with no approved products; and (7) Defendant Soon-Shiong's alleged personal review and approval of the BLA. The confidential witness accounts provide detailed corroboration of Defendants' knowledge. Loss causation is adequately pled through the 55% stock price decline following disclosure of the CRL.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Section 12(a)(2) of the Securities Act (Against All Defendants)</t>
+          <t>Section 20(a) of the Exchange Act against Individual Defendants (Soon-Shiong, Adcock, and Sachs)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1610,30 +1495,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Section 12(a)(2) provides a remedy for any person who offers or sells a security by means of a prospectus containing a material misstatement or omission. The elements are: (1) the defendant offered or sold securities; (2) by means of a prospectus or oral communication; (3) that contained a material misstatement or omission; and (4) the plaintiff did not know of the untruth or omission.
-For the same reasons discussed in the Section 11 analysis, the complaint adequately alleges material misstatements and omissions in the Prospectus regarding Robinhood's business strategy and the undisclosed deterioration in its KPIs in the months preceding the IPO. The complaint alleges the Underwriter Defendants promoted, solicited, and sold Robinhood shares to plaintiffs and class members by means of the defective Prospectus, and that plaintiffs did not know of the untruths and omissions at the time of purchase.
-The complaint adequately establishes statutory seller status for the Underwriter Defendants, who are alleged to have served as underwriters, participated in the roadshow, and solicited offers in connection with the IPO. The Individual Defendants who signed the Registration Statement and participated in the offering also qualify as statutory sellers.
-Plaintiffs have adequately alleged they acquired shares pursuant to the Prospectus without knowledge of the misstatements and omissions, and have tendered their shares or seek damages for shares sold. The motion to dismiss the Section 12(a)(2) claim is DENIED.</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Section 15 of the Securities Act (Against Individual Defendants)</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Section 15 imposes joint and several liability on any person who controls a person liable under Sections 11 or 12 of the Securities Act. The elements are: (1) a primary violation of Section 11 or 12; and (2) the defendant was a controlling person of the primary violator.
-As discussed above, the complaint adequately alleges primary violations of Section 11 by Robinhood. The complaint alleges that each Individual Defendant was a controlling person of Robinhood by virtue of their positions: Defendant Tenev as Co-Founder, CEO, President, and director; Defendant Warnick as CFO; Defendant Bhatt as Co-Founder, Chief Creative Officer, and director; and Defendants Hammer, Loop, Rubenstein, Sandell, and Zoellick as directors. Each Individual Defendant signed the Registration Statement.
-The complaint further alleges that these defendants had the power to influence and exercised control over Robinhood, causing it to engage in the conduct complained of. The confidential witness accounts specifically describe Defendants Tenev, Bhatt, and Warnick as being present at meetings where KPI data was discussed and as making decisions regarding the company's practices that are alleged to be inconsistent with the stated strategy.
-At this stage, the allegations of control based on the Individual Defendants' senior positions and their signing of the Registration Statement are sufficient to state a claim. The motion to dismiss the Section 15 claim is DENIED.</t>
-        </is>
-      </c>
+          <t>The complaint adequately alleges that the Individual Defendants are liable as control persons. Defendant Soon-Shiong served as Executive Chairman and Global Chief Scientific and Medical Officer, was the founder with approximately 82% beneficial ownership, and allegedly personally reviewed and approved the BLA. Defendant Adcock served as CEO, signed SEC filings, participated in regular meetings with AGC, attended the mock inspection presentations, and flew to attend the FDA inspection. Defendant Sachs served as CFO and signed SEC filings. The complaint alleges these defendants had direct supervisory involvement in day-to-day operations, had the power to control the content of public disclosures, and exercised that power. The underlying Section 10(b) violation is adequately pled, and the complaint sufficiently alleges the Individual Defendants' control over the Company and its statements.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
@@ -1644,10 +1511,10 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>33425</v>
+        <v>37403</v>
       </c>
       <c r="X11" t="n">
-        <v>2147</v>
+        <v>1073</v>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
@@ -1668,7 +1535,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cand_3_22-cv-00956</t>
+          <t>ctd-3-23-cv-01035</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1681,51 +1548,37 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>This securities class action is brought by Lead Plaintiff Steamfitters Local 449 Pension &amp; Retirement Security Funds on behalf of all persons who purchased or acquired SunPower Corporation securities during the Class Period from August 3, 2021 through January 20, 2022. The defendants are SunPower Corporation, a solar energy company headquartered in San Jose, California; Peter Faricy, the Company's CEO, President, and Chairman of the Board; and Manavendra S. Sial, the Company's former CFO and Executive Vice President.
-The complaint alleges that defendants made materially false and misleading statements and omissions concerning: (1) the current status and trajectory of SunPower's commercial business, including margin performance and balance sheet health; (2) the Company being on track to meet its FY21 financial guidance; and (3) the risk that SunPower might experience defects or quality issues in its products or components.
-The key factual allegations center on cracking defects in third-party connectors within SunPower's commercial solar systems. According to the complaint, defendants knew or deliberately disregarded that: (a) cracking or other defects in third-party components had already developed in nearly all of the Company's commercial systems; (b) SunPower would be required to incur tens of millions in costs to replace those defective components; and (c) SunPower was not on track to achieve its FY21 financial guidance.
-Throughout the Class Period, defendants made statements in press releases, earnings calls, and SEC filings (Forms 8-K and 10-Q) touting the strength of the commercial business and affirming financial guidance. The 10-Q filings contained risk factor disclosures warning that quality issues 'might' or 'could' affect the company, which plaintiffs allege were misleading because defects had already materialized.
-On December 7, 2021, SunPower published a safety manual with new warnings about connector cracking, suggesting awareness of the issue. On January 20, 2022, SunPower issued a press release disclosing a 'cracking issue that developed over time' in third-party connectors affecting nearly all commercial systems, requiring approximately $27 million in charges for Q4 2021 and $4 million in Q1 2022. Following this disclosure, the stock price dropped 16.9% from $19.02 to $15.80.
-Analyst reports following the disclosure suggested the cracking issue was likely discovered during due diligence for the planned sale of the CIS business segment. The complaint asserts claims under Section 10(b) and Rule 10b-5 of the Exchange Act against all defendants, and Section 20(a) control person liability against the Individual Defendants.</t>
+          <t>This securities class action is brought by Lead Plaintiffs New England Teamsters Pension Fund, Westchester Putnam Counties Heavy &amp; Highway Laborers Local 60 Benefits Fund, and United Union of Roofers, Waterproofers &amp; Allied Workers Local Union No. 8 WBPA Fund against RTX Corporation (formerly Raytheon Technologies Corporation) and Individual Defendants Gregory Hayes (CEO), Neil Mitchill (CFO), Anthony O'Brien (former CFO), Christopher Calio (President/CEO), and Shane Eddy (President of Pratt &amp; Whitney). The Class Period runs from February 8, 2021 through September 8, 2023. Plaintiffs allege that Defendants concealed a known defect in Pratt &amp; Whitney's Geared Turbofan (GTF) engine fleet - specifically, that contaminated powdered metal used in manufacturing from 2015 to 2021 created weakened engine parts susceptible to catastrophic failure. Defendants allegedly knew of this Powdered Metal Defect by no later than March 2020 following a V2500 engine failure in Vietnam, yet continued to manufacture and sell defective GTF engines while assuring investors the fleet was airworthy and profitable. The truth was revealed in partial disclosures on July 25, 2023 and September 11, 2023, when RTX admitted the defect affected approximately 3,000 GTF engines requiring inspection and removal at a cost of $3-3.5 billion. RTX's stock price fell over 27% from its Class Period high. The SEC has launched an investigation into the Company's disclosures regarding the Powdered Metal Defect.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5</t>
+          <t>Count I - Violations of Section 10(b) of the Exchange Act and SEC Rule 10b-5 (Against RTX and Individual Defendants)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>dismissed</t>
+          <t>sustained</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>To state a claim under Section 10(b) and Rule 10b-5, plaintiffs must adequately plead: (1) a material misrepresentation or omission; (2) scienter; (3) a connection with the purchase or sale of a security; (4) reliance; (5) economic loss; and (6) loss causation. Under the Private Securities Litigation Reform Act (PSLRA), the complaint must specify each statement alleged to be misleading and the reason why it is misleading, and must state with particularity facts giving rise to a strong inference of scienter.
-Regarding material misrepresentation or omission, the complaint identifies three categories of allegedly false statements: (1) statements about the commercial business performing well; (2) statements that the Company was on track to meet FY21 guidance; and (3) risk factor disclosures warning that defects 'might' or 'could' occur. However, the complaint fails to adequately plead falsity with the required particularity.
-First, the forward-looking statements about being 'on track' to meet guidance and expectations about commercial business performance are protected by the PSLRA's safe harbor provision for forward-looking statements accompanied by meaningful cautionary language. The Company's 10-Q filings contained extensive risk factor disclosures warning about potential quality issues, supplier failures, and warranty costs.
-Second, the complaint's core theory—that defendants knew about the cracking issue during the Class Period—relies heavily on speculation and hindsight reasoning. The complaint alleges that cracking 'had already developed' but provides no particularized facts establishing when defendants actually learned of the issue, how pervasive it was at any given time during the Class Period, or that it was material at the time of the alleged misstatements. The fact that the issue was eventually disclosed in January 2022 does not establish that defendants knew about it in August or November 2021.
-Third, regarding the risk factor disclosures, courts have consistently held that risk factors phrased in conditional terms ('if,' 'might,' 'could') are not rendered false merely because the risk later materializes. The complaint does not adequately allege that defendants knew with certainty that the cracking issue had already developed to a material degree when these disclosures were made.
-Regarding scienter, the PSLRA requires plaintiffs to plead facts giving rise to a 'strong inference' of scienter—either intentional misconduct or severe recklessness. The complaint's scienter allegations are conclusory. The complaint speculates that defendants 'must have learned' about the cracking issue during due diligence for the CIS sale, but this is based on analyst speculation, not particularized facts. The December 2021 safety manual update mentioning cracking is insufficient to establish that defendants knew of a material, company-wide problem requiring disclosure. The complaint does not allege any insider trading, contemporaneous documents showing knowledge, or statements from confidential witnesses with personal knowledge of what defendants knew and when.
-The inference that defendants acted with scienter is not as compelling as the opposing inference that the cracking issue developed gradually, was identified through a quality assessment process, and was disclosed promptly once its scope and materiality became clear. The complaint's allegations are equally consistent with defendants learning of the full scope of the problem only when they conducted the quality assessment referenced in the January 2022 disclosure.
-Accordingly, the complaint fails to adequately plead material misrepresentation and scienter with the particularity required by the PSLRA, and the Section 10(b) and Rule 10b-5 claim is dismissed.</t>
+          <t>Plaintiffs have adequately alleged material misrepresentations and omissions regarding the GTF engine fleet's airworthiness and the Powdered Metal Defect. The complaint pleads scienter with particularity through: (1) Defendants' own admissions that they knew of the defect by 2020; (2) the eighteen months of unsuccessful remediation attempts demonstrating knowledge of severity; (3) extensive corroboration from multiple former employees detailing contemporaneous knowledge of contamination issues; (4) the core operations doctrine given GTF's critical importance to RTX's business; (5) Defendants' motives to conceal the defect to protect engine sales and aftermarket revenue; and (6) the magnitude and duration of the defect affecting 3,000 engines over six years. Loss causation is adequately pleaded through the July 25, 2023 and September 11, 2023 corrective disclosures that caused significant stock price declines of 10.2% and 7.9% respectively.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act (Control Person Liability)</t>
+          <t>Count II - Violations of Section 20(a) of the Exchange Act (Against Individual Defendants Hayes, O'Brien, Mitchill, Calio, and Eddy)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>dismissed</t>
+          <t>sustained</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act imposes derivative liability on persons who control primary violators of the securities laws. To state a claim under Section 20(a), plaintiffs must adequately plead: (1) a primary violation of the securities laws; and (2) that the defendant exercised actual power or control over the primary violator.
-Because the Section 20(a) claim is derivative of the Section 10(b) claim, it necessarily fails if the underlying primary violation claim is dismissed. As set forth above, the complaint fails to adequately plead a primary violation under Section 10(b) and Rule 10b-5. Without an adequately pleaded primary violation, there can be no control person liability under Section 20(a).
-Accordingly, the Section 20(a) claim against the Individual Defendants is dismissed.</t>
+          <t>Plaintiffs have adequately alleged that the Individual Defendants were controlling persons of RTX within the meaning of Section 20(a). The complaint alleges that each Individual Defendant held senior executive positions (CEO, CFO, President of Pratt &amp; Whitney) giving them power and authority to direct the Company's management and activities. Defendants Hayes, Mitchill, and O'Brien signed SEC filings containing the alleged misrepresentations, and all Individual Defendants participated in earnings calls and investor conferences where false statements were made. Given the adequately pleaded primary violation under Section 10(b) against RTX, and the allegations of the Individual Defendants' positions of control, direct involvement in day-to-day operations, and culpable participation in the alleged fraud, the Section 20(a) claim survives the motion to dismiss.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1741,10 +1594,10 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>22668</v>
+        <v>70157</v>
       </c>
       <c r="X12" t="n">
-        <v>1752</v>
+        <v>899</v>
       </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
@@ -1765,7 +1618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>casd_3_23-cv-01216</t>
+          <t>dcd-1_23-cv-02055</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1778,51 +1631,37 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>This securities class action was brought by Lead Plaintiff Dipak Patel against ImmunityBio, Inc. and three individual defendants: Patrick Soon-Shiong (Executive Chairman and Global Chief Scientific and Medical Officer), Richard Adcock (CEO), and David Sachs (CFO). The Class Period spans from March 10, 2021 to May 10, 2023.
-ImmunityBio is a clinical-stage biopharmaceutical company whose lead product candidate, Anktiva, was being developed for the treatment of bladder cancer. The company relied on AGC Biologics, a third-party contract manufacturing organization (CMO), to manufacture the active pharmaceutical ingredient in Anktiva.
-The complaint alleges that throughout the Class Period, Defendants made materially false and misleading statements about ImmunityBio's manufacturing capabilities and compliance with FDA current good manufacturing practices (cGMP). Specifically, Defendants repeatedly represented that the company had established GMP manufacturing capacity and that the CMO used to manufacture Anktiva had 'robust process development and validation and quality oversight' with 'cGMP-compliant facilities.'
-In reality, the complaint alleges that AGC's facility suffered from numerous serious and recurring cGMP failures throughout the Class Period, including: (1) failure to release batch records on schedule; (2) significant delays in initiating and closing deviation investigations; (3) closing critical deviations without implementing corrective and preventative actions (CAPAs); (4) regularly missing required stability testing windows; (5) running out of reference material needed for quality control testing; and (6) multiple failed batches of Anktiva. The FDA had issued Form 483s to AGC following inspections in March 2021 and July 2021, documenting numerous cGMP violations.
-The Individual Defendants allegedly knew of these issues through quality agreements requiring AGC to report deviations and inspection findings, regular monthly meetings between company executives and AGC officials, and a mock inspection conducted in January 2023 that revealed ongoing cGMP deficiencies. When the FDA conducted its pre-license inspection in February 2023, it issued a 15-page Form 483 documenting extensive cGMP violations and classified the inspection as 'Official Action Indicated' (OAI), the most severe classification.
-On May 11, 2023, ImmunityBio disclosed that the FDA had issued a Complete Response Letter rejecting the Anktiva BLA due to deficiencies arising from the pre-license inspection. The stock price fell over 55% on this news.
-The complaint asserts claims under Section 10(b) of the Exchange Act and Rule 10b-5 against all Defendants, and Section 20(a) control person liability against the Individual Defendants.</t>
+          <t>This securities class action is brought by plaintiffs who purchased Danaher Corporation securities between January 27, 2022, and October 23, 2023, against Danaher and three individual defendants: CEO Rainer M. Blair, CFO Matthew R. McGrew, and Vice President Emmanuel Ligner. Danaher is a diversified conglomerate operating in Biotechnology, Life Sciences, and Diagnostics segments. The complaint alleges that defendants made materially false and misleading statements about the health and growth prospects of Danaher's bioprocessing business, which experienced significant growth during the COVID-19 pandemic due to demand for vaccines and therapeutics. Plaintiffs allege defendants knew that: (1) COVID-related revenues would materially decline as the pandemic subsided; (2) large pharmaceutical customers had stockpiled inventory and were not placing new orders; and (3) smaller biotech startups faced funding constraints leading to project delays. Despite these known challenges, defendants allegedly issued overly optimistic forecasts, repeatedly projecting high single-digit to low double-digit growth for bioprocessing while knowing these projections were untethered to actual customer activity and market conditions. The complaint details a series of guidance reductions throughout the Class Period, with each disclosure causing significant stock price drops. The claims are brought under Sections 10(b) and 20(a) of the Securities Exchange Act of 1934 and SEC Rule 10b-5.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and SEC Rule 10b-5</t>
+          <t>Section 10(b) of the Exchange Act and Rule 10b-5 (Against All Defendants)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>The complaint adequately pleads a Section 10(b) claim against all Defendants.
-**Material Misrepresentation or Omission:** The complaint identifies numerous specific statements made throughout the Class Period in SEC filings, press releases, and registration statements representing that ImmunityBio had 'established GMP manufacturing capacity' and that the CMO manufacturing Anktiva had 'robust process development and validation and quality oversight' with 'cGMP-compliant facilities.' The complaint also identifies risk factor disclosures that presented cGMP compliance failures as merely hypothetical risks. These statements are alleged to be materially false because, at the time they were made, AGC was suffering from pervasive and serious cGMP failures including delayed batch releases, missed stability testing windows, failure to close deviation investigations, and multiple failed batches. The materiality of these omissions is evident from the 55% stock price decline when the truth was revealed.
-**Scienter:** The complaint adequately pleads scienter through particularized facts establishing that the Individual Defendants knew of the cGMP failures. The complaint alleges: (1) Quality agreements required AGC to report deviations, inspection findings, and batch records to ImmunityBio; (2) Defendants Adcock and COO Sender held monthly or bi-monthly meetings with AGC executives to discuss ongoing delays; (3) Defendant Soon-Shiong personally reviewed and approved the BLA before submission; (4) ImmunityBio conducted a mock inspection in January 2023 that revealed ongoing deficiencies, with Adcock and Sender 'intricately involved' in all aspects; (5) After the first day of the FDA inspection revealed problems, Soon-Shiong demanded daily executive calls and Adcock flew overnight to attend the inspection; (6) The critical importance of Anktiva to the company's success as a clinical-stage company with no approved products supports an inference that management closely monitored its progress. These allegations, taken together, give rise to a strong inference of scienter.
-**Reliance:** The complaint adequately invokes the fraud-on-the-market presumption under Basic v. Levinson, alleging that ImmunityBio's stock traded on the NASDAQ, an efficient market, and that the misrepresentations were public. The Affiliated Ute presumption also applies to claims based on omissions.
-**Loss Causation:** The complaint adequately alleges loss causation by showing that the May 11, 2023 disclosure of the FDA's Complete Response Letter, which revealed the manufacturing deficiencies at the CMO, caused a 55% decline in stock price. This corrective disclosure directly revealed the falsity of Defendants' prior statements about cGMP compliance.</t>
+          <t>The complaint fails to adequately plead scienter as required under the PSLRA. The allegations primarily describe a company adjusting forward-looking guidance as market conditions evolved during a period of significant uncertainty following the COVID-19 pandemic. The confidential witness allegations are insufficient, as CW4's account of Blair allegedly stating he 'made up' projections is vague and lacks specificity about what specific false statements were made. The complaint essentially alleges fraud by hindsight - that because guidance was repeatedly revised downward, defendants must have known earlier forecasts were false. However, the bioprocessing market was experiencing unprecedented volatility as the pandemic transitioned to endemic status, and the complaint does not adequately allege that defendants possessed specific contemporaneous knowledge that their forecasts were false when made. The insider trading allegations are also insufficient to establish scienter, as the sales by Blair and McGrew were relatively modest in proportion to their holdings and some were made pursuant to Rule 10b5-1 plans. The PSLRA's safe harbor for forward-looking statements also protects many of the challenged statements, which were accompanied by meaningful cautionary language about COVID-19 uncertainty and market conditions.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act (Control Person Liability)</t>
+          <t>Section 20(a) of the Exchange Act (Against Defendants Blair and McGrew)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>The complaint adequately pleads Section 20(a) control person liability against the Individual Defendants.
-**Primary Violation:** As discussed above, the complaint adequately alleges a primary violation of Section 10(b) by ImmunityBio.
-**Control Person Status:** The complaint adequately alleges that each Individual Defendant was a control person of ImmunityBio. Defendant Soon-Shiong is alleged to have been Executive Chairman and Global Chief Scientific and Medical Officer, beneficially owning approximately 82% of the company's outstanding common stock, and is described by confidential witnesses as an 'extreme control freak' who was 'calling the shots' and issuing orders to the CEO. Defendant Adcock served as CEO throughout the Class Period and signed numerous SEC filings containing the alleged misstatements. Defendant Sachs served as CFO throughout the Class Period and also signed the SEC filings. The complaint alleges that the Individual Defendants 'had direct and supervisory involvement in the day-to-day operations of ImmunityBio' and 'had the power to influence and control, directly or indirectly, the decision-making of the Company, including the content and dissemination of the false and misleading statements.'
-**Culpable Participation:** The complaint alleges facts showing the Individual Defendants' culpable participation in the fraud, including their direct involvement in monitoring AGC's manufacturing issues, participation in the mock inspection process, and daily involvement during the FDA's pre-license inspection. The complaint does not allege facts suggesting the Individual Defendants acted in good faith or had no knowledge of the primary violation.
-Accordingly, the Section 20(a) claim survives the motion to dismiss.</t>
+          <t>Because the underlying Section 10(b) claim is dismissed for failure to adequately plead a primary violation, the derivative Section 20(a) control person liability claim against Blair and McGrew must also be dismissed. Control person liability under Section 20(a) requires an underlying securities law violation, and absent a viable primary claim, the control person claim cannot stand.</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1838,10 +1677,10 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>37683</v>
+        <v>39798</v>
       </c>
       <c r="X13" t="n">
-        <v>1713</v>
+        <v>730</v>
       </c>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
@@ -1862,7 +1701,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ctd-3_24-cv-01727</t>
+          <t>dde_ 23_cv_1466</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1873,16 +1712,56 @@
       <c r="C14" t="b">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>This securities class action was brought by Lead Plaintiffs AltShares Event-Driven ETF, AltShares Merger Arbitrage ETF, Kryger Event Fund Ltd., Kryger Enhanced Fund Ltd., and ODS Capital LLC against Focus Financial Partners Inc., its Special Committee members (LeMieux, Neuhoff, Morganroth, and Feliciani), Board members (Adolf, Kodialam, Carey, and Muhtadie), and Officer Defendants (Shanahan, Chang, and McGranahan). The complaint alleges violations of Sections 10(b), 14(a), and 20(a) of the Securities Exchange Act in connection with Focus Financial's $7 billion take-private merger with Clayton, Dubilier &amp; Rice (CD&amp;R) at $53 per share, which closed on August 31, 2023. The Class Period runs from February 27, 2023 through August 31, 2023. Plaintiffs allege that Stone Point Capital, Focus's largest shareholder with 20.6% ownership, drove the sale process to benefit its own interests, including receiving approximately $90 million in Tax Receivable Agreement (TRA) payments and the ability to roll over equity into the post-merger company. The complaint alleges defendants favored CD&amp;R over strategic buyers, including a competing bidder ('Party I') that offered $55 per share - $2 more than CD&amp;R. Plaintiffs claim the Special Committee was not independent as represented, with members receiving payments ranging from $729,467 to $943,690 through TRA payments, accelerated unvested equity, and last-minute fee increases approved moments before the merger vote. Goldman Sachs, the financial advisor, allegedly had conflicts due to its ties to Stone Point and CD&amp;R, and its concurrent representation of KSFB in a parallel sale process that limited the bidder pool. Jefferies received an eight-fold increase in its discretionary fee (from $1 million to $8 million) just before issuing its fairness opinion. The Proxy allegedly contained material misstatements and omissions regarding the Special Committee's independence, the adequacy of the sale process, conflicts of interest, and the fairness of the merger consideration.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Section 10(b) of the Exchange Act and Rule 10b-5(a)-(c) - Fraud claims against all Defendants</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>dismissed</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>The complaint fails to adequately plead scienter as required under the PSLRA. While plaintiffs allege defendants had conflicts of interest and favored CD&amp;R, the allegations do not give rise to a strong inference of fraudulent intent. The fact that insiders received benefits from the merger does not establish that they knew or recklessly disregarded that their statements were false. The Special Committee's determination that the merger was fair, even if allegedly influenced by conflicts, does not demonstrate scienter. Directors' receipt of compensation and TRA payments, while creating potential conflicts, does not establish that they knowingly made false statements. The complaint relies heavily on hindsight analysis of the sale process rather than demonstrating contemporaneous knowledge of falsity. Additionally, the alleged omissions regarding the sale process and conflicts largely concern matters of business judgment rather than demonstrably false factual statements.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Section 14(a) of the Exchange Act and Rule 14a-9 - Proxy fraud claims against Focus, Special Committee Defendants, Board Defendants, and Officer Defendants</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>The complaint adequately alleges material misstatements and omissions in the Proxy regarding the independence of the Special Committee. The Proxy repeatedly represented that the Special Committee consisted 'solely of independent and disinterested directors' who did not have 'material interests' different from public shareholders. However, the complaint alleges each Special Committee member received substantial payments ($729,467 to $943,690) through TRA payments, accelerated unvested equity, and fee increases approved moments before the merger vote. The last-minute 3.5x-6x compensation increase for Special Committee members, approved by themselves just before voting on the merger, was not disclosed in the Proxy. The Proxy's characterization of these payments as 'not material' without providing financial information to substantiate this claim could be found misleading by a reasonable shareholder. Additionally, the complaint adequately alleges the Proxy omitted material information about the sale process, including that Party I (offering $55/share) had expressed interest to CEO Adolf months earlier, that Goldman Sachs' concurrent KSFB representation limited the bidder pool, and that CD&amp;R's offers included undisclosed assurances to retain management. These omissions, if proven, would significantly alter the total mix of information available to shareholders voting on the merger. Section 14(a) claims require only negligence, not scienter, and the complaint adequately alleges defendants failed to exercise reasonable care in ensuring the Proxy's accuracy.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Section 20(a) of the Exchange Act - Control person liability against Special Committee Defendants, Board Defendants, and Officer Defendants</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>dismissed_in_part</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>The Section 20(a) claim is derivative of the underlying Section 10(b) and Section 14(a) claims. Because the Section 10(b) claim is dismissed for failure to adequately plead scienter, the Section 20(a) claim based on the Section 10(b) violation is also dismissed. However, because the Section 14(a) claim survives, the Section 20(a) claim based on the Section 14(a) violation is sustained. The complaint adequately alleges that the individual defendants were controlling persons of Focus who had direct supervisory involvement in the company's operations and the merger process. The Proxy was issued 'By Order of the Board of Directors' and signed by defendants Adolf and McGranahan. The individual defendants were involved in negotiating, reviewing, and approving the Merger Agreement, and had the ability to prevent or correct the allegedly misleading statements in the Proxy.</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
@@ -1893,10 +1772,10 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>13645</v>
+        <v>37723</v>
       </c>
       <c r="X14" t="n">
-        <v>4096</v>
+        <v>1358</v>
       </c>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
@@ -1917,7 +1796,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dcd-1_23-cv-01599</t>
+          <t>dde_21_cv_55</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1928,13 +1807,41 @@
       <c r="C15" t="b">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>This securities class action is brought by Lead Plaintiff Kim Kengle (as trustee of the Kim K. Kengle 2000 Trust) and Named Plaintiff Roseanne Lacy against Walmart Inc., CEO Douglas C. McMillon, and CFO M. Brett Biggs. The class period runs from March 31, 2017 through December 22, 2020, covering investors who purchased Walmart common stock during this period and held shares on March 24, 2020 and/or December 22, 2020. The complaint alleges that Walmart violated the Controlled Substances Act (CSA) for over a decade by failing to implement proper systems to monitor suspicious opioid orders, refusing to allow pharmacists to block prescriptions from known 'pill mill' doctors, and pressuring pharmacists to fill prescriptions quickly regardless of red flags. Defendants allegedly concealed from investors: (1) a secret 2011 Memorandum of Agreement with the DEA requiring compliance measures; (2) Walmart's failure to comply with the 2011 MOA; (3) a criminal investigation by the Eastern District of Texas DOJ beginning in December 2016; (4) the DOJ's intent to indict Walmart in 2018; and (5) an ongoing civil investigation. The complaint alleges Defendants made false statements in SEC filings claiming they disclosed all reasonably possible material liabilities, violated GAAP (ASC 450) by failing to disclose loss contingencies, violated SEC Item 103 by not disclosing contemplated government proceedings, presented hypothetical risk factors when risks had already materialized, and falsely portrayed Walmart as an 'opioid stewardship' leader while actively impeding compliance. The truth allegedly emerged on March 25, 2020 when ProPublica published an exposé revealing the investigations, causing a 5% stock drop, and on December 22, 2020 when the DOJ filed a civil complaint seeking billions in penalties, causing additional stock decline. The complaint asserts claims under Section 10(b) and Rule 10b-5 of the Exchange Act against all Defendants, and Section 20(a) control person liability against the Individual Defendants.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Section 10(b) and Rule 10b-5 of the Securities Exchange Act against all Defendants</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>dismissed_in_part</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>The complaint adequately pleads material misstatements and omissions regarding the failure to disclose the government investigations in SEC filings that affirmatively represented all reasonably possible material liabilities had been disclosed. However, several aspects are problematic. First, regarding scienter, while the complaint alleges the Individual Defendants were members of the Ethics, Compliance and Risk Committee and that McMillon was consulted on DOJ presentations, the allegations of actual knowledge of the investigations' materiality and deliberate concealment are largely conclusory and based on group pleading. The complaint relies heavily on the 2014 PSW document stating the board was 'informed,' but does not adequately allege what specific information reached the Individual Defendants or when. Second, many of the alleged misstatements are non-actionable puffery or forward-looking statements with meaningful cautionary language, particularly the 'opioid stewardship' press releases and general risk factor disclosures. Third, the loss causation allegations are weakened because the March 2020 stock decline occurred during the COVID-19 market crash, and plaintiffs must demonstrate the decline was attributable to the corrective disclosure rather than general market conditions. The claims based on failure to disclose the investigations in the contingent liability disclosures and the affirmative misrepresentation that all reasonably possible material liabilities were disclosed survive, as do claims based on the post-May 2018 period when Defendants knew of the imminent indictment threat. Claims based on pre-2018 statements, the stewardship press releases, and the boilerplate risk factors are dismissed for failure to adequately plead scienter or materiality.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Section 20(a) Control Person Liability against Individual Defendants McMillon and Biggs</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>dismissed_in_part</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Section 20(a) liability is derivative of the underlying Section 10(b) violation. To the extent the Section 10(b) claims survive against Walmart, the control person claims may proceed. The complaint adequately alleges that McMillon and Biggs were controlling persons by virtue of their positions as CEO and CFO respectively, their signing of all SEC filings during the Class Period, their membership on the Ethics, Compliance and Risk Committee, and their SOX certifications. However, to the extent the underlying Section 10(b) claims are dismissed, the corresponding Section 20(a) claims must also be dismissed. Additionally, the Individual Defendants may assert a good faith defense, and the complaint's allegations regarding their culpable participation are thin for the earlier portions of the Class Period. The claims survive for the period after March 2018 when McMillon allegedly was consulted on the DOJ presentation and both defendants continued to sign filings omitting disclosure of the known investigation and indictment threat.</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1948,10 +1855,10 @@
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>58579</v>
+        <v>50849</v>
       </c>
       <c r="X15" t="n">
-        <v>4096</v>
+        <v>1193</v>
       </c>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
@@ -1972,7 +1879,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dcd-1_23-cv-02055</t>
+          <t>flsd-1_23-cv-23139</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1985,77 +1892,185 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>This securities class action is brought by plaintiffs Derek Einersen and Avi Harari against Danaher Corporation and three individual defendants: CEO Rainer M. Blair, CFO Matthew R. McGrew, and Biotechnology segment head Emmanuel Ligner. The class period runs from January 27, 2022 to October 23, 2023. Danaher is a diversified conglomerate operating in Biotechnology, Life Sciences, and Diagnostics segments. The company experienced explosive growth during COVID-19 as its diagnostic tests and life sciences equipment were widely used for pandemic response, with its stock price nearly tripling to an all-time high of $332.43 in September 2021. The complaint alleges that as COVID-19 began transitioning to endemic status, defendants knew that demand for COVID-related products would decline significantly, but they repeatedly issued false and misleading statements about the health of Danaher's bioprocessing business. Plaintiffs allege defendants knew that: (1) COVID-related vaccine and therapeutic revenues would materially decline; (2) large pharmaceutical customers had stockpiled inventory during the pandemic and were using existing inventory rather than placing new orders; and (3) smaller biotech startups faced funding constraints as interest rates rose, leading them to delay or cancel projects. Despite this knowledge, defendants allegedly made piecemeal revisions to forecasts throughout the Class Period, repeatedly assuring investors that non-COVID business growth would offset COVID-related declines. The complaint details numerous occasions where defendants provided optimistic guidance that was subsequently revised downward, including COVID-related sales projections that fell from $2 billion to $800 million for 2022, and from $500 million to $150 million for 2023. The truth allegedly emerged through a series of partial disclosures on October 20, 2022, January 24, 2023, April 25, 2023, July 25, 2023, and October 24, 2023, each causing significant stock price declines. The complaint asserts claims under Section 10(b) and Rule 10b-5 against all defendants, and Section 20(a) control person liability against Blair and McGrew.</t>
+          <t>This securities class action involves twenty individual plaintiffs who invested approximately $27 million with Defendants CFT Solutions, LLC (a Delaware LLC based in Miami) and FxWinning Limited (a Hong Kong company with operations in Cyprus, Dubai, and Miami), along with individual defendants Renan de Rocha Gomes Bastos (CFT CEO), Arthur Percy (CFT COO), Rafael Brito Cutie (FxWinning CEO), Roman Cardenas (FxWinning VP), and David Merino (FxWinning founder). The class period spans from approximately early 2021 through June 2023. Plaintiffs allege Defendants operated a fraudulent forex trading scheme, representing they had developed a proprietary 'High-Frequency Trading System' algorithm that could generate returns of 400%+ annually. Defendants allegedly marketed these services through Telegram channels, Zoom sessions, in-person events (yacht party, Bahamas summit, Miami 'Masterminds' event), and company websites, claiming FxWinning was highly regulated, had Client Money Insurance, segregated client funds, and had been audited by KPMG. Plaintiffs opened accounts between February 2021 and February 2023, signing limited powers of attorney granting CFT authority to manage their FxWinning accounts for 40-50% management fees. While Defendants initially permitted withdrawals, they ceased all withdrawals in early 2023, citing new KYC/AML compliance requirements. Despite informing plaintiffs in May-June 2023 that their KYC compliance was 'successfully completed' and withdrawals would process within 15 working days, no funds were released. FxWinning announced service cessation on June 20, 2023. Plaintiffs allege the trading platform, KPMG audit, regulatory compliance, and insurance representations were false, that no actual trading occurred, and that individual defendants withdrew millions for personal benefit including real estate purchases. The complaint asserts eleven causes of action: (1) Securities Act Section 5/12(a)(1) violations for unregistered securities sales; (2) Exchange Act Section 10(b) and Rule 10b-5 fraud; (3) Commodity Exchange Act violations; (4) Florida Securities Act violations; (5) breach of contract; (6) breach of fiduciary duty; (7) fraud in the inducement; (8) negligent misrepresentation; (9) conversion; (10) unjust enrichment; and (11) civil conspiracy.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5</t>
+          <t>Count I - Violation of Securities Act of 1933, Sections 5 and 12(a)(1) (against CFT and FxWinning)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>dismissed</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>The complaint fails to adequately allege that the forex trading accounts constitute 'securities' under the Howey test. While plaintiffs allege an investment of money and expectation of profits from others' efforts, the 'common enterprise' element is insufficiently pled. The complaint describes individual accounts with individual balances, not a pooled investment where investors' fortunes rise and fall together (horizontal commonality) or where the promoter's fortunes are tied to investor success (vertical commonality). The allegation that funds 'were pooled together' is conclusory and made only 'upon information and belief' without factual support. Moreover, forex trading accounts and foreign currency transactions are generally excluded from securities regulation under the 'Treasury Amendment' to the Securities Exchange Act, and the complaint does not adequately distinguish these accounts from ordinary forex trading arrangements. The complaint also fails to allege specific facts showing how CFT's 'software license' constitutes an investment contract rather than a service agreement for account management.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Count II - Violation of Securities Exchange Act Section 10(b) and Rule 10b-5 (against CFT, FxWinning, de Rocha, Cardenas, and Brito Cutie)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>dismissed</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>This claim fails for multiple reasons. First, for the same reasons stated in Count I, plaintiffs have not adequately alleged the accounts constitute 'securities' required for Exchange Act jurisdiction. Second, the complaint fails to meet the heightened pleading requirements of the Private Securities Litigation Reform Act (PSLRA), 15 U.S.C. § 78u-4(b). The PSLRA requires plaintiffs to specify each statement alleged to be misleading and the reason why it is misleading, and to state with particularity facts giving rise to a strong inference of scienter. While the complaint contains general allegations of fraud, it does not adequately plead scienter for each individual defendant with the required particularity. The allegations against Cardenas are particularly thin, consisting mainly of his attendance at events. Third, the complaint does not adequately allege loss causation—how the alleged misrepresentations caused plaintiffs' losses as opposed to the general failure of the business or market conditions. The complaint conflates the inability to withdraw funds with securities fraud without establishing the necessary causal connection.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Count III - Violation of Commodity Exchange Act Sections 6b, 6e, 6o, and 25 (against CFT, FxWinning, de Rocha, Cardenas, and Brito Cutie)</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>The complaint adequately states a claim under the Commodity Exchange Act. Retail off-exchange forex transactions are subject to CEA regulation, and the complaint sufficiently alleges that defendants solicited and accepted funds for forex trading, made material misrepresentations about trading returns, regulatory compliance, insurance coverage, and account security, and operated a fraudulent scheme. The allegations that defendants falsely represented trading success rates, fabricated a KPMG audit report, and misrepresented FxWinning's regulatory status and insurance coverage state claims under Section 6b (fraud in commodity transactions), Section 6o (fraud by commodity trading advisors and pool operators), and Section 25 (private right of action). The complaint alleges CFT acted as a commodity trading advisor by managing accounts for fees and that the funds were pooled for forex trading, bringing defendants within CEA jurisdiction. The factual allegations regarding the false representations, the pattern of initially permitting withdrawals to build confidence, and the subsequent refusal to honor withdrawal requests adequately support the fraud claims at the pleading stage.</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Count IV - Violation of Florida Securities and Investor Protection Act Sections 517.301 and 517.211 (against CFT, FxWinning, de Rocha, Cardenas, and Brito Cutie)</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>dismissed</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Florida's securities statute, like federal securities law, requires the instrument at issue to constitute a 'security.' Florida courts apply the Howey test to determine whether an investment contract exists. For the same reasons the federal securities claims fail—inadequate pleading of the common enterprise element and failure to distinguish these forex accounts from ordinary currency transactions—the Florida securities claim also fails. The complaint's conclusory allegation that the investments 'were securities as defined by the Florida Securities and Investor Protection Act' is insufficient without factual allegations supporting each element of the Howey test. Additionally, the complaint does not address whether the forex trading accounts fall within any exemption under Florida law or adequately distinguish them from commodity transactions that would be governed by the CEA rather than state securities laws.</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Count V - Breach of Contract (against FxWinning)</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>The complaint adequately states a breach of contract claim against FxWinning. Plaintiffs allege the existence of a contract (FxWinning's terms and conditions, which plaintiffs agreed to when opening accounts), the specific contractual provision at issue (Section 3.4 providing that clients 'at all times' have 'the right to withdraw' their account balances 'upon request'), plaintiffs' performance (opening accounts, depositing funds, submitting KYC/AML documentation), FxWinning's breach (refusing to process withdrawal requests despite no contractual restrictions on withdrawals), and resulting damages (inability to access over $27 million in account balances). While FxWinning may raise defenses regarding the terms and conditions or the circumstances of the withdrawal freeze, these are not appropriate for resolution on a motion to dismiss. The complaint provides sufficient factual allegations to state a plausible breach of contract claim.</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Count VI - Breach of Fiduciary Duty (against all Defendants)</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>dismissed</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>The complaint fails to adequately allege the existence of a fiduciary relationship between plaintiffs and defendants. Under Florida law, a fiduciary relationship requires that one party place trust and confidence in another who thereby gains influence and superiority over the first. The mere fact that defendants held plaintiffs' funds does not automatically create a fiduciary relationship. The complaint alleges an arms-length commercial relationship—plaintiffs opened trading accounts subject to written terms and conditions and signed limited powers of attorney for account management services in exchange for fees. These allegations describe a contractual relationship, not a fiduciary one. The complaint does not allege facts showing defendants undertook to act primarily for plaintiffs' benefit or that plaintiffs reposed special trust and confidence in defendants beyond ordinary commercial dealings. The limited power of attorney for trading purposes does not transform the relationship into a fiduciary one for all purposes. Additionally, the claim against the individual defendants fails because the complaint does not allege they personally held plaintiffs' funds or had any direct fiduciary relationship with plaintiffs separate from their roles as corporate officers.</t>
+        </is>
+      </c>
+      <c r="W16" t="n">
+        <v>17967</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3704</v>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>Count VII - Fraud in the Inducement (against CFT, FxWinning, de Rocha, Cardenas, and Brito Cutie)</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>The complaint adequately pleads fraud in the inducement under the heightened pleading standard of Rule 9(b). The complaint identifies specific false representations: that CFT's trading software generated 400%+ annual returns, that FxWinning was regulated under stringent forex regulations, that FxWinning had Client Money Insurance, that a KPMG audit verified trading activity, that client funds were segregated, and that clients could withdraw funds at any time. The complaint alleges these representations were made through identified channels (Telegram posts with dates, Zoom sessions, in-person events, websites) and identifies which defendants made or authorized which representations. The complaint alleges defendants knew these representations were false (or were reckless as to their truth) because, upon information and belief, no trading actually occurred, the KPMG audit was fabricated, and FxWinning lacked the claimed regulatory status and insurance. Plaintiffs allege justifiable reliance—they would not have invested but for these representations—and damages exceeding $27 million. While the allegations against Cardenas are thinner than other defendants, his participation in promotional events where these representations were made is sufficient at the pleading stage.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Count VIII - Negligent Misrepresentation (against CFT, FxWinning, de Rocha, Cardenas, and Brito Cutie)</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>The complaint states a claim for negligent misrepresentation. Under Florida law, negligent misrepresentation requires: (1) misrepresentation of material fact; (2) the representor knew or should have known the representation was false; (3) intent to induce reliance; (4) justifiable reliance; and (5) resulting damages. The complaint alleges defendants made representations about trading returns, regulatory compliance, insurance, and account security that were false and that defendants failed to exercise reasonable care in making these representations. Even if defendants did not have actual knowledge of falsity (which would support the fraud claim), the complaint alleges they should have known through reasonable diligence that FxWinning lacked claimed regulatory status, that the KPMG audit was not genuine, and that the claimed trading returns were not achievable. The complaint adequately alleges defendants intended plaintiffs to rely on these representations to induce investment, that plaintiffs did rely, and that they suffered damages. This claim provides an alternative theory if plaintiffs cannot prove the scienter required for intentional fraud.</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>Count IX - Conversion (against all Defendants)</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
           <t>dismissed_in_part</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>To state a claim under Section 10(b) and Rule 10b-5, plaintiffs must adequately plead: (1) a material misrepresentation or omission; (2) scienter; (3) a connection between the misrepresentation and the purchase or sale of a security; (4) reliance; (5) economic loss; and (6) loss causation. Under the PSLRA, plaintiffs must specify each statement alleged to be misleading and state with particularity facts giving rise to a strong inference of scienter. The complaint survives in part but fails in part. As to material misrepresentations, plaintiffs adequately allege that defendants made specific, quantifiable statements about expected COVID-related revenues and growth rates for the bioprocessing business that proved materially inaccurate. The repeated downward revisions from $2 billion to $800 million for 2022 COVID sales, and from $500 million to $150 million for 2023, combined with assurances that non-COVID growth would compensate, constitute actionable statements of present fact about business conditions and customer activity. However, many forward-looking statements about expected growth rates may be protected by the PSLRA safe harbor where accompanied by meaningful cautionary language. As to scienter, the complaint presents a mixed picture. The allegations regarding CW4's account of Blair allegedly admitting to fabricating projections that 'looked better' is significant if credited, as it suggests actual knowledge of falsity. The allegations regarding defendants' close customer relationships and regular surveys, combined with their repeated assurances about inventory levels that proved false, support an inference of at least reckless disregard. The insider trading allegations show Blair sold 88% of his pre-Class Period holdings for $12.2 million and McGrew sold 135% of his holdings for $5.6 million during the Class Period, which supports scienter. However, the complaint's scienter allegations are weakened by the fact that the bioprocessing challenges (destocking, funding constraints) were industry-wide phenomena that defendants arguably disclosed, albeit incrementally. The 'core operations' doctrine supports scienter given bioprocessing represented approximately 25% of Danaher's total sales. Loss causation is adequately alleged through the identified corrective disclosures and corresponding stock drops. The claims based on statements made before April 25, 2022 are dismissed because the earliest alleged corrective disclosure causing a stock drop was October 20, 2022, and the complaint fails to adequately connect earlier statements to subsequent losses with particularity. Claims based on statements from April 21, 2022 forward regarding specific quantitative projections for COVID-related revenues and bioprocessing growth that were contradicted by known customer activity are sustained.</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Section 20(a) of the Exchange Act (Control Person Liability against Blair and McGrew)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>The conversion claim is sustained against FxWinning but dismissed against the remaining defendants. Against FxWinning, the complaint adequately alleges conversion: plaintiffs had ownership rights in the funds in their accounts, FxWinning exercised dominion over those funds inconsistent with plaintiffs' rights by refusing withdrawal requests, and plaintiffs suffered damages. However, the claim fails against CFT because the complaint does not allege CFT directly held plaintiffs' funds—rather, funds were deposited with FxWinning, and CFT managed the accounts under a power of attorney. The claim also fails against the individual defendants because the complaint does not allege they personally exercised dominion over plaintiffs' specific funds. The allegation that individual defendants 'withdrew millions of dollars for their own personal benefit' is conclusory and does not identify which plaintiffs' funds were taken by which defendants. Conversion requires wrongful dominion over specific, identifiable property, and the complaint does not adequately connect individual defendants to specific conversions of plaintiffs' funds.</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Count X - Unjust Enrichment (against all Defendants)</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
         <is>
           <t>dismissed_in_part</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Section 20(a) imposes liability on persons who control any person liable under the Exchange Act. To establish control person liability, plaintiffs must show: (1) a primary violation of the securities laws; and (2) that the defendant exercised actual power or control over the primary violator. The complaint adequately alleges that Blair and McGrew, as CEO and CFO respectively, were controlling persons of Danaher. Blair had direct involvement in operations, made the alleged misstatements personally, and had authority over corporate communications. McGrew signed SEC filings and participated in earnings calls. Both had access to internal financial information and the ability to prevent or correct misleading statements. However, Section 20(a) liability is derivative of the primary violation under Section 10(b). Because the Section 10(b) claim survives only in part, the Section 20(a) claim similarly survives only as to those statements for which the primary violation claim survives. The control person claims against Blair and McGrew are sustained to the same extent as the underlying Section 10(b) claims survive, and dismissed to the extent the underlying claims are dismissed. Notably, Defendant Ligner is not named in the Section 20(a) claim, which is appropriate given his more limited role and the fact that he did not sign SEC filings or serve as a corporate officer of Danaher itself.</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="n">
-        <v>40078</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1499</v>
-      </c>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>The unjust enrichment claim is sustained against CFT and FxWinning but dismissed against the individual defendants. Against the corporate defendants, the complaint adequately alleges they received a benefit (plaintiffs' invested funds and management fees), plaintiffs conferred this benefit, defendants' retention of the benefit under the circumstances would be unjust, and no adequate legal remedy exists (as an alternative to contract claims). However, against the individual defendants, the complaint's allegations are too conclusory. While the complaint alleges upon information and belief that individual defendants received 'commissions and profits,' it does not specify what benefits each individual defendant received from each plaintiff's investment. The allegation that Percy received $141,625.48 in commissions is specific but does not establish that retention of legitimate commissions would be unjust absent allegations those commissions were fraudulently obtained from specific plaintiffs. Unjust enrichment requires a direct benefit conferred by plaintiff on defendant, and the complaint does not adequately allege individual defendants were directly enriched by plaintiffs rather than by the corporate entities.</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Count XI - Civil Conspiracy (against all Defendants)</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>The complaint adequately states a civil conspiracy claim. Under Florida law, civil conspiracy requires: (1) an agreement between two or more parties; (2) to do an unlawful act or a lawful act by unlawful means; (3) an overt act in furtherance of the conspiracy; and (4) damages. The complaint alleges all defendants agreed to operate a fraudulent scheme to induce investments through false representations about trading capabilities, returns, regulatory compliance, and account security. The complaint identifies overt acts by each defendant: Merino allegedly created the purported software and co-founded FxWinning; de Rocha founded CFT, hosted promotional sessions, and made representations at events; Percy oversaw CFT operations and received commissions; Brito Cutie co-founded and operated FxWinning and made false representations about KYC compliance and fund availability; Cardenas attended promotional events and made representations to investors. The complaint alleges the conspiracy caused over $27 million in damages. While conspiracy requires an underlying unlawful act, the sustained fraud and negligent misrepresentation claims provide the predicate wrongful conduct. The allegations of coordinated marketing, joint events, and the integrated CFT-FxWinning platform support an inference of agreement at the pleading stage.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dde_ 23_cv_1466</t>
+          <t>ilnd-1-21-cv-04349</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2068,35 +2083,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>This securities class action involves Lead Plaintiffs AltShares Event-Driven ETF, AltShares Merger Arbitrage ETF, Kryger Event Fund Ltd., Kryger Enhanced Fund Ltd., and ODS Capital LLC against Focus Financial Partners Inc., its Special Committee members (LeMieux, Neuhoff, Morganroth, and Feliciani), Board members (Adolf, Kodialam, Carey, and Muhtadie), and Officer Defendants (Shanahan, Chang, and McGranahan). The case arises from the August 2023 merger in which CD&amp;R acquired Focus Financial for $53 per share. The Class Period runs from February 27, 2023 through August 31, 2023.
-Plaintiffs allege that the merger process was fundamentally flawed and designed to benefit insiders rather than maximize shareholder value. The central allegations include: (1) Stone Point Capital, Focus' largest shareholder with approximately 20.6% ownership and two Board seats, drove the sale process to benefit itself through equity rollover opportunities and approximately $90 million in Tax Receivable Agreement (TRA) payments; (2) the supposedly independent Special Committee members were actually conflicted, receiving unique payments ranging from $729,467 to $943,690 through TRA payments, accelerated unvested equity, and a last-minute 3.5x-6x increase in their committee compensation approved moments before they voted to approve the merger; (3) Defendants favored CD&amp;R throughout the process while stiff-arming Bidder I, which offered $55 per share compared to CD&amp;R's $53; (4) Goldman Sachs had extensive conflicts including longstanding ties to Stone Point and CD&amp;R, and a concurrent engagement representing KSFB in a parallel sale process that limited the pool of potential Focus acquirers; (5) Jefferies received an eight-fold increase in its discretionary fee (from $1 million to $8 million) just before issuing its fairness opinion; and (6) the Proxy Statement contained material misrepresentations about the Special Committee's independence, the adequacy of the sale process, and omitted material information about conflicts of interest.
-The complaint alleges that strategic acquirers were deliberately excluded from consideration because management preferred CD&amp;R, which promised to retain existing management and allow equity rollovers. When Bidder I expressed interest and ultimately offered $55 per share, it was denied access to due diligence and exclusivity that had been granted to CD&amp;R at lower price points. The Supplemental Proxy, filed just six business days before the shareholder vote, belatedly revealed some conflicts but failed to cure the deficiencies.</t>
+          <t>This is a consolidated securities class action brought by Lead Plaintiffs The Phoenix Insurance Company Ltd. and The Phoenix Pension &amp; Provident Funds, along with Consolidated Plaintiff City of Melbourne Firefighters' Retirement System, against ATI Physical Therapy, Inc. (formerly Fortress Value Acquisition Corp. II), individual ATI executives (CEO Labeed Diab, CFO Joseph Jordan, and former FVAC CEO Andrew McKnight), and FVAC directors (Joshua Pack, Marc Furstein, Leslee Cowen, Aaron Hood, Carmen Policy, Rakefet Russak-Aminoach, and Sunil Gulati). The class period runs from February 22, 2021 to October 19, 2021. ATI is one of the nation's largest outpatient physical therapy providers with nearly 900 clinics across 24 states. The case arises from a June 2021 SPAC merger between ATI and FVAC. Plaintiffs allege Defendants made materially false and misleading statements about ATI's employee retention rates, claiming 'very high retention' and 'low turnover' when the company was actually experiencing severe attrition among physical therapists at rates reaching 41% - more than double the industry average of approximately 20%. Multiple former employees confirmed the high attrition rates and that executives had access to weekly and monthly reports showing these figures. Plaintiffs allege Defendants also made false financial projections, forecasting $731 million in revenue and $119 million in Adjusted EBITDA for 2021, and projecting 90+ new clinic openings, when they knew the attrition problems would prevent meeting these targets. The truth emerged through corrective disclosures on July 26, 2021 (when ATI slashed guidance and announced the CHRO's departure, causing a 62.48% stock decline over two days) and October 19, 2021 (when ATI further reduced guidance, causing a 21.64% decline). The CEO was terminated in August 2021, and ATI recorded $466.9 million in impairment charges. The SEC subsequently requested documents relating to the earnings forecast. Claims are brought under Sections 10(b), 14(a), and 20(a) of the Exchange Act.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Section 10(b) and Rule 10b-5(a)-(c) - Securities Fraud</t>
+          <t>Count One: Section 10(b) of the Securities Exchange Act and Rule 10b-5 (Against ATI and ATI Individual Defendants)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>dismissed_in_part</t>
+          <t>sustained</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>To state a claim under Section 10(b) and Rule 10b-5, plaintiffs must adequately plead: (1) a material misrepresentation or omission; (2) scienter; (3) a connection between the misrepresentation and the purchase or sale of a security; (4) reliance; (5) economic loss; and (6) loss causation. The PSLRA requires that the complaint specify each statement alleged to be misleading and the reason why, and that facts giving rise to a strong inference of scienter be stated with particularity.
-Regarding material misrepresentations, plaintiffs have adequately alleged that the Proxy contained false statements about the Special Committee's independence and disinterestedness. The complaint details specific undisclosed conflicts including the Special Committee members' TRA payments, their self-awarded compensation increases approved moments before voting on the merger, and personal relationships with Adolf and Stone Point representatives. The statement that Special Committee members had 'no material interest in any Potential Transaction that is different from, or in addition to, the interests of the public stockholders' is plausibly alleged to be false given the detailed financial benefits each member received.
-However, many of the alleged misstatements about the sale process being 'robust' and achieving the 'best value reasonably obtainable' are more problematic. These are opinions that require plaintiffs to show both subjective falsity and objective falsity under Omnicare. While plaintiffs allege facts suggesting the process favored CD&amp;R, the Special Committee did consider multiple bidders, conducted a go-shop period, and obtained a higher price than CD&amp;R's initial offers. The claim that the process was inadequate because strategic acquirers were not contacted earlier is weakened by the disclosed rationale about Focus's unique business model.
-On scienter, plaintiffs have alleged sufficient facts to support a strong inference of scienter for certain defendants. The Officer Defendants' personal financial interests in the CD&amp;R deal (continued employment, equity rollovers, TRA payments) combined with their direct involvement in the sale process and Proxy preparation supports scienter. Stone Point's representatives on the Board had clear conflicts given Stone Point's $90 million TRA payment and equity rollover opportunity. The Special Committee members' last-minute compensation increases, approved by themselves just before voting on the merger, supports an inference of scienter regarding their independence representations.
-However, scienter is less clearly established for claims about the adequacy of the sale process itself. Business judgments about which bidders to contact and when do not necessarily give rise to fraud claims, and the complaint acknowledges that Bidder I was ultimately invited to participate and submit a proposal.
-Loss causation is adequately alleged for the Section 10(b) claims brought on behalf of sellers during the class period. Plaintiffs allege the stock price was artificially depressed because the market did not know the true value of the company or the availability of a $55 per share offer.
-The Section 10(b) claims survive as to the material misrepresentations about the Special Committee's independence and the concealment of the Special Committee members' financial conflicts. The claims are dismissed as to the broader allegations about the inadequacy of the sale process, which sound more in breach of fiduciary duty than securities fraud.</t>
+          <t>Plaintiffs have adequately pleaded material misrepresentations and omissions regarding ATI's employee retention rates and financial projections. The complaint alleges specific false statements claiming 'very high retention' and 'low turnover' when multiple former employees confirmed attrition rates of approximately 41%, more than double the industry average. The complaint adequately alleges scienter through: (1) detailed accounts from seven former employees confirming executives received weekly and monthly reports showing attrition rates; (2) FE-4's testimony about preparing monthly scorecards with attrition trend lines for executive leadership including Defendants Diab and Jordan; (3) FE-1's account of quarterly meetings where Diab and Jordan discussed attrition; (4) the sudden terminations of the CHRO and CEO shortly after the merger; and (5) the SEC investigation into the earnings forecast. The complaint also adequately pleads loss causation through the July 26, 2021 and October 19, 2021 corrective disclosures that revealed the attrition problems and caused significant stock price declines. The financial projections are not protected by the PSLRA safe harbor because Defendants allegedly had actual knowledge they were false when made.</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Section 14(a) and Rule 14a-9 - Proxy Fraud</t>
+          <t>Count Two: Section 20(a) of the Exchange Act - Control Person Liability (Against ATI Individual Defendants)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2106,41 +2113,39 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Section 14(a) and Rule 14a-9 prohibit soliciting proxies by means of a proxy statement containing material misstatements or omissions. Unlike Section 10(b), Section 14(a) claims do not require scienter; negligence is sufficient. Plaintiffs need only show: (1) a material misrepresentation or omission in a proxy statement; (2) that the proxy solicitation was an essential link in accomplishing the transaction; and (3) damages.
-Plaintiffs have adequately alleged material misrepresentations and omissions in the Proxy. The Proxy repeatedly represented that the Special Committee consisted 'solely of independent and disinterested directors' who had 'no material interest in any Potential Transaction that is different from, or in addition to, the interests of the public stockholders.' The complaint alleges this was false because:
-(1) Each Special Committee member received TRA payments ranging from $73,000 to $255,000 that were accelerated by the merger;
-(2) Each member received accelerated unvested equity awards;
-(3) The Special Committee members voted to increase their own compensation from $40,000-$80,000 to $240,000-$280,000 just moments before approving the merger;
-(4) The members had undisclosed personal and business relationships with Adolf, CD&amp;R, and Stone Point, including LeMieux's law firm representing CD&amp;R and multiple members belonging to the same social organizations as Adolf.
-These omissions are material because a reasonable shareholder would consider the Special Committee's actual independence important when evaluating its recommendation. The Proxy specifically cited the Special Committee's independence as a primary reason to find the merger fair.
-The Proxy also omitted material information about the sale process, including: (1) that Bidder I's CEO had expressed interest in a 'transformative transaction' directly to Adolf in September and November 2022, months before Bidder I was formally contacted; (2) that CD&amp;R's offers included assurances about retaining management that created conflicts for the Officer Defendants; (3) that Stone Point had conveyed it was 'not agnostic with respect to potential partners' and was 'disincentivized to support a higher price per share'; (4) that Goldman Sachs' concurrent representation of KSFB limited the pool of potential acquirers contacted during the sale process; and (5) that Jefferies' discretionary fee was increased eight-fold just before it rendered its fairness opinion.
-The Supplemental Proxy, filed just six business days before the shareholder vote, did not cure these deficiencies. It revealed some financial information but did not disclose the last-minute compensation increases, the personal relationships, or the full extent of the process deficiencies.
-The proxy solicitation was clearly an essential link in accomplishing the merger, as shareholder approval was required. Damages are adequately alleged as shareholders approved a merger at $53 per share when a $55 per share offer was available.
-The motion to dismiss the Section 14(a) claims is denied.</t>
+          <t>Having sustained the underlying Section 10(b) claim, the Section 20(a) control person claim survives. The complaint adequately alleges that the ATI Individual Defendants (Diab, Jordan, and McKnight) were controlling persons by virtue of their positions as CEO, CFO, and former FVAC CEO/current director respectively. The complaint alleges they had the power to influence and control the content of the Company's SEC filings, press releases, and public statements, and that they had access to the internal reports showing the true attrition rates. Plaintiffs have sufficiently alleged the predicate violation and control person status to survive a motion to dismiss.</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Section 20(a) - Control Person Liability</t>
+          <t>Count Three: Section 14(a) of the Exchange Act and Rule 14a-9 (Against All Defendants)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>dismissed_in_part</t>
+          <t>sustained</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Section 20(a) imposes joint and several liability on persons who control any person liable under the Exchange Act. To state a claim, plaintiffs must adequately allege: (1) a primary violation of the securities laws; and (2) that the defendant exercised actual power or control over the primary violator.
-Because the Section 14(a) claims survive, the Section 20(a) claims predicated on those violations also survive against defendants who exercised control over Focus. The Officer Defendants (Adolf, Kodialam, Shanahan, Chang, and McGranahan) are adequately alleged to have controlled Focus through their executive positions and direct involvement in preparing and disseminating the Proxy. Adolf signed the Proxy as Chairman and CEO, and McGranahan signed as General Counsel. The Board Defendants similarly exercised control through their positions as directors who authorized the Proxy.
-The Section 20(a) claims predicated on the Section 10(b) violations survive to the same extent as the underlying claims. Where the Section 10(b) claims are dismissed, the derivative Section 20(a) claims are also dismissed.
-The Special Committee Defendants are adequately alleged to be control persons with respect to the Proxy's representations about their own independence and the Special Committee's process, as they directly participated in and controlled those aspects of the disclosure.
-The motion to dismiss the Section 20(a) claims is denied as to claims predicated on the surviving Section 14(a) violations and the surviving portions of the Section 10(b) claims, and granted as to claims predicated on the dismissed Section 10(b) claims.</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+          <t>Plaintiffs have adequately pleaded that the Proxy Solicitations contained material misstatements and omissions. The proxy materials touted ATI's 'high retention rates,' 'competitive compensation model,' and 'favorable clinician retention rates' when the company was allegedly experiencing 41% attrition. The proxy also contained financial projections ($731 million revenue, $119 million EBITDA, 90+ new clinics) that proved materially overstated. Section 14(a) claims do not require scienter - only negligence. The complaint adequately alleges Defendants failed to exercise reasonable care in ensuring the proxy materials were accurate and complete. The complaint also adequately alleges that the misstatements were material to shareholders' voting decisions on the merger and their decision whether to exercise redemption rights for $10.00 per share. Plaintiffs have standing as beneficial owners of FVAC Class A common stock as of the Record Date who were eligible to vote on the merger.</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Count Four: Section 20(a) of the Exchange Act - Control Person Liability for Proxy Claims (Against ATI Individual Defendants and FVAC Defendants)</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Having sustained the underlying Section 14(a) claim, the Section 20(a) control person claim for the proxy violations survives. The complaint adequately alleges that both the ATI Individual Defendants and the FVAC Defendants were controlling persons who had the power to influence the content of the proxy solicitation materials. The FVAC Defendants were directors who signed the Proxy Statement and solicited shareholder approval of the merger. The ATI Individual Defendants had direct involvement in preparing the financial projections and operational information included in the proxy materials. All named defendants are alleged to have had access to information contradicting the public statements and the ability to prevent or correct the misstatements.</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
@@ -2148,10 +2153,10 @@
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>38003</v>
+        <v>34431</v>
       </c>
       <c r="X17" t="n">
-        <v>2514</v>
+        <v>1482</v>
       </c>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
@@ -2172,7 +2177,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dde_21_cv_55</t>
+          <t>mad-1-21-cv-10933</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2185,15 +2190,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>This securities class action was brought by Lead Plaintiff Kim Kengle as trustee of the Kim K. Kengle 2000 Trust and Named Plaintiff Roseanne Lacy against Walmart Inc. and its executives Douglas C. McMillon (President and CEO) and M. Brett Biggs (Executive Vice President and CFO). The Class Period spans from March 31, 2017 to December 22, 2020, covering shareholders who purchased Walmart common stock during this period and held shares on March 24, 2020 and/or December 22, 2020.
-The complaint alleges that Walmart violated the Controlled Substances Act (CSA) for over a decade by failing to implement proper controls for dispensing and distributing opioids through its approximately 5,000 pharmacies. Key allegations include: (1) Walmart failed to comply with a secret 2011 Memorandum of Agreement (MOA) with the DEA that required implementation of compliance measures; (2) Walmart's internal documents from June 2014 acknowledged the company had 'no processes in place' for suspicious order monitoring and faced 'severe financial and reputational harm'; (3) In December 2016, the DEA raided a Walmart store in Texas, triggering a criminal investigation by the U.S. Attorney for the Eastern District of Texas; (4) In March 2018, federal prosecutors informed Walmart of their intent to indict the company, and in May 2018 stated the indictment was 'imminent' with a $1 billion civil settlement demand; (5) Walmart allegedly lobbied high-level DOJ officials to quash the criminal indictment, which was declined in August 2018, though the civil investigation continued.
-The plaintiffs allege Defendants made false and misleading statements by: (1) Misrepresenting that they had disclosed all 'reasonably possible' material liabilities while concealing the government investigations; (2) Violating GAAP (ASC 450) by failing to disclose loss contingencies; (3) Violating SEC Regulation S-K Item 103 requiring disclosure of material legal proceedings contemplated by governmental authorities; (4) Presenting hypothetical risk disclosures about pharmacy operations when those risks had already materialized; (5) Falsely portraying Walmart as an 'opioid steward' with comprehensive compliance policies when internal practices actually prevented pharmacists from refusing to fill illegitimate prescriptions; and (6) Signing false SOX certifications.
-The truth allegedly emerged on March 25, 2020 when ProPublica published an exposé revealing the criminal investigation, the secret 2011 MOA, and Walmart's CSA violations, causing shares to fall nearly 5%. On December 22, 2020, the DOJ filed a civil lawsuit against Walmart seeking billions in penalties, causing additional stock price decline.</t>
+          <t>This securities class action is brought by Lead Plaintiff Julian Quinones against Frequency Therapeutics, Inc., a pharmaceutical company developing FX-322 for sensorineural hearing loss (SNHL), and individual defendants David Lucchino (CEO/President) and Carl LeBel (Chief Development Officer). The Class Period runs from October 29, 2020 through March 22, 2021. Plaintiff alleges defendants made materially false and misleading statements about the Phase 2a clinical trial of FX-322, specifically that 'all subjects have meaningful word recognition deficits' when defendants allegedly knew the trial was compromised by self-selection bias. According to the complaint, patients suffering from tinnitus faked word recognition tests to enroll in the study hoping for early access to a potential cure, despite not meeting inclusion criteria. Evidence includes posts on the Tinnitus Talk forum from February 2020 disclosing the supposedly secret word recognition threshold (85% or less), and a confidential witness (CW1), the former Senior Manager of Clinical Operations, who confirmed defendants knew patients 'faked being deaf' to enroll and that investigators reported discrepancies between screening and subsequent examinations. On March 23, 2021, Frequency disclosed that Phase 2a showed no benefit over placebo and revealed 'unexpected apparent level of hearing benefit in the placebo group' suggesting 'bias due to trial design.' The stock dropped 78% from $36.29 to $7.99, erasing approximately $955 million in market capitalization. Plaintiff alleges CEO Lucchino sold over $9 million in stock during the Class Period at dramatically increased rates compared to pre-Class Period sales. Claims are brought under Section 10(b) and Rule 10b-5 of the Exchange Act against all defendants, and Section 20(a) against the Individual Defendants as controlling persons.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Section 10(b) and Rule 10b-5 - Material Misrepresentation and Omission</t>
+          <t>Section 10(b) and Rule 10b-5 of the Exchange Act (Count I - Against All Defendants)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2203,14 +2205,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>The complaint adequately pleads a Section 10(b) claim. First, regarding material misrepresentations and omissions, the plaintiffs have sufficiently alleged that Defendants made materially false statements by (1) affirmatively representing in SEC filings that they had disclosed all 'reasonably possible' material liabilities while concealing the criminal and civil investigations, (2) violating GAAP disclosure requirements under ASC 450 for loss contingencies, and (3) portraying Walmart as an 'opioid steward' with comprehensive compliance policies while internal documents showed the company prioritized 'driving sales' over compliance. The allegations that Walmart's June 2014 internal documents acknowledged 'no processes in place' for suspicious order monitoring and 'severe' financial and reputational risk, combined with the March 2018 notice of imminent indictment, demonstrate that Defendants knew of material risks they failed to disclose.
-Second, scienter is adequately pled through particularized facts showing Defendants' knowledge. McMillon's personal involvement in preparing the July 2018 DOJ presentation, his membership on the Ethics, Compliance and Risk Committee, and his direct communications about opioid compliance demonstrate actual knowledge. The June 2014 Portfolio Scoring Worksheet stating the Board was 'informed' of compliance failures, combined with the 2015 Proposal acknowledging the need for 'immediate and substantial enhancements' to avoid DEA enforcement, creates a strong inference of scienter. Biggs, as CFO and Ethics Committee member, would have been aware of these material contingent liabilities affecting financial statements.
-Third, loss causation is adequately alleged through the March 25, 2020 ProPublica disclosure causing a 5% stock decline and the December 22, 2020 DOJ lawsuit announcement causing additional decline. The complaint sufficiently connects the alleged misrepresentations to the corrective disclosures and resulting economic harm. The motion to dismiss this claim is DENIED.</t>
+          <t>The complaint adequately pleads a Section 10(b) claim. First, Plaintiff identifies specific false statements made during the Class Period, including representations that 'all subjects have meaningful word recognition deficits' and that word recognition criteria were 'not disclosed' to minimize bias, when allegedly defendants knew patients had faked their way into the study and the criteria had been publicly disclosed on internet forums. Second, scienter is adequately pled through multiple sources: (1) the confidential witness CW1, who as Senior Manager of Clinical Operations reported directly to LeBel, stated that defendants knew about the online posts disclosing inclusion criteria and that investigators reported discrepancies in patient responses; (2) CEO Lucchino's suspicious stock sales totaling over $9 million during the Class Period, with sales dramatically increasing after Phase 2a enrollment ended and before results were disclosed; and (3) the core operations doctrine, as FX-322 was Frequency's lead product candidate and the company was 'heavily dependent' on its success. Third, the complaint adequately alleges loss causation, as the March 23, 2021 corrective disclosure specifically revealed the bias in Phase 2a that defendants allegedly concealed, directly causing the 78% stock price decline. The complaint also adequately alleges materiality, as information about trial integrity and potential bias would be important to a reasonable investor evaluating a pharmaceutical company's prospects. The PSLRA's heightened pleading standards are satisfied through the detailed allegations from CW1, the documentary evidence from the Tinnitus Talk forum, and the specific false statements identified.</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Section 20(a) Control Person Liability Against Individual Defendants McMillon and Biggs</t>
+          <t>Section 20(a) of the Exchange Act (Count II - Against Individual Defendants Lucchino and LeBel)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2220,9 +2220,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Section 20(a) imposes joint and several liability on persons who control any person liable under the Exchange Act. To establish a prima facie case, plaintiffs must show (1) a primary violation of the securities laws and (2) that the defendant exercised actual power or control over the primary violator.
-Having found that the Section 10(b) claim against Walmart survives, the primary violation element is satisfied. The complaint adequately alleges that McMillon and Biggs were controlling persons. McMillon, as President and CEO since February 2014, signed all Class Period 10-Ks and 10-Qs, was Chair of the Executive Committee, and was a member of the Ethics, Compliance and Risk Committee. The complaint alleges he was personally consulted during formulation of Walmart's response to the DOJ investigation and had personal knowledge of the PowerPoint presentations to the DOJ. Biggs, as CFO since January 2016, signed all Class Period financial reports and SOX certifications and was also a member of the Ethics, Compliance and Risk Committee responsible for compliance risk oversight.
-Both Individual Defendants had the power and ability to control Walmart's public disclosures and financial reporting. Their positions gave them direct involvement in the allegedly false statements, and the complaint alleges they participated in the fraudulent scheme by signing certifications attesting to the accuracy of financial statements they knew or recklessly disregarded were materially false. The motion to dismiss the Section 20(a) claims against McMillon and Biggs is DENIED.</t>
+          <t>Having found that the complaint adequately states a primary violation under Section 10(b), the Section 20(a) claim against the Individual Defendants survives. The complaint adequately alleges that both Lucchino and LeBel were controlling persons of Frequency. Lucchino, as CEO and President, had the power to control the contents of SEC filings, press releases, and public statements. LeBel, as Chief Development Officer and the listed 'Study Director' of Phase 2a on FDA records, directly oversaw the design and implementation of the clinical trial at issue. The complaint alleges both Individual Defendants were provided with copies of the Company's reports and press releases prior to issuance and had the ability to prevent their issuance or cause them to be corrected. LeBel personally made false statements at the January 19, 2021 investor presentation claiming the word recognition deficit criteria were 'not disclosed' to minimize bias. The complaint also alleges that CW1 reported directly to LeBel and that investigators contacted LeBel about discrepancies in patient responses. These allegations are sufficient to establish control person liability at the motion to dismiss stage, as Plaintiff has pled both a primary violation and that the Individual Defendants had the power to control the specific activities comprising the primary violation.</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -2238,10 +2236,10 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>51129</v>
+        <v>18099</v>
       </c>
       <c r="X18" t="n">
-        <v>1523</v>
+        <v>1173</v>
       </c>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
@@ -2262,7 +2260,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>flsd-1_23-cv-23139</t>
+          <t>mied-4-23-cv-13132</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2275,12 +2273,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>This securities class action involves twenty individual plaintiffs who invested approximately $27 million with defendants CFT Solutions, LLC (a Delaware LLC based in Miami) and FxWinning Limited (a Hong Kong company with operations in Cyprus, Dubai, and Miami), along with individual defendants Renan de Rocha Gomes Bastos (CFT CEO), Arthur Percy (CFT COO), Rafael Brito Cutie (FxWinning CEO), Roman Cardenas (FxWinning VP), and David Merino (FxWinning founder). The plaintiffs allege that defendants operated a fraudulent forex trading scheme, representing that they had developed a proprietary 'High-Frequency Trading System' algorithm that would generate high returns (allegedly 410% annual profit). Defendants marketed their platform through Telegram channels, Zoom sessions, and in-person events in Miami and the Bahamas, including presentations by former U.S. Attorney General Matthew Whitaker and Indiana Attorney General Todd Rokita. Plaintiffs allege defendants made numerous false representations including: (1) FxWinning was regulated under stringent forex regulations; (2) a KPMG audit verified all trades; (3) FxWinning had purchased Client Money Insurance; (4) client funds were segregated; and (5) the platform generated substantial returns. Plaintiffs opened accounts between February 2021 and February 2023, signing limited powers of attorney with CFT and agreeing to 40-50% management fees. While defendants initially permitted withdrawals, beginning in January 2023, they halted all withdrawals, citing new KYC/AML requirements. Despite notifying plaintiffs in May-June 2023 that their KYC processes were 'successfully completed' and withdrawals would be processed within 15 working days, defendants never released any funds. FxWinning announced it would cease operations on June 22, 2023. Plaintiffs allege the entire operation was a fraudulent scheme, with no actual trading occurring and individual defendants withdrawing millions for personal benefit, including real estate purchases. The complaint asserts claims under the Securities Act of 1933, Securities Exchange Act of 1934, Commodity Exchange Act, Florida Securities and Investor Protection Act, and various state common law theories.</t>
+          <t>This securities class action is brought by Lead Plaintiff City of Hollywood Police Officers' Retirement System and additional named plaintiff Plymouth County Retirement Association against General Motors Company (GM), Cruise LLC, and individual defendants Mary T. Barra (GM CEO), Paul A. Jacobson (GM CFO), Kyle Vogt (Cruise CEO/CTO), Daniel Ammann (former Cruise CEO), Douglas L. Parks (GM EVP), and Wayne G. West (Cruise COO). The class period spans February 24, 2021 through November 8, 2023. Plaintiffs allege defendants made materially false and misleading statements about Cruise's autonomous vehicle (AV) technology, claiming it was 'fully driverless,' 'Level 4,' and 'safer than human drivers' when in reality the technology was highly dependent on remote operators intervening every 2.5 to 5 miles, faced numerous unresolved safety issues, struggled with basic driving requirements like identifying children, and routinely became stranded. The complaint details how former employees reported persistent safety deficiencies, vehicles failing frequently, and a culture of downplaying safety concerns to accelerate commercialization. The fraud allegedly unraveled following an October 2, 2023 crash where a Cruise AV struck a pedestrian and dragged her approximately 20 feet. Defendants allegedly concealed the dragging from regulators and media by showing incomplete video footage and making misleading statements. The truth emerged through three corrective disclosures: October 24, 2023 (DMV suspended Cruise's permits, revealing the dragging incident); October 26, 2023 (NHTSA investigation revealed, Cruise paused all operations); and November 8, 2023 (Cruise recalled its entire 950-vehicle fleet). GM stock declined approximately 2.3%, 4.7%, and 3% respectively on these dates. The DOJ and SEC have opened investigations, and Cruise's valuation has been cut by more than half.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Violation of Securities Act of 1933, Sections 5 and 12(a)(1) - Unregistered Securities (Count I against CFT and FxWinning)</t>
+          <t>Count I: Violations of Section 10(b) and Rule 10b-5(b) against GM, Cruise, and Individual Defendants</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2290,12 +2288,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>The complaint adequately alleges that the investment accounts constitute 'securities' under the Howey test. First, plaintiffs invested money by depositing funds into their CFT/FxWinning accounts. Second, a common enterprise exists because plaintiffs' fortunes were entirely dependent on defendants' purported trading algorithm and platform - plaintiffs had no control over trades and merely observed account balances. The complaint alleges funds were pooled together and CFT maintained complete control over the software and trading. Third, plaintiffs expected profits solely from the efforts of others - defendants touted their proprietary HFT algorithm and platform as generating returns, with plaintiffs' only role being to deposit funds. This mirrors the factual pattern in SEC v. Unique Financial Concepts, where forex trading programs were found to be investment contracts rather than exempt currency transactions. The complaint sufficiently alleges that defendants offered and sold these unregistered securities through interstate commerce (websites, Telegram, Zoom sessions) without any registration statement being filed with the SEC. The motion to dismiss this claim is denied.</t>
+          <t>The complaint adequately alleges material misrepresentations and omissions regarding Cruise's AV technology capabilities. Plaintiffs sufficiently plead that defendants' statements claiming 'Level 4' autonomy, 'fully driverless' capability, and safety superior to human drivers were false when made, as the technology allegedly required frequent human intervention (every 2.5-5 miles), had numerous unresolved safety issues, and could not perform basic functions like identifying children. The complaint pleads scienter through: (1) the core operations doctrine given Cruise's importance to GM's business and valuation; (2) detailed allegations from nine confidential witnesses describing widespread knowledge of safety deficiencies; (3) Individual Defendants' access to safety reports, risk registers, and regular briefings on AV performance; (4) the Quinn Report findings accepted by Cruise showing deliberate concealment of the October 2 crash details; (5) suspicious departures of Vogt, West, and Parks following the disclosures; and (6) post-class period admissions acknowledging the need to 'redesign our approach to safety.' Loss causation is adequately pled through the three corrective disclosures and corresponding statistically significant stock price declines.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Violation of Securities Exchange Act Section 10(b) and Rule 10b-5 (Count II against CFT, FxWinning, de Rocha, Cardenas, and Brito Cutie)</t>
+          <t>Count II: Violations of Section 10(b) and Rule 10b-5(a)/(c) (Scheme Liability) against GM, Cruise, and Individual Defendants</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2305,12 +2303,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>To state a claim under Section 10(b) and Rule 10b-5, plaintiffs must allege: (1) a material misrepresentation or omission; (2) scienter; (3) a connection with the purchase or sale of a security; (4) reliance; (5) economic loss; and (6) loss causation. The complaint adequately pleads each element. Material Misrepresentations: Plaintiffs allege numerous specific false statements including that FxWinning was regulated under stringent forex regulations, that a KPMG audit verified trades (allegedly fake), that Client Money Insurance was purchased, that funds were segregated, that the platform generated 410% annual returns, and that withdrawals would be processed within 15 days after KYC completion. Scienter: The complaint alleges defendants knew these statements were false - they allegedly knew no actual trading occurred, the KPMG audit was fake, and they continued soliciting investments while preventing withdrawals and allegedly siphoning funds for personal use (real estate purchases). The pattern of conduct (initial withdrawals to build trust, then complete cessation) supports an inference of fraudulent intent. Connection to Securities: As analyzed above, the investment accounts constitute securities. Reliance: Plaintiffs allege they relied on defendants' representations in making their investments and would not have invested absent these representations. Economic Loss: Plaintiffs allege over $27 million in losses. Loss Causation: Plaintiffs allege their losses were directly caused by defendants' fraud - their funds were never actually traded and were instead converted by defendants. The motion to dismiss this claim is denied.</t>
+          <t>The complaint adequately alleges a scheme to defraud through conduct beyond mere misstatements. Specifically, plaintiffs allege defendants engaged in deceptive conduct following the October 2, 2023 crash by: (1) deliberately editing and disseminating incomplete video footage that omitted the pedestrian dragging to media outlets; (2) providing misleading talking points to media stating the AV 'came to a complete stop' when defendants knew it had dragged the pedestrian 20 feet; (3) failing to disclose material facts to regulators including the DMV, CPUC, and NHTSA; and (4) CEO Vogt personally authorizing all media communications while knowing the full facts. The Quinn Report, which Cruise accepted, documents this coordinated scheme including 'War Room' discussions and Senior Leadership Team meetings where the decision was made to withhold information. This deceptive conduct is distinct from the underlying misstatements and constitutes an independent basis for scheme liability under Rules 10b-5(a) and (c).</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Violation of Commodity Exchange Act, Sections 6b, 6e, 6o, and 25 (Count III against CFT, FxWinning, de Rocha, Cardenas, and Brito Cutie)</t>
+          <t>Count III: Violations of Section 20(a) against Barra, Jacobson, and Parks as Control Persons of GM</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2320,12 +2318,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>This claim is pled in the alternative - if the investments are not securities, they constitute commodity transactions subject to the CEA. The complaint adequately alleges violations of: Section 6b (fraud in connection with commodity contracts) - defendants allegedly cheated and defrauded plaintiffs by making false statements about their forex trading platform and returns; Section 6e (unregistered dealings) - defendants allegedly operated as unregistered floor traders or brokers; Section 6o (fraud by commodity trading advisors/pool operators) - defendants allegedly employed devices and schemes to defraud clients and engaged in practices operating as fraud. The complaint alleges defendants solicited funds for purported forex trading, made material misrepresentations about trading results and platform capabilities, and misappropriated funds. Section 25 provides a private right of action for persons who received trading advice, made contracts, or deposited money with violators. Plaintiffs fall within these categories. The allegations mirror those found sufficient in cases like CFTC v. Nawabi involving fraudulent forex pool schemes. The motion to dismiss this claim is denied.</t>
+          <t>The complaint adequately alleges that Barra (CEO and Board Chair), Jacobson (CFO), and Parks (EVP) were control persons of GM. Their senior executive positions, involvement in signing or certifying SEC filings, participation in earnings calls and investor conferences where the alleged misstatements were made, and their ability to influence GM's public statements and business decisions establish control person status. The complaint alleges a primary violation by GM under Section 10(b), and plaintiffs have adequately alleged these defendants did not act in good faith given their access to information about Cruise's actual capabilities and their participation in disseminating the alleged misstatements. The culpable participation requirement is satisfied by their direct involvement in making the challenged statements.</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Violation of Florida Securities and Investor Protection Act, Sections 517.301 and 517.211 (Count IV against CFT, FxWinning, de Rocha, Cardenas, and Brito Cutie)</t>
+          <t>Count IV: Violations of Section 20(a) against Individual Defendants as Control Persons of Cruise</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2335,125 +2333,41 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Florida's securities laws parallel federal securities laws and prohibit employing devices to defraud, making untrue statements of material fact, and engaging in fraudulent practices in connection with the offer or sale of securities. The complaint alleges the same fraudulent conduct that supports the federal securities claims - false statements about regulation, audits, insurance, fund segregation, and trading returns. Section 517.211 provides a private right of action against sellers and their directors, officers, partners, or agents who personally participated in the sale. The complaint identifies each defendant's role: CFT and FxWinning as the selling entities, de Rocha as CFT's CEO who personally made representations at events and Zoom sessions, Brito Cutie as FxWinning's CEO who communicated with plaintiffs about withdrawals, and Cardenas as FxWinning's VP who attended marketing events. The complaint adequately alleges personal participation by each individual defendant. The motion to dismiss this claim is denied.</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Breach of Contract (Count V against FxWinning)</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>To state a breach of contract claim, plaintiffs must allege: (1) a valid contract; (2) a material breach; and (3) damages. The complaint adequately alleges each element. Valid Contract: Plaintiffs allege they agreed to FxWinning's terms and conditions when opening their accounts, which constitutes a valid contract. The terms and conditions are specifically referenced, including Section 3.4 which provides that clients 'at all times' have the right to withdraw the balance of their accounts upon request, with no restrictions stated. Material Breach: Plaintiffs allege FxWinning materially breached by refusing to process withdrawal requests since January 2023, despite plaintiffs' numerous requests and despite FxWinning's own representations that withdrawals would be processed within 15 working days after KYC completion. Damages: Plaintiffs allege damages exceeding $27 million representing the account balances they cannot access. The motion to dismiss this claim is denied.</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>Breach of Fiduciary Duty (Count VI against all Defendants)</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>dismissed</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>To state a breach of fiduciary duty claim, plaintiffs must first establish that a fiduciary relationship existed. Under Florida law, a fiduciary relationship does not arise from an ordinary arm's-length business transaction. The complaint alleges plaintiffs 'entrusted' defendants with their funds, but mere entrustment of money does not automatically create a fiduciary relationship. The relationship described - customers opening trading accounts with a broker and trading platform - is fundamentally a contractual, arm's-length commercial relationship. While CFT held a limited power of attorney to execute trades, this alone does not establish the type of fiduciary relationship that would support this claim. The complaint does not allege facts showing defendants undertook to act primarily for plaintiffs' benefit or that a relationship of trust and confidence existed beyond the ordinary broker-customer relationship. The limited power of attorney was for a specific, limited purpose (executing trades) and does not transform the entire relationship into a fiduciary one. The motion to dismiss this claim is granted.</t>
-        </is>
-      </c>
+          <t>The complaint adequately alleges that Barra, Jacobson, Vogt, Ammann, Parks, and West were control persons of Cruise. Vogt served as CEO and CTO; West as COO; Ammann as former CEO; Barra as Chair of Cruise's Board; and the GM executives exercised control through GM's approximately 80% ownership stake. The complaint details their direct involvement in Cruise's operations, access to safety data and risk registers, participation in board meetings and presentations, and their roles in making or authorizing the alleged misstatements. The Quinn Report specifically documents Vogt's personal authorization of all media communications regarding the October 2 crash. A primary violation by Cruise is adequately alleged, and plaintiffs have shown these defendants' culpable participation in the fraud through their knowledge of and involvement in the alleged scheme.</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
-        <v>18247</v>
+        <v>72044</v>
       </c>
       <c r="X19" t="n">
-        <v>3805</v>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>Fraud in the Inducement (Count VII against CFT, FxWinning, de Rocha, Cardenas, and Brito Cutie)</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>Under Florida law and Rule 9(b), fraud claims must be pled with particularity - who made the statement, when, where, and how it was misleading. The complaint satisfies this standard. It identifies specific false representations: that CFT and FxWinning operated successful trading platforms, that FxWinning was regulated under stringent forex regulations, that a KPMG audit verified trades, that Client Money Insurance was purchased, that funds were segregated, and that the platform generated high returns. The complaint specifies who made these representations (de Rocha through Telegram and Zoom sessions, Cardenas at yacht party and events, Brito Cutie in communications about withdrawals, company websites). It alleges when (specific dates for Telegram posts, January 2022 yacht party, December 2022 Bahamas summit). It explains how the statements were false (no actual trading occurred, audit was fake, no insurance existed). The complaint alleges defendants knew the statements were false and intended to deceive plaintiffs to induce investments. Plaintiffs allege reasonable reliance and resulting damages. The motion to dismiss this claim is denied.</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>Negligent Misrepresentation (Count VIII against CFT, FxWinning, de Rocha, Cardenas, and Brito Cutie)</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>To state a negligent misrepresentation claim under Florida law, plaintiffs must allege: (1) defendant made a misrepresentation of material fact; (2) defendant knew or should have known the statement was false; (3) defendant intended to induce reliance; (4) plaintiff justifiably relied on the misrepresentation; and (5) plaintiff suffered damages as a result. The complaint adequately alleges each element. Defendants made specific representations about their trading platform, returns, regulatory compliance, audits, and insurance. Defendants either knew these were false or failed to exercise reasonable care in verifying them before communicating them to plaintiffs. The representations were made in marketing materials, websites, and events specifically designed to induce investment. Plaintiffs relied on these representations in deciding to invest. Plaintiffs suffered damages when they could not withdraw their funds. Even if the fraud claim were to fail for lack of scienter, the negligent misrepresentation claim provides an alternative theory. The motion to dismiss this claim is denied.</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>Conversion (Count IX against all Defendants)</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="AG19" t="inlineStr">
-        <is>
-          <t>Under Florida law, conversion requires: (1) an act of dominion wrongfully asserted over another's property; (2) inconsistent with the owner's rights therein. The complaint adequately alleges both elements. Plaintiffs allege they deposited funds into their accounts with the contractual right to withdraw those funds at any time upon request. Despite this right, defendants have refused all withdrawal requests since January 2023 and have allegedly used the funds for their own benefit (including real estate purchases by individual defendants). This constitutes an exercise of dominion over plaintiffs' funds inconsistent with plaintiffs' ownership rights. The complaint identifies the specific account balances for each plaintiff totaling over $27 million. While defendants may argue the funds were commingled or used in trading, the complaint alleges no actual trading occurred and funds were simply converted. The motion to dismiss this claim is denied.</t>
-        </is>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>Unjust Enrichment (Count X against all Defendants)</t>
-        </is>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>dismissed_in_part</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>Unjust enrichment requires: (1) plaintiff conferred a benefit on defendant; (2) defendant had knowledge of the benefit; (3) defendant accepted or retained the benefit; and (4) it would be inequitable for defendant to retain the benefit without paying for it. Under Florida law, unjust enrichment is generally unavailable where an express contract governs the relationship. As to FxWinning, the breach of contract claim (Count V) is based on the terms and conditions governing the accounts, which would preclude an unjust enrichment claim covering the same subject matter. The motion is granted as to FxWinning. However, as to the individual defendants and CFT (which is not a party to the FxWinning terms and conditions), the unjust enrichment claim may proceed. The complaint alleges these defendants received benefits (commissions, management fees, and allegedly misappropriated funds) from plaintiffs' investments, and it would be inequitable for them to retain these benefits. The motion is denied as to CFT, de Rocha, Percy, Brito Cutie, Cardenas, and Merino.</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Civil Conspiracy (Count XI against all Defendants)</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>Under Florida law, civil conspiracy requires: (1) an agreement between two or more parties; (2) to do an unlawful act or a lawful act by unlawful means; (3) an overt act in furtherance of the conspiracy; and (4) damages. The complaint adequately alleges each element. Agreement: The complaint alleges CFT and FxWinning operated in concert, with CFT requiring investors to open FxWinning accounts to access CFT's platform, joint marketing events, and coordinated communications. The individual defendants allegedly worked together to operate this scheme. Unlawful Acts: The underlying torts (fraud, conversion, securities violations) constitute the unlawful objectives. Overt Acts: The complaint details specific acts by each defendant - Merino creating the purported software and founding FxWinning; de Rocha founding CFT, hosting Zoom sessions, and attending marketing events; Percy overseeing CFT operations and receiving commissions; Brito Cutie managing FxWinning and making false statements about withdrawals; Cardenas attending events and making representations to investors. Damages: Plaintiffs allege over $27 million in damages. The complaint provides sufficient factual detail about each defendant's role in the alleged conspiracy. The motion to dismiss this claim is denied.</t>
-        </is>
-      </c>
+        <v>1484</v>
+      </c>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ilnd-1_20_cv_05593</t>
+          <t>nysd_20_cv_04494</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2466,14 +2380,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>This securities class action is brought by Lead Plaintiffs Sudhakara R. Murikinati, Jerry Nixon, Benjamin Sandmann, and Jeff S. Turnipseed on behalf of all purchasers of GoHealth, Inc. Class A common stock in or traceable to the company's July 2020 IPO. GoHealth operates a health insurance marketplace that helps consumers sign up for health insurance, primarily focusing on Medicare Advantage plans. The defendants include GoHealth, Individual Defendants (CEO Clinton P. Jones, Chief Strategy Officer Brandon M. Cruz, and CFO Travis J. Matthiesen), NVX Holdings (controlled by the founders), Centerbridge Partners (private equity firm that acquired control in 2019), and Underwriter Defendants (Goldman Sachs, BofA Securities, and Morgan Stanley). The IPO was priced at $21.00 per share on July 14, 2020, generating over $913.5 million in gross proceeds.
-The plaintiffs allege that the Registration Statement contained material misrepresentations and omissions regarding GoHealth's business strategy and financial prospects. Specifically, they claim that: (1) GoHealth's impressive pre-IPO growth was achieved through an unsustainable concentration on just two insurance carriers (Humana and Anthem, accounting for 74% of revenues in Q1 2020); (2) GoHealth had maximized growth potential with these carriers and needed to rapidly expand to new carriers; (3) the company planned 2020 as an 'investment year' involving significant carrier expansion that would negatively impact its critical LTV/CAC (Lifetime Value of Commissions per Consumer Acquisition Cost) metric; (4) new carrier relationships resulted in reduced commission rates, decreased marketing support, increased costs, and higher customer churn; and (5) increased reliance on Special Needs Plans (SNPs) generated non-commissionable revenue that dragged down LTV. These facts were allegedly known to defendants but not disclosed until post-IPO earnings calls and conferences, causing the stock to decline over 50% from the IPO price by December 2020.
-The complaint asserts violations of Section 11 of the Securities Act (strict liability for material misstatements/omissions in the Registration Statement) and Section 15 of the Securities Act (control person liability). The plaintiffs allege violations of SEC Regulation S-K Items 303 and 105, and Staff Accounting Bulletin No. 104 for failing to disclose known trends, uncertainties, and risk factors.</t>
+          <t>This securities class action is brought by Lead Plaintiffs Handelsbanken Fonder AB, Public Employees' Retirement System of Mississippi, State of Rhode Island Office of the General Treasurer on behalf of the Employees' Retirement System of Rhode Island, and Louisiana Sheriffs' Pension &amp; Relief Fund against Wells Fargo &amp; Company and individual defendants Timothy J. Sloan (former CEO), John R. Shrewsberry (former CFO), Charles W. Scharf (current CEO), C. Allen Parker (former interim CEO and General Counsel), and Elizabeth 'Betsy' Duke (former Board Chairwoman). The class period runs from February 2, 2018 to March 12, 2020. The complaint alleges that defendants made materially false and misleading statements regarding Wells Fargo's compliance with 2018 Consent Orders imposed by the Federal Reserve, OCC, and CFPB following widespread consumer abuses including secretly opening unauthorized accounts. The Federal Reserve imposed an unprecedented 'asset cap' restricting Wells Fargo's growth until it satisfied the consent orders through a three-stage process: (1) submitting approved plans, (2) implementing those plans, and (3) third-party validation. Plaintiffs allege defendants repeatedly told investors the Bank had 'plans in place' and was 'executing' those plans, when in reality the Regulators had rejected the Bank's Stage 1 Plan submissions multiple times as 'materially incomplete,' lacking 'substance and detail,' and merely being 'plans for plans.' The complaint details numerous rejection letters from regulators, internal admissions by directors that they 'totally biffed it,' and evidence that Defendant Sloan personally instructed colleagues to remove disclosure that 'substantial' work remained. The House Financial Services Committee conducted an investigation and issued reports finding defendants made 'inaccurate and misleading' statements. Chairwoman Waters referred Defendant Sloan to the DOJ for potential criminal charges. As the truth emerged through partial disclosures in January 2019, April 2019, January 2020, and March 2020, Wells Fargo's stock price declined significantly, with investors losing over $54 billion in market capitalization. The complaint asserts claims under Section 10(b) and Rule 10b-5 of the Exchange Act against Wells Fargo, Sloan, Parker, Duke, and Shrewsberry, and Section 20(a) control person liability against all individual defendants.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Section 11 of the Securities Act (15 U.S.C. §77k)</t>
+          <t>Section 10(b) of the Exchange Act and SEC Rule 10b-5 (Count I) against Wells Fargo, Sloan, Parker, Duke, and Shrewsberry</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2483,17 +2395,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>The Court denies the motion to dismiss as to the Section 11 claim. Under Section 11, plaintiffs must allege that the registration statement contained an untrue statement of material fact or omitted to state a material fact required to be stated therein or necessary to make the statements therein not misleading. Unlike Section 10(b) claims, Section 11 does not require scienter; it imposes essentially strict liability on issuers.
-The plaintiffs have adequately alleged material misstatements and omissions. First, the complaint plausibly alleges that the Registration Statement's forward-looking statements about GoHealth's ability to 'rapidly scale while improving' LTV/CAC and its emphasis on 'deep, tenured, and expanding' carrier relationships were materially misleading because they failed to disclose that: (1) the company's recent growth was predicated on unsustainable concentration with two carriers; (2) expansion to new carriers was already planned and underway, which would cause near-term LTV compression; and (3) 2020 was planned as an 'investment year' with anticipated negative financial impacts.
-Second, the complaint adequately alleges Item 303 violations. Item 303 requires disclosure of known trends, events, or uncertainties that are reasonably likely to have a material effect on financial condition or results of operations. The plaintiffs have sufficiently alleged that defendants knew of the planned carrier expansion strategy and its expected negative impact on LTV/CAC but failed to disclose these known trends. The post-IPO statements by CEO Jones explicitly confirming that 2020 was 'anticipated to be an investment year' and that the company 'modeled out' the expected LTV compression support the inference that these trends were known at the time of the IPO.
-Third, the risk factor disclosures are alleged to be inadequate under Item 105 because they presented generic, hypothetical risks without disclosing that the specific risks (reduced commissions from new carriers, LTV compression, increased churn) were already materializing. Courts have held that risk disclosures framed as hypothetical possibilities are misleading when the risks have already come to fruition.
-The Underwriter Defendants are also subject to Section 11 liability as underwriters who participated in the offering. They had a duty to conduct reasonable due diligence, and the complaint adequately alleges they failed to do so.
-The defendants' likely argument that the Registration Statement contained adequate risk disclosures and cautionary language does not warrant dismissal at this stage. The bespeaks caution doctrine does not protect statements that are misleading when made, and the complaint alleges the disclosures were affirmatively misleading rather than merely incomplete.</t>
+          <t>The complaint adequately pleads material misrepresentations and omissions regarding Wells Fargo's compliance with the 2018 Consent Orders. Defendants repeatedly stated they had 'plans in place' and were 'executing' those plans when the Regulators had actually rejected the Bank's Stage 1 Plan submissions as 'materially incomplete.' The complaint pleads scienter with particularity through: (1) written rejection letters addressed to individual defendants; (2) internal emails showing directors knew the submissions were deficient; (3) Defendant Sloan's private apology to the Federal Reserve for mischaracterizations; (4) Sloan's instruction to remove disclosure of 'substantial' work remaining; (5) the House Financial Services Committee's findings of 'inaccurate and misleading' statements; (6) clawback of Sloan's compensation; and (7) forced resignations of Sloan, Duke, and Director Quigley. Loss causation is adequately alleged through a series of corrective disclosures in January 2019, April 2019, January 2020, and March 2020 that revealed the true state of the Bank's non-compliance and caused significant stock price declines.</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Section 15 of the Securities Act (15 U.S.C. §77o)</t>
+          <t>Section 20(a) of the Exchange Act (Count II) against Insider Defendants Sloan, Shrewsberry, Scharf, Parker, and Duke</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2503,11 +2410,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>The Court denies the motion to dismiss as to the Section 15 control person liability claim. Section 15 imposes joint and several liability on every person who controls any person liable under Section 11. To establish a prima facie case under Section 15, plaintiffs must allege: (1) a primary violation of Section 11; and (2) that the defendant exercised actual power or control over the primary violator.
-As discussed above, the plaintiffs have adequately alleged a primary violation of Section 11 by GoHealth. The complaint also adequately alleges control person status for each Section 15 Defendant.
-Regarding the Individual Defendants (Jones, Cruz, and Matthiesen), the complaint alleges they were officers and directors who signed the Registration Statement, participated in preparing it, and had the power to control the contents of GoHealth's public disclosures. Jones served as CEO and Co-Chair of the Board, Cruz served as Chief Strategy Officer and Co-Chair of the Board, and Matthiesen served as CFO. These positions, combined with their direct involvement in the IPO process, adequately allege control.
-Regarding NVX Holdings and Centerbridge, the complaint alleges they collectively controlled approximately 71% of the voting power of GoHealth stock after the IPO, exercised significant control over business affairs and policies, and had the ability to appoint the majority of directors. The Registration Statement itself acknowledged that GoHealth was a 'controlled company' under Nasdaq rules because NVX Holdings and Centerbridge had more than 50% of the voting power for director elections. The complaint quotes the Registration Statement's own language stating that 'the Founders and Centerbridge will continue to exercise significant influence over all matters requiring stockholder approval' and 'will continue to have significant control over our business, affairs and policies.'
-At this stage, the plaintiffs need only allege facts supporting a reasonable inference of control, which they have done. The defendants' arguments regarding the specific exercise of control are more appropriately addressed at summary judgment after discovery.</t>
+          <t>The complaint adequately alleges that the Insider Defendants were controlling persons of Wells Fargo. Each defendant held high-level positions (CEO, CFO, interim CEO, Board Chairwoman) with direct involvement in day-to-day operations and the Bank's compliance with the 2018 Consent Orders. The complaint alleges they had the power to control the content of public statements, had access to non-public information about the Regulators' rejections, and participated in the preparation and dissemination of the false statements. Defendant Duke was specifically identified as a primary point of contact for Regulators and sat on the Risk Committee. Defendant Sloan personally reviewed and revised statements, including instructing removal of material disclosures. The underlying Section 10(b) violation is adequately pleaded, and the complaint sufficiently alleges culpable participation by the control persons in the primary violation.</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -2523,10 +2426,10 @@
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>27874</v>
+        <v>57511</v>
       </c>
       <c r="X20" t="n">
-        <v>1697</v>
+        <v>1133</v>
       </c>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
@@ -2547,7 +2450,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>nysd_1_21-cv-11222</t>
+          <t>nysd_22-cv-07111</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2560,12 +2463,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>This complaint is brought by DarkPulse, Inc., a Delaware corporation trading on the OTC market, against FirstFire Global Opportunities Fund, LLC and its managing member Eli Fireman. DarkPulse alleges that FirstFire operates as an unregistered securities dealer engaged in 'toxic' or 'death spiral' lending to small publicly traded companies. The alleged fraudulent conduct centers on two convertible promissory notes: (1) a September 2018 Note where FirstFire paid $225,000 for a $247,500 note with 8% interest and a 30% conversion discount, and (2) an April 2021 Note where FirstFire paid $750,000 for an $825,000 note with 10% interest, a fixed conversion price, and 60,000,000 'commitment shares.' DarkPulse alleges that FirstFire extracted over $38 million in company stock through these transactions by converting debt to shares at substantial discounts and immediately selling them into the public market. Key factual allegations include: FirstFire has engaged in over 200 similar transactions with at least 89 microcap companies since 2015; FirstFire is not registered as a securities dealer with the SEC; the interest rates charged (estimated at 291.52% APR for the April 2021 Note and 61% for the September 2018 Note) exceed New York's criminal usury cap of 25%; and Fireman personally negotiated and controlled all transactions. The legal claims asserted are: (1) rescission under Section 29(b) of the Securities Exchange Act for violating Section 15(a) by making transactions as an unregistered dealer; (2) rescission under Section 29(b) for violating Section 15(a) through performance of the agreements as an unregistered dealer; (3) control person liability under Section 20(a) against Fireman; (4) RICO violations under 18 U.S.C. § 1962(c) for collection of unlawful debt; (5) unjust enrichment; and (6) constructive trust. The class period is not specified as this appears to be a direct action rather than a class action, with the relevant transactions occurring between September 2018 and November 2021.</t>
+          <t>This securities class action is brought by Lead Plaintiffs RTD Bros LLC, Todd Benn, Tom Benn, and Tomasz Rzedzian, along with Additional Plaintiff Preston Million, against Lottery.com, Inc. (formerly Trident Acquisitions Corp. or TDAC), and various individual defendants including former executives of both Lottery and TDAC. The Class Period runs from November 19, 2020 through July 29, 2022. TDAC was a SPAC originally formed to acquire an energy/oil sector company in Eastern Europe, but after failing to find a suitable target and facing shareholder redemptions that reduced available funds from over $205 million to less than $70 million, TDAC rushed to complete a business combination with Lottery.com, an online lottery platform company. Plaintiffs allege defendants made materially false and misleading statements regarding: (1) Lottery's regulatory compliance with state and federal lottery laws; (2) the Company's revenue figures, including a fabricated $30 million sale of affiliate marketing credits that was improperly recognized as revenue; (3) the Company's cash position, which was overstated by approximately $30 million; and (4) the adequacy of the Company's internal controls over financial reporting. The fraud was revealed through a series of disclosures beginning July 6, 2022, when the Company announced an internal investigation had uncovered instances of non-compliance with state and federal laws and issues with internal accounting controls. Subsequent disclosures revealed the $30 million revenue and cash overstatement, that previously issued financial statements should not be relied upon, and that the Company faced going concern issues. The Company's CEO, CFO, and CRO were all terminated or resigned, and the Company's auditor resigned citing inability to rely on management representations. The stock price declined significantly following each corrective disclosure.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Count I - Rescission under Section 29(b) for Violation of Section 15(a) (Making Transactions as Unregistered Dealer)</t>
+          <t>Violation of Section 10(b) of the Exchange Act and Rule 10b-5 (First Claim - Against All Defendants)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2575,12 +2478,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>The complaint adequately states a claim for rescission under Section 29(b) of the Securities Exchange Act. Section 29(b) provides that contracts made in violation of the Act shall be void. Section 15(a) requires dealers to register with the SEC before effecting securities transactions using interstate commerce. The complaint alleges: (1) FirstFire is a 'dealer' under Section 3(a)(5) because it regularly buys securities from issuers at a discount and sells them for its own account as part of its regular business, having conducted over 200 such transactions with 89+ companies since 2015; (2) FirstFire is not registered as a securities dealer; (3) FirstFire used interstate commerce (internet, wire transfers, email, telephone) to effect the DarkPulse Transactions; and (4) DarkPulse is in privity with FirstFire and within the class of persons the registration requirement protects. Recent SEC enforcement actions and court decisions (SEC v. Almagarby, SEC v. Keener, Edgepoint Capital Holdings v. Apothecare Pharmacy) support that entities using this convertible note business model may be required to register as dealers. The allegations, taken as true, sufficiently plead that FirstFire operates as an unregistered dealer and that the contracts were therefore made in violation of Section 15(a), entitling DarkPulse to seek rescission under Section 29(b).</t>
+          <t>Plaintiffs have adequately pleaded a Section 10(b) claim. The complaint identifies specific false statements regarding regulatory compliance, revenue recognition, and cash balances made in SEC filings, press releases, and the Proxy Statement. The complaint adequately alleges materiality, as the $30 million overstatement represented nearly half of the Company's reported revenue. Scienter is sufficiently pleaded through: (1) the core operations doctrine, as regulatory compliance and revenue recognition are fundamental to Lottery's business; (2) the magnitude of the misstatements involving a single customer representing 87.7% of revenue; (3) the Individual TDAC Defendants' strong financial incentives to complete the Business Combination; (4) the termination and resignation of senior executives immediately following the internal investigation; (5) the auditor's resignation citing inability to rely on management; and (6) the Company's prior acknowledgment of material weaknesses while simultaneously failing to detect massive accounting irregularities. Loss causation is adequately pleaded through the series of corrective disclosures and corresponding stock price declines.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Count II - Rescission under Section 29(b) for Violation of Section 15(a) (Performance as Unregistered Dealer)</t>
+          <t>Violation of Section 20(a) of the Exchange Act (Second Claim - Against Individual Defendants)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2590,12 +2493,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Section 29(b) also voids contracts whose performance involves violations of the Act. The complaint adequately alleges that FirstFire's performance of the agreements—specifically the 18 conversions of debt into stock under the September 2018 Note and the conversion under the April 2021 Note, followed by immediate sales into the public market—constituted securities transactions effected by an unregistered dealer in violation of Section 15(a). The complaint details each conversion, the shares obtained, and alleges that FirstFire used interstate commerce instrumentalities to effect these performance transactions. The distinction between 'making' and 'performing' contracts in violation of the Act is recognized under Section 29(b), and DarkPulse has adequately pled both theories. The motion to dismiss this claim is denied.</t>
+          <t>Plaintiffs have adequately pleaded control person liability under Section 20(a). The Individual Defendants held high-level positions as officers and directors of Lottery and TDAC, giving them the power to influence and control the Company's operations and public statements. The complaint alleges they had access to and approved the false statements, and were in positions to prevent their issuance or cause corrections. Since the underlying Section 10(b) violation is adequately pleaded, and Plaintiffs have sufficiently alleged that the Individual Defendants were controlling persons who participated in the alleged violations, the Section 20(a) claim survives.</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Count III - Control Person Liability under Section 20(a) against Fireman</t>
+          <t>Violation of Section 14(a) of the Exchange Act and Rule 14a-9 (Third Claim - Against All Defendants)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2605,59 +2508,35 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act imposes joint and several liability on persons who control entities that violate the Act. To state a claim, plaintiff must allege: (1) a primary violation by the controlled entity, and (2) that the defendant was a controlling person who had the power to control the specific transaction or activity upon which the primary violation is predicated. The complaint alleges that Fireman is the managing member of FirstFire Capital Management, LLC, which manages FirstFire; that Fireman personally negotiated the terms of the convertible notes, signed the contracts, and possessed ultimate decision-making authority over FirstFire's securities transactions including the DarkPulse Transactions. The complaint further alleges Fireman did not act in good faith and directly induced the violative conduct. These allegations are sufficient to state a control person claim. Because the underlying Section 15(a) violations survive dismissal, and the complaint adequately alleges Fireman's control over FirstFire and the relevant transactions, the Section 20(a) claim survives the motion to dismiss.</t>
+          <t>Plaintiffs have adequately pleaded a Section 14(a) claim based on the October 18, 2021 Proxy Statement soliciting shareholder approval of the Business Combination. The Proxy Statement contained materially false and misleading statements regarding Lottery's regulatory compliance, financial projections (including the $71 million revenue projection), and internal controls. Unlike Section 10(b), Section 14(a) does not require scienter; negligence is sufficient. The complaint adequately alleges that defendants negligently failed to disclose known adverse trends and material facts required under Item 303. Plaintiffs who held TDAC stock as of October 28, 2021 and were eligible to vote have standing, and they have alleged they were denied the opportunity to make an informed decision and would have voted against the Business Combination or exercised redemption rights had the true facts been known.</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Count IV - RICO Violation under 18 U.S.C. § 1962(c) (Collection of Unlawful Debt)</t>
+          <t>Violation of Section 20(a) of the Exchange Act (Fourth Claim - Control Person Liability for Section 14(a) Violation - Against Individual Defendants)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>dismissed</t>
+          <t>sustained</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>To state a civil RICO claim under Section 1962(c), plaintiff must allege: (1) conduct (2) of an enterprise (3) through a pattern of racketeering activity or collection of unlawful debt. 'Unlawful debt' under 18 U.S.C. § 1961(6) means debt incurred in connection with the business of lending money at a usurious rate, where the usurious rate is at least twice the enforceable rate under state law. While the complaint alleges the interest rates exceed New York's 25% criminal usury cap, several problems exist. First, the complaint's characterization of the transactions as 'loans' is contested—convertible notes with equity conversion features may not constitute 'loans' for usury purposes under all circumstances. Second, and more critically, the complaint fails to adequately allege that FirstFire is 'in the business of lending money' at usurious rates as required by RICO's unlawful debt provision. The complaint focuses on FirstFire's securities dealing activities rather than establishing it operates a lending business. Third, the RICO claim appears to be an attempt to federalize what is essentially a state law usury dispute. The complaint does not adequately allege the enterprise structure or Fireman's distinct role from the enterprise as required under Section 1962(c). The RICO claim is dismissed without prejudice to replead with more specific allegations regarding the unlawful debt elements.</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Count V - Unjust Enrichment</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>dismissed_in_part</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Unjust enrichment under New York law requires: (1) defendant was enriched; (2) at plaintiff's expense; and (3) it would be inequitable to permit defendant to retain the benefit. The complaint adequately alleges that FirstFire received substantial benefits (stock worth approximately $38 million) from DarkPulse through the challenged transactions. However, unjust enrichment is a quasi-contractual claim that generally cannot be maintained where there is a valid, enforceable contract governing the subject matter. Here, the parties executed detailed written agreements (the Notes and SPAs). If those contracts are valid, unjust enrichment cannot lie. If the contracts are void under Section 29(b) as alleged, then unjust enrichment may be available as an alternative theory. The claim is sustained as an alternative theory to the extent the contracts are found void, but dismissed to the extent plaintiff seeks to recover under unjust enrichment while the contracts remain in force. The claim survives in part as pled in the alternative.</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>Count VI - Constructive Trust</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>dismissed_in_part</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>A constructive trust is an equitable remedy, not an independent cause of action under New York law. It requires: (1) a confidential or fiduciary relationship; (2) a promise, express or implied; (3) a transfer made in reliance on that promise; and (4) unjust enrichment. The complaint does not adequately allege a confidential or fiduciary relationship between DarkPulse and FirstFire—the relationship alleged is that of debtor-creditor or counterparties to a commercial transaction, which does not give rise to fiduciary duties. However, to the extent DarkPulse prevails on its rescission claims and establishes that FirstFire wrongfully obtained and retains DarkPulse stock, a constructive trust may be an appropriate remedy to prevent unjust enrichment. The claim is dismissed as an independent cause of action but the request for constructive trust relief may be considered as a potential remedy if DarkPulse prevails on its substantive claims.</t>
-        </is>
-      </c>
+          <t>Plaintiffs have adequately pleaded control person liability for the Section 14(a) violation. The Individual TDAC Defendants reviewed the Business Combination, approved it, and solicited shareholder approval through the Proxy Statement. The Individual Lottery Defendants reviewed the Business Combination and furnished information for inclusion in the Proxy Statement. Each had access to material information regarding Lottery's operations, financial condition, and the terms of the Business Combination. Since the underlying Section 14(a) violation is adequately pleaded, and the Individual Defendants are alleged to have been culpable participants who failed to make reasonable investigation and lacked reasonable grounds for believing the Proxy Statement was accurate, the control person claim under Section 20(a) survives.</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
       <c r="W21" t="n">
-        <v>12584</v>
+        <v>29832</v>
       </c>
       <c r="X21" t="n">
-        <v>2259</v>
+        <v>1322</v>
       </c>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
@@ -2678,7 +2557,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>nysd_20_cv_04494</t>
+          <t>nysd_22_cv_10292</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2691,16 +2570,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>This securities class action is brought by Lead Plaintiffs Handelsbanken Fonder AB, Public Employees' Retirement System of Mississippi, State of Rhode Island Office of the General Treasurer on behalf of the Employees' Retirement System of Rhode Island, and Louisiana Sheriffs' Pension &amp; Relief Fund against Wells Fargo and several individual defendants including former CEO Timothy J. Sloan, CFO John R. Shrewsberry, current CEO Charles W. Scharf, former interim CEO C. Allen Parker, and former Board Chairwoman Elizabeth 'Betsy' Duke. The class period runs from February 2, 2018 to March 12, 2020.
-The complaint alleges that defendants made materially false and misleading statements regarding Wells Fargo's compliance with 2018 Consent Orders imposed by the Federal Reserve, OCC, and CFPB following the bank's widespread consumer abuse scandals. The 2018 FRB Consent Order imposed an unprecedented asset cap on Wells Fargo, prohibiting growth until the bank satisfied three stages of compliance: (1) submission of approved plans, (2) implementation of those plans, and (3) third-party validation.
-Plaintiffs allege that defendants repeatedly told investors the bank had 'plans in place,' was 'executing' those plans, was 'in compliance' with consent orders, and would have the asset cap lifted by the first half of 2019. However, the complaint details that regulators consistently rejected Wells Fargo's Stage 1 Plan submissions as 'materially incomplete,' lacking 'substance and detail,' containing 'pervasive inaccuracies' and 'illogical timeframes,' and being merely 'a plan for a plan.' The bank received formal rejection letters from the Federal Reserve on May 7, 2018 and March 11, 2019, and from the OCC on July 24, 2018 and November 21, 2018.
-Key factual allegations include: (1) Defendant Sloan personally called the Federal Reserve to apologize for mischaracterizations after his March 2019 congressional testimony; (2) Defendants Sloan and Duke colluded to remove disclosure that there was 'substantial amount of work remaining' from proxy materials; (3) internal emails show directors admitted the bank 'totally biffed it' and that investors would find the failures 'completely unacceptable'; (4) the House Financial Services Committee issued reports finding defendants made 'inaccurate and misleading' statements; (5) Chairwoman Waters referred Sloan to the DOJ for potential criminal charges; and (6) Wells Fargo clawed back $15 million from Sloan's compensation.
-The complaint asserts claims under Section 10(b) and Rule 10b-5 against Wells Fargo, Sloan, Parker, Duke, and Shrewsberry, and Section 20(a) control person liability against all individual defendants. Plaintiffs allege investors lost over $54 billion in market capitalization as the truth was revealed through a series of disclosures throughout 2019 and early 2020.</t>
+          <t>This securities class action is brought by Lead Plaintiff Steven Christiansen on behalf of purchasers of Spectrum Pharmaceuticals, Inc. common stock during the Class Period of March 17, 2022 through September 22, 2022. The defendants are Spectrum Pharmaceuticals, Inc. (a biopharmaceutical company), Thomas J. Riga (President and CEO), Francois J. Lebel (former EVP and CMO), and Nora E. Brennan (EVP and CFO). The complaint alleges violations of Sections 10(b) and 20(a) of the Securities Exchange Act of 1934 and SEC Rule 10b-5. The alleged misconduct centers on poziotinib ('pozi'), a drug candidate for treating non-small cell lung cancer (NSCLC) with HER2 exon 20 insertion mutations. Plaintiff alleges defendants made materially false and misleading statements regarding: (1) dose optimization for pozi, claiming they had 'learned to optimize' the dosage when the FDA had repeatedly told them their dose optimization data was inadequate; (2) the status of the PINNACLE confirmatory study, representing that 'patients are being randomized' when no patients had actually enrolled; (3) alignment with the FDA on the PINNACLE Study design using 8mg BID dosing, when the FDA had not agreed and warned defendants they were proceeding 'at their own risk'; and (4) the prospects for FDA approval. The truth was allegedly revealed on September 20, 2022, when the FDA released its Briefing Document disclosing the FDA's longstanding concerns about inadequate dosing data, efficacy and safety issues, and that no patients had enrolled in PINNACLE. The stock dropped over 37%. On September 22, 2022, at the ODAC meeting, FDA officials publicly stated the dose optimization failure was a 'fatal flaw' and ODAC voted 9-4 against recommending approval, causing further stock decline of 31%. Defendants allegedly sold millions of shares through an ATM agreement during the Class Period while concealing these material facts, motivated by the company's precarious financial condition.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and SEC Rule 10b-5</t>
+          <t>Section 10(b) of the Exchange Act and Rule 10b-5 against all Defendants</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2710,14 +2585,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>The complaint adequately pleads all elements of a Section 10(b) and Rule 10b-5 claim. First, regarding material misrepresentations and omissions, plaintiffs have identified numerous specific statements by defendants claiming the bank had 'plans in place,' was 'executing' those plans, was 'in compliance' with consent orders, and was 'in the midst of implementing' required reforms. These statements are alleged to be false because regulators had repeatedly rejected the bank's Stage 1 Plan submissions and the bank had not progressed beyond Stage 1. The complaint provides extensive detail about the Federal Reserve's May 7, 2018 and March 11, 2019 rejection letters, and the OCC's July 24, 2018 and November 21, 2018 rejection letters, which directly contradict defendants' public statements.
-Second, scienter is adequately alleged through multiple avenues: (1) defendants received formal written rejection letters addressed directly to them; (2) defendants attended in-person meetings where regulators criticized the bank's submissions; (3) Defendant Sloan privately apologized to the Federal Reserve for his mischaracterizations but never corrected his public statements; (4) Defendants Sloan and Duke actively edited proxy disclosures to remove admissions about 'substantial work remaining'; (5) internal emails show directors knew the submissions were deficient; (6) the House Financial Services Committee found defendants' statements 'inaccurate and misleading'; (7) Sloan was forced to resign shortly after his false congressional testimony; (8) Duke and Quigley resigned before congressional testimony; and (9) Wells Fargo clawed back $15 million from Sloan's compensation citing his 'role and responsibility' for lack of progress on regulatory matters. These allegations collectively give rise to a strong inference of scienter under the PSLRA.
-Third, reliance is presumed under both the fraud-on-the-market doctrine (Wells Fargo stock traded on the NYSE in an efficient market) and Affiliated Ute (claims involve material omissions). Fourth, loss causation is adequately alleged through a series of partial disclosures: the January 15, 2019 announcement extending the asset cap timeline, the April 12, 2019 announcement refusing to provide guidance on lifting the asset cap, the January 14, 2020 admission of 'great deal' of remaining work, and the March 2020 House Reports and congressional hearings. Each disclosure was followed by statistically significant stock price declines, with plaintiffs alleging over $54 billion in lost market capitalization. The complaint adequately connects the stock drops to the revelation of previously concealed information about the bank's regulatory non-compliance.</t>
+          <t>The complaint adequately pleads the elements of a Section 10(b) and Rule 10b-5 claim. First, the complaint identifies specific false statements with particularity as required by the PSLRA, including: (1) Riga's March 17, 2022 statement that Spectrum had 'learned to optimize' the BID dosage; (2) the May 12, 2022 representations that 'patients are being randomized' in PINNACLE when no patients had enrolled; (3) Riga's statement that Spectrum was 'obviously aligned with FDA' on the 8mg BID confirmatory study design; and (4) Lebel's August 11, 2022 statements evading questions about enrollment while creating false impressions about PINNACLE's status. Second, the complaint adequately pleads scienter through: (a) defendants' contemporaneous knowledge of FDA's repeated warnings about inadequate dose optimization data and concerns about efficacy, safety, and delayed enrollment; (b) the FDA's explicit warning that proceeding with the incongruent dose was 'at their own risk'; (c) motive established by the company's precarious financial condition and need to raise cash through ATM stock sales totaling approximately $9.4 million during the Class Period; and (d) individual defendants Lebel and Brennan's insider stock sales. Third, materiality is established as the concealed information—FDA's fundamental concerns about dose optimization being a 'fatal flaw,' lack of agreement on PINNACLE design, and zero patient enrollment—would have been important to reasonable investors evaluating pozi's approval prospects. Fourth, loss causation is adequately pled through the stock price declines of 37% on September 20, 2022 when the FDA Briefing Document revealed the truth, and an additional 31% decline on September 23, 2022 following the negative ODAC vote and disclosure of FDA's prior warnings to defendants.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act - Control Person Liability</t>
+          <t>Section 20(a) of the Exchange Act against Individual Defendants (Riga, Lebel, and Brennan)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2727,9 +2600,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Section 20(a) imposes liability on persons who control any person liable under the Exchange Act. The complaint adequately alleges a primary violation of Section 10(b) by Wells Fargo, as discussed above. The complaint also adequately alleges that each individual defendant was a controlling person of Wells Fargo.
-Defendant Sloan served as CEO and President, was a member of the Board and Operating Committee, signed the 2018 FRB Consent Order, received rejection letters addressed to him personally, interacted directly with regulators, and made numerous false statements. Defendant Shrewsberry served as CFO, was on the Operating Committee, regularly spoke to investors about consent order compliance, and made multiple false statements. Defendant Parker served as General Counsel and then interim CEO, was on the Operating Committee, and made false statements about the bank being 'way down the road' in compliance. Defendant Duke served as Board Chairwoman, sat on the Risk Committee, was a primary point of contact for regulators, received rejection letters, participated in editing proxy disclosures to remove adverse information, and made false statements about being 'pretty well along' in compliance work. Defendant Scharf, as current CEO and Board member, had access to information about the bank's true regulatory status and made or authorized statements during his tenure.
-Each individual defendant had the power to control the content of public disclosures, had direct involvement in the bank's regulatory compliance efforts, and possessed material non-public information about the rejections. The complaint alleges they were culpable participants who either made false statements themselves or controlled the dissemination of false information. The allegations are sufficient to establish control person liability under Section 20(a), as plaintiffs have alleged both a primary violation and that each defendant had the ability to control the company's conduct and statements.</t>
+          <t>The complaint adequately pleads control person liability under Section 20(a). First, the predicate Section 10(b) violation is adequately alleged as discussed above. Second, the complaint sufficiently alleges that each Individual Defendant was a controlling person of Spectrum: Riga served as President, CEO, and board member with authority over public statements and SEC filings; Lebel served as EVP and CMO with direct responsibility for FDA interactions and communications about pozi's development; and Brennan served as EVP and CFO with responsibility for financial disclosures and signing SEC filings. The complaint alleges these defendants possessed the power and authority to control the contents of the Company's reports to the SEC, press releases, and representations to investors, and were provided with copies of reports and press releases prior to issuance with the ability to prevent their issuance or cause corrections. The Individual Defendants participated directly in the alleged fraud by making the false statements on conference calls and in press releases, and by causing the filing of misleading SEC documents.</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -2745,10 +2616,10 @@
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>57791</v>
+        <v>26572</v>
       </c>
       <c r="X22" t="n">
-        <v>1823</v>
+        <v>1267</v>
       </c>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
@@ -2769,7 +2640,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>nysd_22_cv_10292</t>
+          <t>nysd_23_cv_9476</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2782,16 +2653,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>This securities class action was brought by Lead Plaintiff Steven Christiansen on behalf of purchasers of Spectrum Pharmaceuticals, Inc. common stock during the Class Period of March 17, 2022 through September 22, 2022. The defendants are Spectrum Pharmaceuticals and three individual defendants: Thomas J. Riga (President and CEO), Francois J. Lebel (former EVP and CMO), and Nora E. Brennan (EVP and CFO).
-The complaint alleges that defendants made materially false and misleading statements regarding the development of poziotinib (pozi), an experimental drug for treating non-small cell lung cancer (NSCLC) with HER2 exon 20 insertion mutations. Spectrum sought FDA Accelerated Approval for pozi based on Phase 2 study results and was required to conduct a confirmatory Phase 3 trial called the PINNACLE Study.
-The key allegations include: (1) Defendants falsely represented that Spectrum had learned to 'optimize' the dosage for pozi when the FDA had repeatedly told them their dose optimization data was inadequate; (2) Defendants falsely stated that patients were 'being randomized' into the PINNACLE Study when no patients had actually enrolled; (3) Defendants falsely claimed they were 'aligned with FDA' on the PINNACLE Study design when the FDA had warned them they were proceeding 'at their own risk' due to inadequate dosing data; and (4) Defendants failed to disclose the FDA's serious concerns about pozi's efficacy, safety profile, and the delayed enrollment in the confirmatory trial.
-The truth was revealed on September 20, 2022 when the FDA released its Briefing Document ahead of an ODAC meeting, disclosing the FDA's longstanding concerns and that no patients had enrolled in PINNACLE. The stock dropped over 37%. On September 22, 2022, ODAC voted 9-4 against recommending approval, causing further stock decline of 31%. The FDA ultimately issued a Complete Response Letter rejecting the application in November 2022.
-The complaint alleges defendants were motivated by Spectrum's precarious financial condition, as the company was on track to run out of cash by end of 2022. During the Class Period, defendants caused Spectrum to sell over 10 million shares for approximately $9.4 million through an ATM agreement, and individual defendants Lebel and Brennan sold personal shares at artificially inflated prices.</t>
+          <t>This securities class action is brought by Lead Plaintiff Genesee County Employees' Retirement System, a Michigan public pension fund, against DocGo Inc. (a Delaware corporation providing medical transportation and mobile health services), and individual defendants Stan Vashovsky (Chairman and former CEO), Anthony Capone (former President and CEO), and Andre Oberholzer (former CFO). The Class Period runs from the time of the alleged misstatements through September 2023. The complaint alleges three categories of fraud: (1) Capone fabricated his educational credentials, repeatedly claiming to investors and customers that he held a graduate degree in computational learning theory (a subset of AI) from Clarkson University, when he never enrolled in any graduate program; (2) Capone falsely inflated the value of a potential CBP contract, telling investors it was worth 'over $4 billion' when it was actually worth no more than $2 billion; and (3) Capone falsely claimed DocGo had signed up over 3,000 asylum seekers onto New York State Medicaid through UnitedHealthcare when DocGo did not enroll anyone in Medicaid programs and had no contract with UnitedHealthcare in New York. These misrepresentations were material because DocGo marketed itself as a technology company with AI as its largest differentiator, and Capone's purported AI credentials were central to this narrative. The truth emerged through Times Union articles in September 2023, revealing the false educational credentials, inflated contract values, and false Medicaid enrollment claims. DocGo's stock declined over 56% from its Class Period high of $11.41 to $4.88. Plaintiff brings claims under Section 10(b) and Rule 10b-5 of the Securities Exchange Act of 1934 against all defendants, and Section 20(a) control person liability against all defendants.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5</t>
+          <t>Section 10(b) and Rule 10b-5 - Misrepresentations regarding Capone's educational credentials</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2801,17 +2668,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>The complaint adequately pleads all elements of a Section 10(b) and Rule 10b-5 claim with sufficient particularity under the PSLRA.
-**Material Misrepresentations and Omissions:** The complaint identifies specific false statements with particularity, including: (1) Defendant Riga's March 17, 2022 statement that Spectrum had 'learned to optimize' the pozi dosage; (2) Multiple statements in May and August 2022 that 'patients are being randomized' into the PINNACLE Study when no patients had enrolled; (3) Riga's May 12, 2022 statement that Spectrum was 'obviously aligned with FDA' on the confirmatory study design; and (4) Lebel's August 11, 2022 evasive responses about enrollment that created a false impression patients were enrolling. The complaint also adequately alleges material omissions, including failure to disclose the FDA's repeated warnings about inadequate dose optimization data, concerns about efficacy and safety, and that the FDA warned Spectrum was proceeding 'at their own risk.'
-**Scienter:** The complaint adequately pleads scienter through strong circumstantial evidence. The Individual Defendants participated in multiple meetings with the FDA where they were directly informed of the agency's concerns about inadequate dosing data, efficacy, safety, and delayed enrollment. The complaint alleges defendants knew no patients had enrolled in PINNACLE when they stated patients were 'being randomized.' The complaint also alleges motive: Spectrum was running out of cash and sold over $9 million in stock during the Class Period through ATM offerings, while individual defendants sold personal shares. Defendant Lebel's resignation shortly after the fraud was revealed provides additional circumstantial support.
-**Reliance:** Plaintiff adequately invokes the fraud-on-the-market presumption, alleging Spectrum's stock traded on NASDAQ, an efficient market, and the company was followed by multiple analysts and filed regular SEC reports.
-**Loss Causation:** The complaint adequately alleges loss causation by identifying corrective disclosures on September 20, 2022 (FDA Briefing Document) and September 22, 2022 (ODAC meeting), which revealed the previously concealed FDA concerns and lack of PINNACLE enrollment, causing stock drops of 37% and 31% respectively.
-The motion to dismiss Count I is DENIED.</t>
+          <t>The complaint adequately pleads material misrepresentations with scienter. Capone repeatedly and specifically claimed to hold a graduate degree in computational learning theory from Clarkson University at numerous investor conferences and in SEC filings, when he admittedly never enrolled in any graduate program. These statements were made with actual knowledge of their falsity, satisfying the heightened scienter requirement. The misrepresentations were material because DocGo marketed itself as a technology company with AI capabilities as its primary differentiator, and Capone's purported AI credentials were integral to this narrative and were specifically highlighted by securities analysts as supporting the company's competitive advantage. The complaint identifies specific statements, dates, and speakers with sufficient particularity under the PSLRA. Loss causation is adequately pled through the stock price decline following the September 2023 Times Union revelations and Capone's resignation.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act (Control Person Liability)</t>
+          <t>Section 10(b) and Rule 10b-5 - Misrepresentations regarding CBP contract value</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2821,34 +2683,90 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>The complaint adequately pleads a Section 20(a) control person claim against the Individual Defendants.
-**Primary Violation:** As discussed above, the complaint adequately alleges a primary violation of Section 10(b) by Spectrum.
-**Control Person Status:** The complaint alleges that each Individual Defendant was a senior executive of Spectrum during the Class Period: Riga was President and CEO; Lebel was EVP and CMO responsible for interactions with the FDA regarding pozi's development; and Brennan was EVP and CFO. The complaint alleges these defendants had the power to control Spectrum's public statements, participated in earnings calls where false statements were made, signed or certified SEC filings containing misrepresentations, and approved press releases. Riga and Brennan specifically controlled the ATM stock sales through their roles on the Placement Committee.
-**Culpable Participation:** The complaint alleges the Individual Defendants were culpable participants in the fraud. Riga and Lebel personally made the false statements on conference calls and participated in meetings with the FDA where they learned of the agency's concerns. Brennan signed SEC filings containing false statements and controlled stock sales while knowing or recklessly disregarding the true state of affairs.
-The motion to dismiss Count II is DENIED.</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+          <t>The complaint sufficiently alleges that Capone's statement that the CBP contract was worth 'over $4 billion' was materially false when made. The complaint alleges the contract was actually worth no more than $2 billion according to multiple sources familiar with the bidding process and a CBP spokeswoman. As CEO with direct oversight of operations and access to information concerning contract values in DocGo's pipeline, Capone either knew or recklessly disregarded the true value. The statement was material as the purported $4 billion contract would have been nearly ten times DocGo's largest government contract and analysts specifically noted this contract in their coverage. The timing of the statement—made while DocGo was facing intense scrutiny over its HPD contract performance—supports an inference of scienter that Capone was attempting to placate investors with inflated projections. Loss causation is established through the stock decline following the Times Union's September 10, 2023 article revealing the true contract value.</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Section 10(b) and Rule 10b-5 - Misrepresentations regarding Medicaid enrollments through UnitedHealthcare</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>The complaint adequately pleads that Capone's statements about signing up over 3,000 asylum seekers onto New York State Medicaid through UnitedHealthcare were materially false. DocGo's own spokesperson subsequently admitted the company 'does not enroll anyone in Medicaid programs,' and UnitedHealthcare confirmed it had no contract with DocGo in New York. These admissions directly contradict Capone's August 9, 2023 statements. As CEO overseeing company operations, Capone had access to information about the company's actual contracts and enrollment capabilities, supporting a strong inference of scienter. The statements were material because analysts viewed DocGo's ability to grow its payer vertical as important for company stability and future growth, and Capone specifically touted these enrollments as demonstrating 'long term revenue opportunity in our payer vertical.' Loss causation is adequately pled through the September 2023 corrective disclosures.</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Section 20(a) Control Person Liability against Vashovsky</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>The complaint adequately alleges Vashovsky was a controlling person. As co-founder, Chairman of the Board, and former CEO, Vashovsky had the power to influence and control company decision-making. He signed proxy statements containing false information about Capone's credentials and oversaw Capone's hiring and appointment as CEO without verifying his educational background. The complaint alleges he had direct involvement in the preparation of false proxy statements and had the ability to prevent their issuance or cause corrections. Given the adequately pled primary violation under Section 10(b), the control person claim survives at this stage.</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Section 20(a) Control Person Liability against Capone</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>As the primary violator who made the false statements about his credentials, the CBP contract value, and Medicaid enrollments, Capone is clearly liable under Section 10(b). Additionally, as President and then CEO, he exercised control over company operations and public statements. The complaint adequately alleges he controlled the content of company communications and had direct involvement in the misconduct. The control person claim is sustained given the adequately pled underlying violation.</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Section 20(a) Control Person Liability against Oberholzer</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>The complaint alleges Oberholzer, as CFO and later Treasurer and Executive Vice President, signed the Form 8-K announcing Capone's appointment as CEO that contained false information about Capone's educational credentials. He allegedly oversaw the preparation of false proxy statements and had the ability to prevent their issuance. As a senior executive officer, he had access to material nonpublic information and the power to influence company disclosures. Given the adequately pled primary violation, the control person claim against Oberholzer survives the motion to dismiss.</t>
+        </is>
+      </c>
       <c r="W23" t="n">
-        <v>26852</v>
+        <v>17415</v>
       </c>
       <c r="X23" t="n">
-        <v>1483</v>
-      </c>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
+        <v>1832</v>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Section 20(a) Control Person Liability against DocGo</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>dismissed</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>Section 20(a) imposes liability on persons who control the primary violator. A corporation cannot be a controlling person of itself for purposes of Section 20(a). DocGo is alleged to be a primary violator under Section 10(b), not a control person. The Section 20(a) claim against DocGo is therefore dismissed as legally improper, though DocGo remains liable under the Section 10(b) claim.</t>
+        </is>
+      </c>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
@@ -2865,7 +2783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>nysd_23_cv_9476</t>
+          <t>nysd_24_cv_310</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2878,18 +2796,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>This securities class action is brought by Lead Plaintiff Genesee County Employees' Retirement System on behalf of all persons who purchased DocGo Inc. common stock during the Class Period (September 9, 2021 through September 15, 2023). The defendants are DocGo Inc., a healthcare transportation and mobile services company, and three Individual Defendants: Stan Vashovsky (Chairman and former CEO), Anthony Capone (former President and CEO), and Andre Oberholzer (former CFO).
-The complaint alleges three primary categories of fraudulent conduct:
-1. **Fabricated Educational Credentials**: Capone repeatedly and systematically misrepresented his educational background to investors, customers, and the public. He claimed to hold a graduate degree in computational learning theory (a subset of AI) from Clarkson University and triple summa cum laude undergraduate degrees from SUNY Potsdam. In reality, Capone never enrolled in any graduate program at Clarkson University or any other institution. These credentials were material because DocGo marketed itself as a technology company with AI as its largest differentiator, and Capone's purported AI expertise was central to the Company's credibility.
-2. **Inflated CBP Contract Value**: On August 9, 2023, Capone told investors at a Canaccord Genuity Growth Conference that DocGo was pursuing a $4 billion contract with U.S. Customs and Border Protection to provide medical services at the southern border. In fact, the contract was worth no more than $2 billion, and DocGo ultimately failed to win any portion of it.
-3. **False Medicaid Enrollment Claims**: At the same August 2023 conference, Capone falsely stated that DocGo had signed up over 3,000 asylum seekers onto New York State Medicaid through UnitedHealthcare. DocGo later admitted it did not enroll anyone in Medicaid programs and did not even have a contract with UnitedHealthcare in New York.
-The truth emerged through a series of Times Union articles in September 2023, revealing the inaccuracies about the CBP contract value, the false Medicaid claims, and Capone's fabricated credentials. Capone resigned on September 15, 2023. DocGo's stock price declined over 56% from its Class Period high of $11.41 to $4.88.
-The complaint asserts two causes of action: violations of Section 10(b) of the Securities Exchange Act of 1934 and SEC Rule 10b-5 against all defendants, and violations of Section 20(a) of the 1934 Act (control person liability) against all defendants.</t>
+          <t>This securities class action is brought by Lead Plaintiff The Retirement Plan for Chicago Transit Authority Employees and Additional Named Plaintiff Oklahoma Firefighters Pension and Retirement System against Mobileye Global Inc. and its senior executives (CEO Amnon Shashua, CFOs Moran Shemesh Rojansky and Anat Heller, and Chief Communications Officer Daniel Galves). The complaint alleges that from January 26, 2023 through August 1, 2024 (the Class Period), defendants engaged in a channel stuffing scheme whereby Mobileye forced its Tier 1 customers into annual minimum quantity purchase commitments for EyeQ chips that made it 'impossible' for customers to adjust orders to actual market demand. Plaintiffs allege Mobileye shipped 6-7 million excess EyeQ chips beyond true market demand (4-5 million in 2021-2022 and 2-3 million in 2023), generating hundreds of millions in artificial revenue. Defendants allegedly made false statements about shipping volumes depending on 'market conditions,' customer capacity, inventory levels, and growth drivers while concealing the forced commitments and excess inventory buildup. When the truth emerged on January 4, 2024 (stock dropped 24.5%) and August 1, 2024 (stock dropped 22.5%), Mobileye's stock price collapsed approximately 70% from its Class Period high. The complaint asserts Exchange Act claims under Section 10(b), Rule 10b-5(a), (b), and (c), and Section 20(a), plus Securities Act claims under Sections 11 and 15 related to a June 2023 secondary public offering of $1.6 billion.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Securities Exchange Act of 1934 and SEC Rule 10b-5</t>
+          <t>Section 10(b) and Rule 10b-5(b) - Material Misrepresentations and Omissions (Count I)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2899,19 +2811,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>The complaint adequately pleads all elements required for a Section 10(b) and Rule 10b-5 claim under the heightened pleading standards of the PSLRA.
-**Material Misrepresentation or Omission**: The complaint identifies numerous specific false statements with particularity. First, Capone's repeated misrepresentations about holding a graduate degree in computational learning theory from Clarkson University are well-documented across multiple investor conferences, proxy statements, and company materials from September 2021 through August 2023. The complaint alleges Capone never enrolled in any graduate program. Second, Capone's statement that the CBP contract was worth 'over $4 billion' when it was actually worth no more than $2 billion is a specific, quantifiable misstatement. Third, Capone's claim that DocGo had 'signed up over 3,000 asylum seekers onto New York State Medicaid through UnitedHealthcare' was allegedly completely false, as DocGo did not enroll anyone in Medicaid and had no contract with UnitedHealthcare in New York.
-**Materiality**: The educational credentials were material because DocGo marketed itself as a technology company with AI as its core differentiator, and Capone explicitly linked his purported AI credentials to the Company's technological capabilities. Analysts specifically identified DocGo's AI platform as the Company's 'secret sauce' and 'largest differentiator.' The CBP contract value was material as it would have been nearly ten times DocGo's largest government contract. The Medicaid enrollment claims were material to DocGo's stated strategy of growing its payer vertical.
-**Scienter**: The complaint adequately alleges scienter. Capone's scienter is strongly inferred from his personal knowledge of his own educational background - he knew he never attended graduate school at Clarkson University. The systematic nature of the misrepresentations across multiple forums over years suggests intentional fraud rather than inadvertent error. For the CBP contract, Capone as CEO had access to information about contract values in DocGo's pipeline. For the Medicaid claims, Capone would have known whether DocGo had a contract with UnitedHealthcare. The timing of these statements - made while DocGo was under intense scrutiny for its HPD contract performance - suggests a motive to placate investors.
-**Reliance**: The complaint adequately invokes the fraud-on-the-market presumption by alleging DocGo stock traded on NASDAQ, an efficient market, and that the Company regularly communicated with investors through SEC filings, press releases, and analyst coverage.
-**Loss Causation**: The complaint adequately alleges loss causation by identifying specific corrective disclosures (Times Union articles on September 10 and 14, 2023, and Capone's resignation on September 15, 2023) and corresponding stock price declines (10.76% decline after the first disclosure, 25% decline after the credential revelation and resignation). An analyst specifically attributed the price decline to the falsified credentials and misstatements about the CBP contract.
-**Economic Loss**: The complaint alleges Lead Plaintiff purchased DocGo stock at artificially inflated prices and suffered losses when the truth was revealed.
-The motion to dismiss Count I is DENIED.</t>
+          <t>Plaintiffs have adequately pleaded material misstatements regarding Mobileye's customer contracts, shipping practices, and inventory levels. The complaint identifies specific false statements that Mobileye 'generally' did not have minimum quantity commitments and that volumes shipped would 'depend upon market conditions,' when defendants had actually forced major customers into annual commitments making it 'impossible' to adjust to demand. The complaint adequately alleges scienter through: (1) admissions by defendants that they knew about the minimum commitment deals and their effects; (2) corroborating testimony from former employees FE 1 and FE 2 indicating executive knowledge of excess inventory and forced shipments; (3) the core operations doctrine given EyeQ chips comprised 90% of revenue; (4) industry-standard reporting practices that would have informed defendants of inventory levels; and (5) defendants' ability to meet guidance only through the alleged scheme. Loss causation is adequately pleaded through the January 4 and August 1, 2024 stock drops following corrective disclosures.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Securities Exchange Act of 1934 (Control Person Liability)</t>
+          <t>Section 10(b) and Rules 10b-5(a) and (c) - Scheme Liability (Count II)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2921,34 +2826,62 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Section 20(a) imposes liability on persons who control any person liable under the Exchange Act. To state a claim under Section 20(a), a plaintiff must adequately allege: (1) a primary violation of the securities laws, and (2) that the defendant exercised actual power or control over the primary violator.
-**Primary Violation**: As discussed above, the complaint adequately alleges a primary violation under Section 10(b) and Rule 10b-5.
-**Control**: The complaint adequately alleges that each Individual Defendant was a controlling person of DocGo.
-*Vashovsky*: The complaint alleges Vashovsky co-founded DocGo, served as CEO until January 2023, and has served as Chairman of the Board since 2015. He signed proxy statements containing false information about Capone's credentials. As CEO and Chairman, he had the power to influence and control the Company's public statements and the hiring/appointment of Capone.
-*Capone*: As President and then CEO, Capone was directly responsible for the false statements about his own credentials, the CBP contract value, and the Medicaid enrollments. He had direct control over the Company's operations and public communications.
-*Oberholzer*: As CFO and later Treasurer and Executive Vice President, Oberholzer signed the Form 8-K announcing Capone's appointment as CEO, which contained false information about Capone's credentials. He had oversight responsibility for Company disclosures.
-The complaint alleges these defendants had access to material nonpublic information, participated in preparing false statements, and had the ability to prevent their issuance or cause them to be corrected. The allegations are sufficient to establish control person status at the pleading stage.
-Defendants may assert the affirmative defense that they acted in good faith and did not induce the violations, but this is not appropriately resolved on a motion to dismiss where the complaint alleges facts suggesting the Individual Defendants knew or recklessly disregarded the falsity of the statements.
-The motion to dismiss Count II is DENIED.</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
+          <t>Plaintiffs have adequately alleged a fraudulent scheme beyond mere misstatements. The complaint describes deceptive conduct including: (1) forcing customers into annual minimum commitment contracts that decoupled shipments from actual demand; (2) shipping millions of excess EyeQ chips despite customer objections; (3) refusing to allow customers to cancel or adjust orders even when demand declined; and (4) automatically shipping remaining commitment quantities at year-end regardless of customer need. These allegations describe manipulative conduct that goes beyond misrepresentations and constitutes a scheme to defraud investors by artificially inflating revenue. The scheme allegations are supported by former employee accounts and are sufficiently distinct from the misstatement claims to support scheme liability under Rules 10b-5(a) and (c).</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Section 20(a) - Control Person Liability Against Executive Defendants (Count III)</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Having found a viable primary violation under Section 10(b), the Section 20(a) claim survives. Plaintiffs adequately allege that the Executive Defendants (Shashua, Rojansky, Heller, and Galves) were controlling persons by virtue of their positions as CEO, CFOs, and Chief Communications Officer, their direct involvement in making the alleged misstatements during earnings calls and conferences, their authority over company operations and public communications, and their participation in the alleged scheme. The complaint alleges each defendant made public statements about inventory, demand, and customer relationships during the Class Period.</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Section 11 of the Securities Act - Untrue Statements in Registration Statement (Count IV)</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Plaintiffs have adequately alleged that the Offering Documents for the June 2023 secondary offering contained material misstatements and omissions. The Registration Statement and incorporated documents allegedly misrepresented that Mobileye 'generally' did not have minimum quantity commitments, that volumes would depend on 'market conditions,' and failed to disclose that 4-5 million excess EyeQ chips had already been shipped beyond demand. Oklahoma Firefighters has standing as a direct purchaser in the Offering at $42 per share. The complaint adequately alleges the Securities Act Defendants failed to conduct reasonable due diligence, as the information about minimum commitments and excess inventory was available through industry-standard reporting and internal company communications. Section 11 imposes strict liability on the issuer.</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Section 15 of the Securities Act - Control Person Liability Against Shashua and Heller (Count V)</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Having sustained the Section 11 claim, the Section 15 control person claim also survives. Plaintiffs adequately allege that Shashua and Heller were controlling persons of Mobileye at the time of the Offering by virtue of their positions as CEO and CFO respectively, their signing of the Registration Statement, and their participation in managing the company's operations and public disclosures. The complaint alleges they had the ability to control the contents of the Offering Documents and failed to ensure their accuracy.</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>17695</v>
+        <v>49378</v>
       </c>
       <c r="X24" t="n">
-        <v>1922</v>
+        <v>1483</v>
       </c>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
@@ -2969,7 +2902,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>nysd_24_cv_310</t>
+          <t>txnd-4_24-cv-00673</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2982,12 +2915,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>This securities class action is brought by Lead Plaintiff The Retirement Plan for Chicago Transit Authority Employees and Additional Named Plaintiff Oklahoma Firefighters Pension and Retirement System against Mobileye Global Inc. and its senior executives (CEO Amnon Shashua, CFOs Moran Shemesh Rojansky and Anat Heller, and Chief Communications Officer Daniel Galves). The complaint alleges that from January 26, 2023 through August 1, 2024 (the Class Period), Defendants engaged in a channel stuffing scheme whereby they forced Tier 1 automotive customers to accept millions of EyeQ chips beyond actual market demand through mandatory annual minimum quantity purchase commitments. The complaint alleges Defendants shipped 4-5 million excess EyeQ chips in 2021-2022 and another 2-3 million excess chips in 2023, generating hundreds of millions of dollars in inflated revenue. Defendants allegedly concealed this scheme while publicly stating that shipments depended on 'market conditions' and that they were monitoring inventory levels. The truth allegedly emerged on January 4, 2024, when Mobileye revealed 6-7 million excess units at customers, causing stock to fall 24.5%. On August 1, 2024, further guidance reductions caused another 22.5% decline. The complaint asserts Exchange Act claims under Sections 10(b) and 20(a) for the Class Period, and Securities Act claims under Sections 11 and 15 related to a June 2023 secondary public offering of 38.5 million shares. Former employees from both Mobileye and customer Aptiv allegedly corroborate that Defendants knew about the excess inventory buildup and forced customers to accept chips they did not want.</t>
+          <t>This securities class action is brought by Co-Lead Plaintiffs Dominik Dumancic and Luis Vicente Davidoff Cracasso, along with Additional Plaintiff Richard Wilkinson, on behalf of a class of investors who purchased American Airlines Group Inc. securities between July 20, 2023 and May 28, 2024 (the Class Period). The defendants are American Airlines Group Inc. and three Individual Defendants: Robert D. Isom Jr. (CEO), Devon E. May (CFO), and Vasu S. Raja (former CCO who departed in June 2024). The complaint alleges that defendants violated Sections 10(b) and 20(a) of the Securities Exchange Act of 1934 and Rule 10b-5 by making materially false and misleading statements about the success of American's 'Modern Retailing' distribution strategy, which aimed to shift corporate customers from traditional EDIFACT booking channels to New Distribution Capability (NDC) technology and direct booking channels. Plaintiffs allege that beginning in December 2022, American aggressively pushed NDC adoption by removing 40% of fare content from traditional channels, reducing incentives to travel agencies and corporate customers, and canceling contracts with small and medium-sized businesses. The complaint alleges defendants knew this strategy was failing—that travel agencies, TMCs, and corporate customers were fleeing to competitors, causing American to lose market share—but continued to make false statements about strong demand, encouraging NDC adoption rates, and positive corporate travel trends. Confidential witnesses who worked at American confirmed that internal data showed bookings from agencies declined 15% year-over-year by July 2023, corporate bookings were 'much lower,' and these metrics remained 'consistently down' through early 2024. The truth allegedly emerged on May 28-29, 2024, when American announced Raja's departure, slashed Q2 2024 guidance, and CEO Isom admitted the distribution strategy was 'driving customers away from American.' American's stock dropped over 13.5% on May 29, 2024. Defendants later admitted the strategy caused $750 million in lost revenue in the first half of 2024 and another $750 million expected in the second half. The complaint seeks damages for investors who purchased securities at artificially inflated prices during the Class Period.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Section 10(b) and Rule 10b-5(b) - Material Misrepresentations and Omissions</t>
+          <t>Section 10(b) of the Exchange Act and Rule 10b-5 (Count I) - against all Defendants</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2997,12 +2930,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>The complaint adequately pleads a Section 10(b) claim. First, regarding material misrepresentations, Plaintiffs identify specific statements in SEC filings and earnings calls where Defendants stated that shipment volumes would 'depend upon market conditions,' that they were 'monitoring inventory levels on an ongoing basis,' and that customers had 'so much capacity' to purchase more products. The complaint alleges these statements were false because Defendants had actually forced customers into annual minimum commitment contracts that made it 'impossible' to adjust quantities to market conditions. Second, regarding scienter, the complaint pleads a strong inference of scienter through: (a) former employee FE 2, a VP who reported to an executive directly under the CEO, stating the decision to push inventory 'went up to Amnon' (CEO Shashua); (b) FE 2's testimony that quarterly meetings attended by the CFO discussed issues with Tier 1 customers; (c) the core operations doctrine, as EyeQ chips comprised approximately 90% of revenue; (d) industry-standard EDI communications providing regular inventory and demand data from customers; (e) the scheme enabled Mobileye to precisely meet guidance and analyst expectations each quarter; and (f) Defendants' shifting explanations for elevated inventory levels. Third, loss causation is adequately pleaded through the January 4, 2024 disclosure of 6-7 million excess units causing a 24.5% stock decline, and the August 1, 2024 guidance reduction causing a 22.5% decline. The complaint connects these declines to the revelation of the alleged fraud. The motion to dismiss this claim is DENIED.</t>
+          <t>The complaint adequately pleads a Section 10(b) and Rule 10b-5 claim. First, the complaint identifies numerous specific false or misleading statements made during the Class Period, including statements in SEC filings (Forms 10-Q and 10-K), earnings calls, investor conferences, and press releases where defendants claimed they were 'encouraged' by NDC adoption, that business demand was 'strong,' that they were seeing 'great response from agencies,' and that American was 'on track' to meet financial guidance. Second, the complaint adequately pleads materiality, as these statements concerned American's core business operations—passenger revenue comprising 92% of total revenue—and the distribution strategy affecting approximately $14 billion in annual revenue. Third, scienter is adequately alleged through multiple channels: (a) confidential witnesses confirm defendants had access to internal data (SalesLink Insights, PRISM reports, IATA data) showing declining bookings and market share throughout the Class Period; (b) defendants' own admissions that they 'identified a deviation' in Q1 2024 but hoped it would 'reverse itself'; (c) American's commissioning of Bain &amp; Co. to conduct a 'critical review' of the distribution strategy, which led to Raja's termination; (d) the core operations doctrine, as the distribution strategy was central to American's business; and (e) defendants' evasive responses to analyst questions about market share shifts. Fourth, loss causation is adequately pleaded through the May 28-29, 2024 corrective disclosures that revealed the truth about the failing distribution strategy, causing a 13.5% stock price decline, while competitors' stocks remained stable. The complaint sufficiently distinguishes company-specific harm from industry-wide factors.</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Section 10(b) and Rules 10b-5(a) and (c) - Scheme Liability</t>
+          <t>Section 20(a) of the Exchange Act (Count II) - against Individual Defendants Isom, May, and Raja</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -3012,62 +2945,26 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>The complaint adequately pleads scheme liability under Rules 10b-5(a) and (c). Plaintiffs allege Defendants engaged in a deceptive course of conduct by: (1) forcing customers into annual minimum quantity commitments that made it 'impossible' to adjust orders to demand; (2) shipping millions of excess EyeQ chips over several years despite customer objections; (3) cannibalizing future growth as customers accumulated excess inventory; and (4) concealing the scheme's impact through misleading assurances about demand normalization. The scheme allegations go beyond mere misstatements and describe manipulative conduct - specifically, the imposition of atypical contractual arrangements that decoupled sales from actual market demand. Former employee testimony from FE 1 at Aptiv corroborates that Mobileye 'forced us to make overstock' and would deliver chips 'without question' even when customers did not want them. The complaint alleges this conduct was designed to inflate revenue and meet financial targets. Scienter is adequately pleaded for the same reasons stated in the Rule 10b-5(b) analysis. The motion to dismiss this claim is DENIED.</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Section 20(a) - Control Person Liability Against Executive Defendants</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>The complaint adequately pleads Section 20(a) control person liability against the Executive Defendants (Shashua, Rojansky, Heller, and Galves). Section 20(a) requires: (1) a primary violation of the securities laws, and (2) that the defendant exercised control over the primary violator. First, as discussed above, the complaint adequately pleads a primary violation under Section 10(b). Second, the complaint alleges each Executive Defendant held high-level positions (CEO, CFO, Chief Communications Officer) giving them authority to influence and control the Company's operations and public statements. The complaint specifically alleges: (a) Shashua as CEO and President directly participated in management and made numerous public statements; (b) Heller and Rojansky as CFOs had direct involvement in financial reporting and made statements on earnings calls; (c) Galves as Chief Communications Officer led investor relations and made statements at investor conferences; and (d) FE 2 testified that decisions regarding the inventory scheme 'went up to Amnon' (Shashua) and that the CFO attended quarterly meetings where customer issues were discussed. The Executive Defendants have not demonstrated a good faith defense at this stage. The motion to dismiss this claim is DENIED.</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Section 11 of the Securities Act - Misstatements in Offering Documents</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>The complaint adequately pleads a Section 11 claim related to the June 2023 Secondary Public Offering. Section 11 imposes strict liability on issuers and negligence-based liability on signatories for material misstatements or omissions in registration statements. First, Oklahoma Firefighters has standing as it alleges purchasing 30,115 shares directly in the Offering at $42 per share on June 8, 2023, which settled on June 12, 2023. The complaint adequately alleges traceability to the Offering. Second, the Offering Documents (Registration Statement and incorporated filings) contained materially misleading statements, including: (a) that Mobileye 'generally' did not have minimum quantity contracts when it had such contracts with customers generating 70% of revenue; (b) that shipment volumes would 'depend upon market conditions' when Defendants had made it 'impossible' for customers to adjust quantities; (c) that customers had 'increased their orders' to counteract supply shortages when Mobileye had forced customers into commitments they did not want; and (d) revenue figures that were inflated by 4-5 million excess units shipped before the Offering. Third, the complaint adequately alleges omissions required by Items 303 and 105 of Regulation S-K regarding known trends and risk factors related to excess inventory. Fourth, damages are adequately pleaded as the stock price has declined substantially below the $42 offering price. The motion to dismiss this claim is DENIED.</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>Section 15 of the Securities Act - Control Person Liability Against Shashua and Heller</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>The complaint adequately pleads Section 15 control person liability against Securities Act Defendants Shashua and Heller. Section 15 requires: (1) a primary violation of Section 11, and (2) that the defendant was a controlling person of the primary violator. First, as discussed above, the complaint adequately pleads a Section 11 violation by Mobileye as issuer. Second, the complaint alleges Shashua (CEO, President, and Director) and Heller (CFO at the time of the Offering) both signed the Registration Statement and were controlling persons who participated in the operation and management of Mobileye. They had the ability to control the contents of the Offering Documents. The complaint further alleges they were culpable participants based on their positions and involvement in the alleged misconduct, as supported by FE 2's testimony that the inventory scheme decisions 'went up to Amnon' and that the CFO attended meetings where customer issues were discussed. Section 15 liability is derivative of the Section 11 violation, and the complaint adequately establishes the control relationship. The motion to dismiss this claim is DENIED.</t>
-        </is>
-      </c>
+          <t>The complaint adequately pleads a Section 20(a) control person claim against the Individual Defendants. First, the underlying Section 10(b) violation is adequately alleged as discussed above. Second, the complaint sufficiently alleges that each Individual Defendant was a controlling person of American: Isom was CEO, President, and Board member; May was EVP and CFO who signed SEC filings; and Raja was EVP and CCO who directed the distribution strategy. The complaint alleges these officers 'directly participated in the management of American,' were 'directly involved in the day-to-day operations,' had 'access to adverse, undisclosed information' through internal documents and communications, and 'controlled the content of the public statements issued by the Company.' The complaint further alleges Isom admitted 'our strategy is the company strategy. Those are my strategies,' demonstrating his control over the challenged distribution strategy. The Individual Defendants reviewed and approved SEC filings, made statements on earnings calls and at investor conferences, and had the power to prevent or correct the alleged misstatements. The complaint adequately alleges culpable participation in the fraud through their direct involvement in making the false statements and their access to contradictory internal data.</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="n">
-        <v>49658</v>
+        <v>60111</v>
       </c>
       <c r="X25" t="n">
-        <v>2159</v>
+        <v>1302</v>
       </c>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
@@ -3088,7 +2985,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>txnd-4_24-cv-00673</t>
+          <t>txsd-4-21-cv-02473</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3101,17 +2998,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>This securities class action is brought by Lead Plaintiffs Dominik Dumancic and Luis Vicente Davidoff Cracasso, along with Additional Plaintiff Richard Wilkinson, on behalf of all persons who purchased American Airlines Group Inc. securities between July 20, 2023 and May 28, 2024 (the Class Period). The defendants are American Airlines Group Inc. and three Individual Defendants: Robert D. Isom Jr. (CEO), Devon E. May (CFO), and Vasu S. Raja (former CCO who departed in June 2024).
-The alleged fraudulent conduct centers on American's 'Modern Retailing' distribution strategy, which aimed to shift corporate customers and travel agencies from booking through traditional EDIFACT channels (using Global Distribution Systems) to booking directly through American's website, mobile app, or NDC (New Distribution Capability) technology. Beginning in December 2022 and continuing through Spring 2024, American removed approximately 40% of its airfare content from EDIFACT channels, restricted availability to NDC channels, reduced incentives previously offered to travel agencies and corporations, and imposed new contracts with aggressive NDC adoption goals.
-The key factual allegations supporting the claims include: (1) Confidential witnesses (CW1 and CW2) who worked at American during the Class Period confirmed that by April 2023, agencies and companies were booking fewer flights with American, with some avoiding American entirely; (2) After the July 2023 contracts went into effect, bookings from larger agencies declined 15% compared to year-over-year levels, and corporate bookings were 'much lower'; (3) American's internal data from SalesLink Insights, PRISM reports, and IATA reports showed poor NDC adoption and declining market share; (4) Defendants had access to this data and knew customers were not adopting NDC technology; (5) American hired Bain &amp; Co. to conduct a 'critical review' of its distribution strategy, which revealed concerns about alienating corporate clients.
-Despite this knowledge, Defendants allegedly made false and misleading statements throughout the Class Period, including: claiming they were 'encouraged' by business demand and NDC adoption; stating they saw 'great response from agencies'; affirming guidance for 2Q and full-year 2024; and claiming American had a 'strong foundation' and was 'on track' to meet financial targets. The complaint alleges Defendants knew these statements were false because internal data showed customers were fleeing to competitors.
-The truth was revealed on May 28-29, 2024, when American announced Raja's departure, slashed its 2Q 2024 guidance, and Isom admitted at the Bernstein Conference that the distribution strategy was 'driving customers away from American,' that they 'moved faster than we should have and didn't execute well,' and that the company needed to 'reset.' American's stock dropped 13.54% on May 29, 2024. On July 25, 2024, Isom disclosed that American lost $750 million in revenue during the first half of 2024 due to the distribution strategy, with another $750 million impact expected for the second half.
-The complaint asserts two legal claims: (1) Violation of Section 10(b) of the Exchange Act and Rule 10b-5 against all Defendants; and (2) Violation of Section 20(a) of the Exchange Act against the Individual Defendants as control persons.</t>
+          <t>This securities class action is brought by Lead Plaintiffs Utah Retirement Systems and Construction Laborers Pension Trust for Southern California against Concho Resources Inc., ConocoPhillips (as successor-in-interest), and Individual Defendants Timothy A. Leach (CEO/Chairman), Jack F. Harper (President/CFO), C. William Giraud (Executive VP/COO), E. Joseph Wright (COO/Executive VP), and Brenda R. Schroer (Treasurer/SVP/CFO). The Class Period runs from February 21, 2018 through July 31, 2019. Plaintiffs allege Defendants engaged in securities fraud by making materially false and misleading statements about Concho's transition to 'manufacturing mode' or 'large-scale development' for oil and gas production in the Permian Basin. The alleged misconduct centers on the Dominator project, a 23-well pad with aggressive well spacing of 230 feet, and similar projects. Plaintiffs claim Defendants: (1) misrepresented that manufacturing-style development was validated and would deliver economies of scale; (2) failed to disclose that the development approach was unverified and extremely high-risk; (3) improperly used lower risk profiles despite internal warnings about tight well spacing risks; (4) failed to conduct or ignored necessary fracture modeling; and (5) issued artificially high production forecasts. Former employees allegedly warned that wells were spaced too tightly and that proper risk assessments were not applied. On July 31, 2019, Defendants revealed Dominator's wells were 'too tight,' causing a 22% stock price decline. The complaint alleges violations of Section 10(b) and Rule 10b-5, and Section 20(a) of the Exchange Act.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5</t>
+          <t>Section 10(b) of the Exchange Act and Rule 10b-5 against all Defendants</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3121,16 +3013,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>The complaint adequately pleads all elements of a Section 10(b) and Rule 10b-5 claim. First, regarding material misrepresentations and omissions, the complaint identifies numerous specific false statements made by Defendants throughout the Class Period, including statements that they were 'encouraged' by business demand and NDC adoption, that agencies were 'increasingly adopting' NDC technology, that American had a 'strong foundation,' and that the company was 'on track' to meet its financial guidance. The complaint alleges these statements were false because internal data showed that bookings from agencies declined 15% after the July 2023 contracts, corporate bookings were 'much lower,' and American was losing market share to competitors. The confidential witness testimony provides particularized factual support for the falsity of these statements.
-Second, regarding scienter, the complaint raises a strong inference of scienter through multiple channels: (a) Defendants had access to detailed internal data from SalesLink Insights, PRISM reports, and IATA reports showing declining bookings and market share; (b) CW1 stated that Defendant Raja could 'see the numbers' and that 'everyone knew' American was losing corporate market share; (c) Defendant Isom admitted post-Class Period that Defendants 'identified a deviation in terms of our revenue performance versus some of our large network peers in the first quarter' but 'thought that was going to reverse itself'; (d) American commissioned Bain &amp; Co. to review its distribution strategy weeks before the truth was disclosed, indicating management awareness of problems; (e) The distribution strategy was central to American's core operations, representing approximately $14 billion in annual revenue; (f) Defendants' evasive responses to analyst questions about market share and NDC adoption problems suggest knowledge of issues they sought to conceal; and (g) Raja's termination immediately following the disclosure suggests he was held accountable for the failed strategy Defendants had been concealing.
-Third, regarding loss causation, the complaint adequately alleges that the stock price decline on May 29, 2024 (13.54% drop) was caused by the disclosure of the truth about the distribution strategy's failures. The complaint includes a chart showing American's stock declined significantly while competitors Delta and United remained stable, negating any inference that the decline was due to industry-wide factors. Analyst reports cited in the complaint attributed the decline specifically to American's distribution strategy problems.
-Fourth, regarding reliance, the complaint invokes the fraud-on-the-market presumption, alleging that American's securities traded on an efficient market (Nasdaq), the company was followed by numerous analysts, and the stock price reacted promptly to public information. The complaint also invokes the Affiliated Ute presumption for claims based on omissions.
-The PSLRA's heightened pleading requirements are satisfied. The complaint identifies specific statements, explains why they were false when made, and provides particularized facts from confidential witnesses and Defendants' own admissions supporting the inference of scienter. The scienter allegations, taken collectively, give rise to an inference of fraudulent intent that is at least as compelling as any opposing inference of innocent conduct.</t>
+          <t>The complaint adequately pleads material misrepresentations and omissions regarding Concho's manufacturing-style development projects, including specific false statements about well spacing validation, risk profiles, and production forecasts. The complaint pleads scienter through detailed allegations from multiple former employees who state that Individual Defendants, particularly Defendant Giraud, were repeatedly warned about spacing risks but ignored those warnings and directed use of improper risk profiles. The complaint alleges Defendants had access to real-time production data and attended weekly meetings where projects were discussed. Loss causation is adequately pled through the 22% stock price decline following disclosure that wells were spaced 'too tight.' The PSLRA pleading requirements appear satisfied with particularized facts about what was said, when, by whom, and why the statements were false.</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act (Control Person Liability)</t>
+          <t>Section 20(a) of the Exchange Act against Individual Defendants (control person liability)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -3140,11 +3028,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Section 20(a) imposes liability on persons who control primary violators of the Exchange Act. To state a claim under Section 20(a), plaintiffs must adequately plead: (1) a primary violation of the securities laws; and (2) that the defendant exercised actual power or control over the primary violator.
-As discussed above, the complaint adequately pleads a primary violation under Section 10(b) and Rule 10b-5. The complaint also adequately alleges that the Individual Defendants were control persons. Defendant Isom was CEO, President, and a Board member throughout the Class Period. Defendant May was Executive Vice President and CFO. Defendant Raja was Executive Vice President and CCO until his departure in June 2024.
-The complaint alleges that by virtue of their high-level positions, the Individual Defendants 'directly participated in the management of American and were directly involved in the day-to-day operations of American at their highest levels.' They were 'privy to confidential, proprietary information concerning the Company and its business operations, growth, and financial condition.' The complaint further alleges that the Individual Defendants 'had the ability to correct the statements or prevent them from being released into the public sphere' and 'had access to adverse, undisclosed information about the Company's business, operations, financial statements, and internal controls through their access to internal corporate documents and conversations with other corporate officers and employees.'
-Defendant Isom himself admitted at the Bernstein Conference that 'our strategy is the company strategy. Those are my strategies,' demonstrating his control over the distribution strategy at the heart of this case. The complaint alleges that Raja was the 'corporate architect' of the distribution strategy and that Isom made the decision to terminate Raja after receiving the Bain report.
-These allegations are sufficient at the pleading stage to establish that the Individual Defendants exercised actual control over American and its public statements. The motion to dismiss the Section 20(a) claim is denied.</t>
+          <t>The complaint adequately alleges a primary violation of Section 10(b) as the predicate for control person liability. The complaint sufficiently pleads that each Individual Defendant was a controlling person of Concho by virtue of their executive positions, their direct involvement in day-to-day operations, their access to internal reports and information, their participation in making and approving public statements, and their power to influence company decision-making. The complaint alleges each Individual Defendant culpably participated in the misstatements through their direct involvement in budgeting meetings, approval of projects, and public statements to investors about the manufacturing-style development strategy.</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -3160,10 +3044,10 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="n">
-        <v>60391</v>
+        <v>73863</v>
       </c>
       <c r="X26" t="n">
-        <v>2038</v>
+        <v>793</v>
       </c>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
